--- a/players.xlsx
+++ b/players.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrvorel35/nba_zkouska/nba-player-search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrvorel35/projekt2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF56C9DA-41D6-A441-A78A-B58829AEE664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650E86A-C13B-FF4C-8883-C731EA5165C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{7EC8AFE5-59F6-F246-BCB8-55B35148A5E5}"/>
   </bookViews>
@@ -1337,306 +1337,39 @@
     <t>Ht</t>
   </si>
   <si>
-    <t>Neemias Queta  (TW)</t>
-  </si>
-  <si>
-    <t>Drew Peterson  (TW)</t>
-  </si>
-  <si>
-    <t>JD Davison  (TW)</t>
-  </si>
-  <si>
     <t>Jordan Walsh</t>
   </si>
   <si>
-    <t>Marques Bolden  (TW)</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.  (TW)</t>
-  </si>
-  <si>
-    <t>Lindell Wigginton  (TW)</t>
-  </si>
-  <si>
-    <t>Ricky Council IV  (TW)</t>
-  </si>
-  <si>
-    <t>Kenneth Lofton Jr.  (TW)</t>
-  </si>
-  <si>
-    <t>Terquavion Smith  (TW)</t>
-  </si>
-  <si>
-    <t>R.J. Hampton  (TW)</t>
-  </si>
-  <si>
-    <t>Jamal Cain  (TW)</t>
-  </si>
-  <si>
-    <t>Cole Swider  (TW)</t>
-  </si>
-  <si>
-    <t>Trevelin Queen  (TW)</t>
-  </si>
-  <si>
-    <t>Admiral Schofield  (TW)</t>
-  </si>
-  <si>
-    <t>Kevon Harris  (TW)</t>
-  </si>
-  <si>
-    <t>Kendall Brown  (TW)</t>
-  </si>
-  <si>
-    <t>Isaiah Wong  (TW)</t>
-  </si>
-  <si>
-    <t>Oscar Tshiebwe  (TW)</t>
-  </si>
-  <si>
-    <t>Jacob Toppin  (TW)</t>
-  </si>
-  <si>
-    <t>Charlie Brown Jr.  (TW)</t>
-  </si>
-  <si>
-    <t>Craig Porter Jr.  (TW)</t>
-  </si>
-  <si>
-    <t>Isaiah Mobley  (TW)</t>
-  </si>
-  <si>
-    <t>Emoni Bates  (TW)</t>
-  </si>
-  <si>
     <t>Ricky Rubio</t>
   </si>
   <si>
-    <t>Armoni Brooks  (TW)</t>
-  </si>
-  <si>
-    <t>Jalen Wilson  (TW)</t>
-  </si>
-  <si>
-    <t>Keon Johnson  (TW)</t>
-  </si>
-  <si>
-    <t>Onuralp Bitim  (TW)</t>
-  </si>
-  <si>
-    <t>Adama Sanogo  (TW)</t>
-  </si>
-  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Henri Drell  (TW)</t>
-  </si>
-  <si>
-    <t>Trent Forrest  (TW)</t>
-  </si>
-  <si>
-    <t>Seth Lundy  (TW)</t>
-  </si>
-  <si>
-    <t>Vit Krejci  (TW)</t>
-  </si>
-  <si>
-    <t>Markquis Nowell  (TW)</t>
-  </si>
-  <si>
-    <t>Jontay Porter  (TW)</t>
-  </si>
-  <si>
     <t>Christian Koloko</t>
   </si>
   <si>
-    <t>Javon Freeman-Liberty  (TW)</t>
-  </si>
-  <si>
-    <t>Amari Bailey  (TW)</t>
-  </si>
-  <si>
-    <t>Leaky Black  (TW)</t>
-  </si>
-  <si>
-    <t>Nathan Mensah  (TW)</t>
-  </si>
-  <si>
     <t>Frank Ntilikina</t>
   </si>
   <si>
-    <t>Jared Butler  (TW)</t>
-  </si>
-  <si>
-    <t>Jules Bernard  (TW)</t>
-  </si>
-  <si>
-    <t>Eugene Omoruyi  (TW)</t>
-  </si>
-  <si>
-    <t>Jared Rhoden  (TW)</t>
-  </si>
-  <si>
-    <t>Stanley Umude  (TW)</t>
-  </si>
-  <si>
-    <t>Malcolm Cazalon  (TW)</t>
-  </si>
-  <si>
     <t>Monte Morris</t>
   </si>
   <si>
-    <t>Daishen Nix  (TW)</t>
-  </si>
-  <si>
-    <t>Luka Garza  (TW)</t>
-  </si>
-  <si>
-    <t>Jaylen Clark  (TW)</t>
-  </si>
-  <si>
-    <t>Lindy Waters III  (TW)</t>
-  </si>
-  <si>
-    <t>Keyontae Johnson  (TW)</t>
-  </si>
-  <si>
-    <t>Olivier Sarr  (TW)</t>
-  </si>
-  <si>
-    <t>Braxton Key  (TW)</t>
-  </si>
-  <si>
-    <t>Collin Gillespie  (TW)</t>
-  </si>
-  <si>
-    <t>Jay Huff  (TW)</t>
-  </si>
-  <si>
     <t>Vlatko Čančar</t>
   </si>
   <si>
-    <t>Jordan Miller  (TW)</t>
-  </si>
-  <si>
-    <t>Xavier Moon  (TW)</t>
-  </si>
-  <si>
-    <t>Moussa Diabaté  (TW)</t>
-  </si>
-  <si>
-    <t>Jalen Slawson  (TW)</t>
-  </si>
-  <si>
-    <t>Keon Ellis  (TW)</t>
-  </si>
-  <si>
-    <t>Jordan Ford  (TW)</t>
-  </si>
-  <si>
-    <t>Dereon Seabron  (TW)</t>
-  </si>
-  <si>
-    <t>Matt Ryan  (TW)</t>
-  </si>
-  <si>
-    <t>Jeremiah Robinson-Earl  (TW)</t>
-  </si>
-  <si>
-    <t>Brandon Williams  (TW)</t>
-  </si>
-  <si>
-    <t>A.J. Lawson  (TW)</t>
-  </si>
-  <si>
-    <t>Greg Brown III  (TW)</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike  (TW)</t>
-  </si>
-  <si>
-    <t>Saben Lee  (TW)</t>
-  </si>
-  <si>
-    <t>Théo Maledon  (TW)</t>
-  </si>
-  <si>
     <t>Damion Lee</t>
   </si>
   <si>
-    <t>Jermaine Samuels  (TW)</t>
-  </si>
-  <si>
-    <t>Nate Hinton  (TW)</t>
-  </si>
-  <si>
-    <t>Jeenathan Williams  (TW)</t>
-  </si>
-  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
-    <t>Colin Castleton  (TW)</t>
-  </si>
-  <si>
-    <t>Alex Fudge  (TW)</t>
-  </si>
-  <si>
-    <t>D'Moi Hodge  (TW)</t>
-  </si>
-  <si>
-    <t>Usman Garuba  (TW)</t>
-  </si>
-  <si>
-    <t>Jerome Robinson  (TW)</t>
-  </si>
-  <si>
-    <t>Lester Quinones  (TW)</t>
-  </si>
-  <si>
-    <t>Micah Potter  (TW)</t>
-  </si>
-  <si>
-    <t>Johnny Juzang  (TW)</t>
-  </si>
-  <si>
-    <t>Josh Christopher  (TW)</t>
-  </si>
-  <si>
-    <t>Jacob Gilyard  (TW)</t>
-  </si>
-  <si>
-    <t>Vince Williams Jr.  (TW)</t>
-  </si>
-  <si>
-    <t>Gregory Jackson II  (TW)</t>
-  </si>
-  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Justin Minaya  (TW)</t>
-  </si>
-  <si>
-    <t>Duop Reath  (TW)</t>
-  </si>
-  <si>
-    <t>Ibou Badji  (TW)</t>
-  </si>
-  <si>
-    <t>Dominick Barlow  (TW)</t>
-  </si>
-  <si>
-    <t>Mamadi Diakite  (TW)</t>
-  </si>
-  <si>
-    <t>David Duke Jr.  (TW)</t>
-  </si>
-  <si>
     <t>6 ft 8 in</t>
   </si>
   <si>
@@ -1692,6 +1425,273 @@
   </si>
   <si>
     <t>5 ft 9 in</t>
+  </si>
+  <si>
+    <t>Drew Peterson</t>
+  </si>
+  <si>
+    <t>JD Davison</t>
+  </si>
+  <si>
+    <t>Neemias Queta</t>
+  </si>
+  <si>
+    <t>Marques Bolden</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>Lindell Wigginton</t>
+  </si>
+  <si>
+    <t>Ricky Council IV</t>
+  </si>
+  <si>
+    <t>Kenneth Lofton Jr.</t>
+  </si>
+  <si>
+    <t>Terquavion Smith</t>
+  </si>
+  <si>
+    <t>R.J. Hampton</t>
+  </si>
+  <si>
+    <t>Jamal Cain</t>
+  </si>
+  <si>
+    <t>Cole Swider</t>
+  </si>
+  <si>
+    <t>Trevelin Queen</t>
+  </si>
+  <si>
+    <t>Admiral Schofield</t>
+  </si>
+  <si>
+    <t>Kevon Harris</t>
+  </si>
+  <si>
+    <t>Kendall Brown</t>
+  </si>
+  <si>
+    <t>Isaiah Wong</t>
+  </si>
+  <si>
+    <t>Oscar Tshiebwe</t>
+  </si>
+  <si>
+    <t>Jacob Toppin</t>
+  </si>
+  <si>
+    <t>Charlie Brown Jr.</t>
+  </si>
+  <si>
+    <t>Craig Porter Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Mobley</t>
+  </si>
+  <si>
+    <t>Emoni Bates</t>
+  </si>
+  <si>
+    <t>Armoni Brooks</t>
+  </si>
+  <si>
+    <t>Jalen Wilson</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Onuralp Bitim</t>
+  </si>
+  <si>
+    <t>Adama Sanogo</t>
+  </si>
+  <si>
+    <t>Henri Drell</t>
+  </si>
+  <si>
+    <t>Trent Forrest</t>
+  </si>
+  <si>
+    <t>Seth Lundy</t>
+  </si>
+  <si>
+    <t>Vit Krejci</t>
+  </si>
+  <si>
+    <t>Markquis Nowell</t>
+  </si>
+  <si>
+    <t>Jontay Porter</t>
+  </si>
+  <si>
+    <t>Javon Freeman-Liberty</t>
+  </si>
+  <si>
+    <t>Amari Bailey</t>
+  </si>
+  <si>
+    <t>Leaky Black</t>
+  </si>
+  <si>
+    <t>Nathan Mensah</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Jules Bernard</t>
+  </si>
+  <si>
+    <t>Eugene Omoruyi</t>
+  </si>
+  <si>
+    <t>Jared Rhoden</t>
+  </si>
+  <si>
+    <t>Stanley Umude</t>
+  </si>
+  <si>
+    <t>Malcolm Cazalon</t>
+  </si>
+  <si>
+    <t>Daishen Nix</t>
+  </si>
+  <si>
+    <t>Luka Garza</t>
+  </si>
+  <si>
+    <t>Jaylen Clark</t>
+  </si>
+  <si>
+    <t>Lindy Waters III</t>
+  </si>
+  <si>
+    <t>Keyontae Johnson</t>
+  </si>
+  <si>
+    <t>Olivier Sarr</t>
+  </si>
+  <si>
+    <t>Braxton Key</t>
+  </si>
+  <si>
+    <t>Collin Gillespie</t>
+  </si>
+  <si>
+    <t>Jay Huff</t>
+  </si>
+  <si>
+    <t>Jordan Miller</t>
+  </si>
+  <si>
+    <t>Xavier Moon</t>
+  </si>
+  <si>
+    <t>Moussa Diabaté</t>
+  </si>
+  <si>
+    <t>Jalen Slawson</t>
+  </si>
+  <si>
+    <t>Keon Ellis</t>
+  </si>
+  <si>
+    <t>Jordan Ford</t>
+  </si>
+  <si>
+    <t>Dereon Seabron</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>Jeremiah Robinson-Earl</t>
+  </si>
+  <si>
+    <t>Brandon Williams</t>
+  </si>
+  <si>
+    <t>A.J. Lawson</t>
+  </si>
+  <si>
+    <t>Greg Brown III</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Saben Lee</t>
+  </si>
+  <si>
+    <t>Théo Maledon</t>
+  </si>
+  <si>
+    <t>Jermaine Samuels</t>
+  </si>
+  <si>
+    <t>Nate Hinton</t>
+  </si>
+  <si>
+    <t>Jeenathan Williams</t>
+  </si>
+  <si>
+    <t>Colin Castleton</t>
+  </si>
+  <si>
+    <t>Alex Fudge</t>
+  </si>
+  <si>
+    <t>D'Moi Hodge</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Jerome Robinson</t>
+  </si>
+  <si>
+    <t>Lester Quinones</t>
+  </si>
+  <si>
+    <t>Micah Potter</t>
+  </si>
+  <si>
+    <t>Johnny Juzang</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Jacob Gilyard</t>
+  </si>
+  <si>
+    <t>Vince Williams Jr.</t>
+  </si>
+  <si>
+    <t>Gregory Jackson II</t>
+  </si>
+  <si>
+    <t>Justin Minaya</t>
+  </si>
+  <si>
+    <t>Duop Reath</t>
+  </si>
+  <si>
+    <t>Ibou Badji</t>
+  </si>
+  <si>
+    <t>Dominick Barlow</t>
+  </si>
+  <si>
+    <t>Mamadi Diakite</t>
+  </si>
+  <si>
+    <t>David Duke Jr.</t>
   </si>
 </sst>
 </file>
@@ -2104,12 +2104,12 @@
   <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2124,7 +2124,6 @@
       <c r="C1" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2134,11 +2133,11 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2150,11 +2149,11 @@
       <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2166,11 +2165,11 @@
       <c r="A4" s="6">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2182,11 +2181,11 @@
       <c r="A5" s="6">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2198,11 +2197,11 @@
       <c r="A6" s="6">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2214,11 +2213,11 @@
       <c r="A7" s="6">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2230,11 +2229,11 @@
       <c r="A8" s="6">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>341</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2246,11 +2245,11 @@
       <c r="A9" s="6">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>434</v>
+      <c r="B9" t="s">
+        <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2262,11 +2261,11 @@
       <c r="A10" s="6">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>435</v>
+      <c r="B10" t="s">
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2278,11 +2277,11 @@
       <c r="A11" s="6">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2294,11 +2293,11 @@
       <c r="A12" s="6">
         <v>40</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>296</v>
       </c>
       <c r="C12" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2310,11 +2309,11 @@
       <c r="A13" s="6">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2326,11 +2325,11 @@
       <c r="A14" s="6">
         <v>45</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2342,11 +2341,11 @@
       <c r="A15" s="6">
         <v>50</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>384</v>
       </c>
       <c r="C15" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2358,11 +2357,11 @@
       <c r="A16" s="6">
         <v>77</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>376</v>
       </c>
       <c r="C16" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2374,11 +2373,11 @@
       <c r="A17" s="6">
         <v>88</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>433</v>
+      <c r="B17" t="s">
+        <v>465</v>
       </c>
       <c r="C17" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2388,11 +2387,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>436</v>
+      <c r="B18" t="s">
+        <v>433</v>
       </c>
       <c r="C18" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2404,11 +2403,11 @@
       <c r="A19" s="6">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2420,11 +2419,11 @@
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2436,11 +2435,11 @@
       <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2452,11 +2451,11 @@
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>411</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2468,11 +2467,11 @@
       <c r="A23" s="6">
         <v>9</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2484,11 +2483,11 @@
       <c r="A24" s="6">
         <v>11</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -2500,11 +2499,11 @@
       <c r="A25" s="6">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>437</v>
+      <c r="B25" t="s">
+        <v>466</v>
       </c>
       <c r="C25" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2516,11 +2515,11 @@
       <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2532,11 +2531,11 @@
       <c r="A27" s="6">
         <v>20</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -2548,11 +2547,11 @@
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2564,11 +2563,11 @@
       <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>438</v>
+      <c r="B29" t="s">
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2580,11 +2579,11 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2596,11 +2595,11 @@
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>439</v>
+      <c r="B31" t="s">
+        <v>468</v>
       </c>
       <c r="C31" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2612,11 +2611,11 @@
       <c r="A32" s="6">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2628,11 +2627,11 @@
       <c r="A33" s="6">
         <v>42</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>414</v>
       </c>
       <c r="C33" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2644,11 +2643,11 @@
       <c r="A34" s="6">
         <v>43</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>413</v>
       </c>
       <c r="C34" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2660,11 +2659,11 @@
       <c r="A35" s="6">
         <v>44</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>328</v>
       </c>
       <c r="C35" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2676,11 +2675,11 @@
       <c r="A36" s="6">
         <v>99</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>321</v>
       </c>
       <c r="C36" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2692,11 +2691,11 @@
       <c r="A37" s="6">
         <v>0</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2708,11 +2707,11 @@
       <c r="A38" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>366</v>
       </c>
       <c r="C38" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2724,11 +2723,11 @@
       <c r="A39" s="6">
         <v>5</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2740,11 +2739,11 @@
       <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>316</v>
       </c>
       <c r="C40" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2756,11 +2755,11 @@
       <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2772,11 +2771,11 @@
       <c r="A42" s="6">
         <v>9</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2788,11 +2787,11 @@
       <c r="A43" s="6">
         <v>11</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>326</v>
       </c>
       <c r="C43" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2804,11 +2803,11 @@
       <c r="A44" s="6">
         <v>12</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2820,11 +2819,11 @@
       <c r="A45" s="6">
         <v>16</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>440</v>
+      <c r="B45" t="s">
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2836,11 +2835,11 @@
       <c r="A46" s="6">
         <v>21</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2852,11 +2851,11 @@
       <c r="A47" s="6">
         <v>22</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2868,11 +2867,11 @@
       <c r="A48" s="6">
         <v>25</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>322</v>
       </c>
       <c r="C48" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2884,11 +2883,11 @@
       <c r="A49" s="6">
         <v>30</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>355</v>
       </c>
       <c r="C49" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2900,11 +2899,11 @@
       <c r="A50" s="6">
         <v>33</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2916,11 +2915,11 @@
       <c r="A51" s="6">
         <v>35</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>441</v>
+      <c r="B51" t="s">
+        <v>470</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -2932,11 +2931,11 @@
       <c r="A52" s="6">
         <v>40</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>280</v>
       </c>
       <c r="C52" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2948,11 +2947,11 @@
       <c r="A53" s="6">
         <v>44</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>237</v>
       </c>
       <c r="C53" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2962,11 +2961,11 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="4" t="s">
-        <v>442</v>
+      <c r="B54" t="s">
+        <v>471</v>
       </c>
       <c r="C54" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2978,11 +2977,11 @@
       <c r="A55" s="6">
         <v>0</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>195</v>
       </c>
       <c r="C55" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2994,11 +2993,11 @@
       <c r="A56" s="6">
         <v>4</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>443</v>
+      <c r="B56" t="s">
+        <v>472</v>
       </c>
       <c r="C56" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -3010,11 +3009,11 @@
       <c r="A57" s="6">
         <v>5</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>368</v>
       </c>
       <c r="C57" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3026,11 +3025,11 @@
       <c r="A58" s="6">
         <v>7</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3042,11 +3041,11 @@
       <c r="A59" s="6">
         <v>8</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>444</v>
+      <c r="B59" t="s">
+        <v>473</v>
       </c>
       <c r="C59" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3058,11 +3057,11 @@
       <c r="A60" s="6">
         <v>9</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>362</v>
       </c>
       <c r="C60" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3074,11 +3073,11 @@
       <c r="A61" s="6">
         <v>11</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3090,11 +3089,11 @@
       <c r="A62" s="6">
         <v>13</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3106,11 +3105,11 @@
       <c r="A63" s="6">
         <v>14</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3122,11 +3121,11 @@
       <c r="A64" s="6">
         <v>16</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3138,11 +3137,11 @@
       <c r="A65" s="6">
         <v>21</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>445</v>
+      <c r="B65" t="s">
+        <v>474</v>
       </c>
       <c r="C65" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3154,11 +3153,11 @@
       <c r="A66" s="6">
         <v>22</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3170,11 +3169,11 @@
       <c r="A67" s="6">
         <v>24</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>283</v>
       </c>
       <c r="C67" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3186,11 +3185,11 @@
       <c r="A68" s="6">
         <v>25</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>313</v>
       </c>
       <c r="C68" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3202,11 +3201,11 @@
       <c r="A69" s="6">
         <v>31</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>301</v>
       </c>
       <c r="C69" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3218,11 +3217,11 @@
       <c r="A70" s="6">
         <v>42</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3234,11 +3233,11 @@
       <c r="A71" s="6">
         <v>55</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -3250,11 +3249,11 @@
       <c r="A72" s="2">
         <v>0</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3266,11 +3265,11 @@
       <c r="A73" s="2">
         <v>1</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>278</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3282,11 +3281,11 @@
       <c r="A74" s="2">
         <v>2</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>311</v>
       </c>
       <c r="C74" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3298,11 +3297,11 @@
       <c r="A75" s="2">
         <v>3</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>385</v>
       </c>
       <c r="C75" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3314,11 +3313,11 @@
       <c r="A76" s="2">
         <v>4</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3330,11 +3329,11 @@
       <c r="A77" s="2">
         <v>5</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3346,11 +3345,11 @@
       <c r="A78" s="2">
         <v>7</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3362,11 +3361,11 @@
       <c r="A79" s="2">
         <v>12</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" t="s">
         <v>446</v>
-      </c>
-      <c r="C79" t="s">
-        <v>535</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3378,11 +3377,11 @@
       <c r="A80" s="2">
         <v>13</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>404</v>
       </c>
       <c r="C80" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3394,11 +3393,11 @@
       <c r="A81" s="2">
         <v>14</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3410,11 +3409,11 @@
       <c r="A82" s="2">
         <v>20</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3426,11 +3425,11 @@
       <c r="A83" s="2">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3442,11 +3441,11 @@
       <c r="A84" s="2">
         <v>22</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3458,11 +3457,11 @@
       <c r="A85" s="2">
         <v>25</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>447</v>
+      <c r="B85" t="s">
+        <v>476</v>
       </c>
       <c r="C85" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3474,11 +3473,11 @@
       <c r="A86" s="2">
         <v>34</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3490,11 +3489,11 @@
       <c r="A87" s="2">
         <v>35</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3506,11 +3505,11 @@
       <c r="A88" s="2">
         <v>50</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
         <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3520,11 +3519,11 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
-      <c r="B89" s="4" t="s">
-        <v>448</v>
+      <c r="B89" t="s">
+        <v>477</v>
       </c>
       <c r="C89" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3536,11 +3535,11 @@
       <c r="A90" s="2">
         <v>0</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
         <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3552,11 +3551,11 @@
       <c r="A91" s="2">
         <v>0</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3568,11 +3567,11 @@
       <c r="A92" s="2">
         <v>1</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3584,11 +3583,11 @@
       <c r="A93" s="2">
         <v>2</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3600,11 +3599,11 @@
       <c r="A94" s="2">
         <v>5</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>374</v>
       </c>
       <c r="C94" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3616,11 +3615,11 @@
       <c r="A95" s="2">
         <v>7</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3632,11 +3631,11 @@
       <c r="A96" s="2">
         <v>9</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3648,11 +3647,11 @@
       <c r="A97" s="2">
         <v>10</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>449</v>
+      <c r="B97" t="s">
+        <v>478</v>
       </c>
       <c r="C97" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3664,11 +3663,11 @@
       <c r="A98" s="2">
         <v>11</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3680,11 +3679,11 @@
       <c r="A99" s="2">
         <v>13</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>323</v>
       </c>
       <c r="C99" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3696,11 +3695,11 @@
       <c r="A100" s="2">
         <v>16</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>422</v>
       </c>
       <c r="C100" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3712,11 +3711,11 @@
       <c r="A101" s="2">
         <v>21</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>450</v>
+      <c r="B101" t="s">
+        <v>479</v>
       </c>
       <c r="C101" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3728,11 +3727,11 @@
       <c r="A102" s="2">
         <v>22</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3744,11 +3743,11 @@
       <c r="A103" s="2">
         <v>23</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3760,11 +3759,11 @@
       <c r="A104" s="2">
         <v>25</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3776,11 +3775,11 @@
       <c r="A105" s="2">
         <v>26</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3792,11 +3791,11 @@
       <c r="A106" s="2">
         <v>33</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3808,11 +3807,11 @@
       <c r="A107" s="2">
         <v>44</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>451</v>
+      <c r="B107" t="s">
+        <v>480</v>
       </c>
       <c r="C107" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3824,11 +3823,11 @@
       <c r="A108" s="2">
         <v>0</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>452</v>
+      <c r="B108" t="s">
+        <v>481</v>
       </c>
       <c r="C108" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3840,11 +3839,11 @@
       <c r="A109" s="2">
         <v>0</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3856,11 +3855,11 @@
       <c r="A110" s="2">
         <v>2</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="s">
         <v>359</v>
       </c>
       <c r="C110" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3872,11 +3871,11 @@
       <c r="A111" s="2">
         <v>3</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="s">
         <v>187</v>
       </c>
       <c r="C111" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3888,11 +3887,11 @@
       <c r="A112" s="2">
         <v>5</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="s">
         <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3904,11 +3903,11 @@
       <c r="A113" s="2">
         <v>6</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>230</v>
       </c>
       <c r="C113" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3920,11 +3919,11 @@
       <c r="A114" s="2">
         <v>8</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" t="s">
         <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3936,11 +3935,11 @@
       <c r="A115" s="2">
         <v>11</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3952,11 +3951,11 @@
       <c r="A116" s="2">
         <v>13</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="s">
         <v>407</v>
       </c>
       <c r="C116" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3968,11 +3967,11 @@
       <c r="A117" s="2">
         <v>23</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3984,11 +3983,11 @@
       <c r="A118" s="2">
         <v>30</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="s">
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4000,11 +3999,11 @@
       <c r="A119" s="2">
         <v>44</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>453</v>
+      <c r="B119" t="s">
+        <v>482</v>
       </c>
       <c r="C119" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -4016,11 +4015,11 @@
       <c r="A120" s="2">
         <v>45</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" t="s">
         <v>386</v>
       </c>
       <c r="C120" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4032,11 +4031,11 @@
       <c r="A121" s="2">
         <v>51</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" t="s">
         <v>428</v>
       </c>
       <c r="C121" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4048,11 +4047,11 @@
       <c r="A122" s="2">
         <v>55</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" t="s">
         <v>222</v>
       </c>
       <c r="C122" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4064,11 +4063,11 @@
       <c r="A123" s="2">
         <v>67</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>403</v>
       </c>
       <c r="C123" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4078,11 +4077,11 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
-      <c r="B124" s="4" t="s">
+      <c r="B124" t="s">
         <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4094,11 +4093,11 @@
       <c r="A125" s="2">
         <v>1</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>73</v>
       </c>
       <c r="C125" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4110,11 +4109,11 @@
       <c r="A126" s="2">
         <v>2</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" t="s">
         <v>418</v>
       </c>
       <c r="C126" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4126,11 +4125,11 @@
       <c r="A127" s="2">
         <v>3</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4142,11 +4141,11 @@
       <c r="A128" s="2">
         <v>4</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" t="s">
         <v>143</v>
       </c>
       <c r="C128" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -4158,11 +4157,11 @@
       <c r="A129" s="2">
         <v>5</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" t="s">
         <v>292</v>
       </c>
       <c r="C129" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4174,11 +4173,11 @@
       <c r="A130" s="2">
         <v>9</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>454</v>
+      <c r="B130" t="s">
+        <v>483</v>
       </c>
       <c r="C130" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -4190,11 +4189,11 @@
       <c r="A131" s="2">
         <v>10</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>89</v>
       </c>
       <c r="C131" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -4206,11 +4205,11 @@
       <c r="A132" s="2">
         <v>12</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" t="s">
         <v>307</v>
       </c>
       <c r="C132" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -4222,11 +4221,11 @@
       <c r="A133" s="2">
         <v>15</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>455</v>
+      <c r="B133" t="s">
+        <v>484</v>
       </c>
       <c r="C133" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -4238,11 +4237,11 @@
       <c r="A134" s="2">
         <v>20</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" t="s">
         <v>175</v>
       </c>
       <c r="C134" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4254,11 +4253,11 @@
       <c r="A135" s="2">
         <v>21</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>456</v>
+      <c r="B135" t="s">
+        <v>485</v>
       </c>
       <c r="C135" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4270,11 +4269,11 @@
       <c r="A136" s="2">
         <v>30</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" t="s">
         <v>398</v>
       </c>
       <c r="C136" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4286,11 +4285,11 @@
       <c r="A137" s="2">
         <v>31</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>103</v>
       </c>
       <c r="C137" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4302,11 +4301,11 @@
       <c r="A138" s="2">
         <v>32</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" t="s">
         <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -4318,11 +4317,11 @@
       <c r="A139" s="2">
         <v>35</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>216</v>
       </c>
       <c r="C139" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -4334,11 +4333,11 @@
       <c r="A140" s="2">
         <v>45</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" t="s">
         <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -4348,11 +4347,11 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
-      <c r="B141" s="4" t="s">
-        <v>457</v>
+      <c r="B141" t="s">
+        <v>434</v>
       </c>
       <c r="C141" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -4364,11 +4363,11 @@
       <c r="A142" s="2">
         <v>0</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4380,11 +4379,11 @@
       <c r="A143" s="2">
         <v>0</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>191</v>
       </c>
       <c r="C143" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -4396,11 +4395,11 @@
       <c r="A144" s="2">
         <v>1</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" t="s">
         <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4412,11 +4411,11 @@
       <c r="A145" s="2">
         <v>2</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>109</v>
       </c>
       <c r="C145" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -4428,11 +4427,11 @@
       <c r="A146" s="2">
         <v>4</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" t="s">
         <v>268</v>
       </c>
       <c r="C146" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -4444,11 +4443,11 @@
       <c r="A147" s="2">
         <v>8</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>189</v>
       </c>
       <c r="C147" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -4460,11 +4459,11 @@
       <c r="A148" s="2">
         <v>9</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" t="s">
         <v>254</v>
       </c>
       <c r="C148" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4476,11 +4475,11 @@
       <c r="A149" s="2">
         <v>10</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>361</v>
       </c>
       <c r="C149" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4492,11 +4491,11 @@
       <c r="A150" s="2">
         <v>13</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>458</v>
+      <c r="B150" t="s">
+        <v>486</v>
       </c>
       <c r="C150" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4508,11 +4507,11 @@
       <c r="A151" s="2">
         <v>14</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>351</v>
       </c>
       <c r="C151" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4524,11 +4523,11 @@
       <c r="A152" s="2">
         <v>20</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" t="s">
         <v>188</v>
       </c>
       <c r="C152" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4540,11 +4539,11 @@
       <c r="A153" s="2">
         <v>21</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>402</v>
       </c>
       <c r="C153" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4556,11 +4555,11 @@
       <c r="A154" s="2">
         <v>22</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>459</v>
+      <c r="B154" t="s">
+        <v>487</v>
       </c>
       <c r="C154" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4572,11 +4571,11 @@
       <c r="A155" s="2">
         <v>24</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>51</v>
       </c>
       <c r="C155" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4588,11 +4587,11 @@
       <c r="A156" s="2">
         <v>26</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>77</v>
       </c>
       <c r="C156" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4604,11 +4603,11 @@
       <c r="A157" s="2">
         <v>28</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>153</v>
       </c>
       <c r="C157" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4620,11 +4619,11 @@
       <c r="A158" s="2">
         <v>33</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>170</v>
       </c>
       <c r="C158" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4636,11 +4635,11 @@
       <c r="A159" s="2">
         <v>45</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>460</v>
+      <c r="B159" t="s">
+        <v>488</v>
       </c>
       <c r="C159" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4652,11 +4651,11 @@
       <c r="A160" s="2">
         <v>0</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>40</v>
       </c>
       <c r="C160" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4668,11 +4667,11 @@
       <c r="A161" s="2">
         <v>3</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>186</v>
       </c>
       <c r="C161" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4684,11 +4683,11 @@
       <c r="A162" s="2">
         <v>5</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" t="s">
         <v>229</v>
       </c>
       <c r="C162" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4700,11 +4699,11 @@
       <c r="A163" s="2">
         <v>6</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4716,11 +4715,11 @@
       <c r="A164" s="2">
         <v>8</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" t="s">
         <v>115</v>
       </c>
       <c r="C164" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4732,11 +4731,11 @@
       <c r="A165" s="2">
         <v>9</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>58</v>
       </c>
       <c r="C165" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4748,11 +4747,11 @@
       <c r="A166" s="2">
         <v>11</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" t="s">
         <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4764,11 +4763,11 @@
       <c r="A167" s="2">
         <v>12</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>177</v>
       </c>
       <c r="C167" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -4780,11 +4779,11 @@
       <c r="A168" s="2">
         <v>13</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" t="s">
         <v>246</v>
       </c>
       <c r="C168" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -4796,11 +4795,11 @@
       <c r="A169" s="2">
         <v>15</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>395</v>
       </c>
       <c r="C169" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4812,11 +4811,11 @@
       <c r="A170" s="2">
         <v>17</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>461</v>
+      <c r="B170" t="s">
+        <v>489</v>
       </c>
       <c r="C170" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4828,11 +4827,11 @@
       <c r="A171" s="2">
         <v>21</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>462</v>
+      <c r="B171" t="s">
+        <v>490</v>
       </c>
       <c r="C171" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4844,11 +4843,11 @@
       <c r="A172" s="2">
         <v>25</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>358</v>
       </c>
       <c r="C172" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4860,11 +4859,11 @@
       <c r="A173" s="2">
         <v>32</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>400</v>
       </c>
       <c r="C173" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4876,11 +4875,11 @@
       <c r="A174" s="2">
         <v>44</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" t="s">
         <v>134</v>
       </c>
       <c r="C174" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4890,11 +4889,11 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
-      <c r="B175" s="4" t="s">
-        <v>463</v>
+      <c r="B175" t="s">
+        <v>435</v>
       </c>
       <c r="C175" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4904,11 +4903,11 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
-      <c r="B176" s="4" t="s">
-        <v>464</v>
+      <c r="B176" t="s">
+        <v>491</v>
       </c>
       <c r="C176" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4920,11 +4919,11 @@
       <c r="A177" s="2">
         <v>1</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4936,11 +4935,11 @@
       <c r="A178" s="2">
         <v>2</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>465</v>
+      <c r="B178" t="s">
+        <v>492</v>
       </c>
       <c r="C178" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4952,11 +4951,11 @@
       <c r="A179" s="2">
         <v>3</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>466</v>
+      <c r="B179" t="s">
+        <v>493</v>
       </c>
       <c r="C179" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -4968,11 +4967,11 @@
       <c r="A180" s="2">
         <v>4</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" t="s">
         <v>427</v>
       </c>
       <c r="C180" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -4984,11 +4983,11 @@
       <c r="A181" s="2">
         <v>5</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" t="s">
         <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5000,11 +4999,11 @@
       <c r="A182" s="2">
         <v>8</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" t="s">
         <v>401</v>
       </c>
       <c r="C182" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -5016,11 +5015,11 @@
       <c r="A183" s="2">
         <v>11</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" t="s">
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -5032,11 +5031,11 @@
       <c r="A184" s="2">
         <v>12</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" t="s">
         <v>132</v>
       </c>
       <c r="C184" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -5048,11 +5047,11 @@
       <c r="A185" s="2">
         <v>13</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>55</v>
       </c>
       <c r="C185" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -5064,11 +5063,11 @@
       <c r="A186" s="2">
         <v>14</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" t="s">
         <v>372</v>
       </c>
       <c r="C186" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -5080,11 +5079,11 @@
       <c r="A187" s="2">
         <v>15</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" t="s">
         <v>119</v>
       </c>
       <c r="C187" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5096,11 +5095,11 @@
       <c r="A188" s="2">
         <v>17</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" t="s">
         <v>158</v>
       </c>
       <c r="C188" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -5112,11 +5111,11 @@
       <c r="A189" s="2">
         <v>18</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" t="s">
         <v>429</v>
       </c>
       <c r="C189" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5128,11 +5127,11 @@
       <c r="A190" s="2">
         <v>24</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" t="s">
         <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5144,11 +5143,11 @@
       <c r="A191" s="2">
         <v>25</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" t="s">
         <v>338</v>
       </c>
       <c r="C191" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5160,11 +5159,11 @@
       <c r="A192" s="2">
         <v>32</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" t="s">
         <v>357</v>
       </c>
       <c r="C192" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5176,11 +5175,11 @@
       <c r="A193" s="2">
         <v>41</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" t="s">
         <v>88</v>
       </c>
       <c r="C193" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5190,11 +5189,11 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
-      <c r="B194" s="4" t="s">
-        <v>467</v>
+      <c r="B194" t="s">
+        <v>494</v>
       </c>
       <c r="C194" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5206,11 +5205,11 @@
       <c r="A195" s="2">
         <v>1</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>325</v>
       </c>
       <c r="C195" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5222,11 +5221,11 @@
       <c r="A196" s="2">
         <v>2</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" t="s">
         <v>335</v>
       </c>
       <c r="C196" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5238,11 +5237,11 @@
       <c r="A197" s="2">
         <v>4</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" t="s">
         <v>29</v>
       </c>
       <c r="C197" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5254,11 +5253,11 @@
       <c r="A198" s="2">
         <v>5</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" t="s">
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5270,11 +5269,11 @@
       <c r="A199" s="2">
         <v>9</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" t="s">
         <v>66</v>
       </c>
       <c r="C199" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5286,11 +5285,11 @@
       <c r="A200" s="2">
         <v>14</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" t="s">
         <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -5302,11 +5301,11 @@
       <c r="A201" s="2">
         <v>17</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" t="s">
         <v>68</v>
       </c>
       <c r="C201" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -5318,11 +5317,11 @@
       <c r="A202" s="2">
         <v>19</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" t="s">
         <v>138</v>
       </c>
       <c r="C202" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -5334,11 +5333,11 @@
       <c r="A203" s="2">
         <v>21</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" t="s">
         <v>406</v>
       </c>
       <c r="C203" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -5350,11 +5349,11 @@
       <c r="A204" s="2">
         <v>24</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>468</v>
+      <c r="B204" t="s">
+        <v>495</v>
       </c>
       <c r="C204" t="s">
-        <v>548</v>
+        <v>459</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -5366,11 +5365,11 @@
       <c r="A205" s="2">
         <v>25</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" t="s">
         <v>234</v>
       </c>
       <c r="C205" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -5382,11 +5381,11 @@
       <c r="A206" s="2">
         <v>32</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" t="s">
         <v>360</v>
       </c>
       <c r="C206" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -5398,11 +5397,11 @@
       <c r="A207" s="2">
         <v>33</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" t="s">
         <v>139</v>
       </c>
       <c r="C207" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -5414,11 +5413,11 @@
       <c r="A208" s="2">
         <v>43</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" t="s">
         <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -5428,11 +5427,11 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
-      <c r="B209" s="4" t="s">
-        <v>469</v>
+      <c r="B209" t="s">
+        <v>496</v>
       </c>
       <c r="C209" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -5442,11 +5441,11 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
-      <c r="B210" s="4" t="s">
-        <v>470</v>
+      <c r="B210" t="s">
+        <v>436</v>
       </c>
       <c r="C210" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -5456,11 +5455,11 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
-      <c r="B211" s="4" t="s">
-        <v>471</v>
+      <c r="B211" t="s">
+        <v>497</v>
       </c>
       <c r="C211" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -5472,11 +5471,11 @@
       <c r="A212" s="2">
         <v>0</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" t="s">
         <v>85</v>
       </c>
       <c r="C212" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -5488,11 +5487,11 @@
       <c r="A213" s="2">
         <v>1</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" t="s">
         <v>120</v>
       </c>
       <c r="C213" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -5504,11 +5503,11 @@
       <c r="A214" s="2">
         <v>2</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" t="s">
         <v>387</v>
       </c>
       <c r="C214" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -5520,11 +5519,11 @@
       <c r="A215" s="2">
         <v>3</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" t="s">
         <v>62</v>
       </c>
       <c r="C215" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -5536,11 +5535,11 @@
       <c r="A216" s="2">
         <v>4</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" t="s">
         <v>201</v>
       </c>
       <c r="C216" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -5552,11 +5551,11 @@
       <c r="A217" s="2">
         <v>5</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" t="s">
         <v>194</v>
       </c>
       <c r="C217" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -5568,11 +5567,11 @@
       <c r="A218" s="2">
         <v>7</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" t="s">
         <v>256</v>
       </c>
       <c r="C218" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -5584,11 +5583,11 @@
       <c r="A219" s="2">
         <v>8</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" t="s">
         <v>297</v>
       </c>
       <c r="C219" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -5600,11 +5599,11 @@
       <c r="A220" s="2">
         <v>10</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>472</v>
+      <c r="B220" t="s">
+        <v>498</v>
       </c>
       <c r="C220" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -5616,11 +5615,11 @@
       <c r="A221" s="2">
         <v>11</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" t="s">
         <v>346</v>
       </c>
       <c r="C221" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -5632,11 +5631,11 @@
       <c r="A222" s="2">
         <v>12</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>473</v>
+      <c r="B222" t="s">
+        <v>499</v>
       </c>
       <c r="C222" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -5648,11 +5647,11 @@
       <c r="A223" s="2">
         <v>14</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" t="s">
         <v>299</v>
       </c>
       <c r="C223" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -5664,11 +5663,11 @@
       <c r="A224" s="2">
         <v>20</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" t="s">
         <v>129</v>
       </c>
       <c r="C224" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -5680,11 +5679,11 @@
       <c r="A225" s="2">
         <v>21</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" t="s">
         <v>314</v>
       </c>
       <c r="C225" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -5696,11 +5695,11 @@
       <c r="A226" s="2">
         <v>24</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" t="s">
         <v>86</v>
       </c>
       <c r="C226" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -5712,11 +5711,11 @@
       <c r="A227" s="2">
         <v>25</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" t="s">
         <v>110</v>
       </c>
       <c r="C227" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -5728,11 +5727,11 @@
       <c r="A228" s="2">
         <v>31</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>474</v>
+      <c r="B228" t="s">
+        <v>500</v>
       </c>
       <c r="C228" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -5742,11 +5741,11 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
-      <c r="B229" s="4" t="s">
-        <v>475</v>
+      <c r="B229" t="s">
+        <v>437</v>
       </c>
       <c r="C229" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -5758,11 +5757,11 @@
       <c r="A230" s="2">
         <v>0</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" t="s">
         <v>176</v>
       </c>
       <c r="C230" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -5774,11 +5773,11 @@
       <c r="A231" s="2">
         <v>1</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" t="s">
         <v>345</v>
       </c>
       <c r="C231" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -5790,11 +5789,11 @@
       <c r="A232" s="2">
         <v>4</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>476</v>
+      <c r="B232" t="s">
+        <v>501</v>
       </c>
       <c r="C232" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -5806,11 +5805,11 @@
       <c r="A233" s="2">
         <v>5</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" t="s">
         <v>102</v>
       </c>
       <c r="C233" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -5822,11 +5821,11 @@
       <c r="A234" s="2">
         <v>7</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" t="s">
         <v>396</v>
       </c>
       <c r="C234" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -5838,11 +5837,11 @@
       <c r="A235" s="2">
         <v>8</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" t="s">
         <v>118</v>
       </c>
       <c r="C235" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -5854,11 +5853,11 @@
       <c r="A236" s="2">
         <v>9</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" t="s">
         <v>352</v>
       </c>
       <c r="C236" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -5870,11 +5869,11 @@
       <c r="A237" s="2">
         <v>13</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" t="s">
         <v>52</v>
       </c>
       <c r="C237" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -5886,11 +5885,11 @@
       <c r="A238" s="2">
         <v>14</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>477</v>
+      <c r="B238" t="s">
+        <v>502</v>
       </c>
       <c r="C238" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -5902,11 +5901,11 @@
       <c r="A239" s="2">
         <v>16</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" t="s">
         <v>342</v>
       </c>
       <c r="C239" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -5918,11 +5917,11 @@
       <c r="A240" s="2">
         <v>20</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" t="s">
         <v>262</v>
       </c>
       <c r="C240" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -5934,11 +5933,11 @@
       <c r="A241" s="2">
         <v>21</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" t="s">
         <v>150</v>
       </c>
       <c r="C241" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -5950,11 +5949,11 @@
       <c r="A242" s="2">
         <v>24</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" t="s">
         <v>130</v>
       </c>
       <c r="C242" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -5966,11 +5965,11 @@
       <c r="A243" s="2">
         <v>33</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" t="s">
         <v>20</v>
       </c>
       <c r="C243" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -5982,11 +5981,11 @@
       <c r="A244" s="2">
         <v>35</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" t="s">
         <v>318</v>
       </c>
       <c r="C244" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -5998,11 +5997,11 @@
       <c r="A245" s="2">
         <v>55</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" t="s">
         <v>339</v>
       </c>
       <c r="C245" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -6014,11 +6013,11 @@
       <c r="A246" s="2">
         <v>88</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" t="s">
         <v>236</v>
       </c>
       <c r="C246" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -6030,11 +6029,11 @@
       <c r="A247" s="2">
         <v>97</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>478</v>
+      <c r="B247" t="s">
+        <v>503</v>
       </c>
       <c r="C247" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -6046,11 +6045,11 @@
       <c r="A248" s="2">
         <v>0</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" t="s">
         <v>199</v>
       </c>
       <c r="C248" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -6062,11 +6061,11 @@
       <c r="A249" s="2">
         <v>2</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" t="s">
         <v>19</v>
       </c>
       <c r="C249" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6078,11 +6077,11 @@
       <c r="A250" s="2">
         <v>7</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" t="s">
         <v>197</v>
       </c>
       <c r="C250" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -6094,11 +6093,11 @@
       <c r="A251" s="2">
         <v>8</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>479</v>
+      <c r="B251" t="s">
+        <v>504</v>
       </c>
       <c r="C251" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -6110,11 +6109,11 @@
       <c r="A252" s="2">
         <v>9</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" t="s">
         <v>155</v>
       </c>
       <c r="C252" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -6126,11 +6125,11 @@
       <c r="A253" s="2">
         <v>12</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" t="s">
         <v>319</v>
       </c>
       <c r="C253" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -6142,11 +6141,11 @@
       <c r="A254" s="2">
         <v>13</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" t="s">
         <v>270</v>
       </c>
       <c r="C254" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -6158,11 +6157,11 @@
       <c r="A255" s="2">
         <v>14</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" t="s">
         <v>181</v>
       </c>
       <c r="C255" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -6174,11 +6173,11 @@
       <c r="A256" s="2">
         <v>17</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>480</v>
+      <c r="B256" t="s">
+        <v>505</v>
       </c>
       <c r="C256" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -6190,11 +6189,11 @@
       <c r="A257" s="2">
         <v>20</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>481</v>
+      <c r="B257" t="s">
+        <v>506</v>
       </c>
       <c r="C257" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -6206,11 +6205,11 @@
       <c r="A258" s="2">
         <v>23</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" t="s">
         <v>116</v>
       </c>
       <c r="C258" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -6222,11 +6221,11 @@
       <c r="A259" s="2">
         <v>24</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" t="s">
         <v>294</v>
       </c>
       <c r="C259" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -6238,11 +6237,11 @@
       <c r="A260" s="2">
         <v>25</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" t="s">
         <v>205</v>
       </c>
       <c r="C260" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -6254,11 +6253,11 @@
       <c r="A261" s="2">
         <v>28</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" t="s">
         <v>164</v>
       </c>
       <c r="C261" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -6270,11 +6269,11 @@
       <c r="A262" s="2">
         <v>31</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" t="s">
         <v>379</v>
       </c>
       <c r="C262" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -6286,11 +6285,11 @@
       <c r="A263" s="2">
         <v>35</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" t="s">
         <v>183</v>
       </c>
       <c r="C263" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -6302,11 +6301,11 @@
       <c r="A264" s="2">
         <v>44</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" t="s">
         <v>173</v>
       </c>
       <c r="C264" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -6316,11 +6315,11 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
-      <c r="B265" s="4" t="s">
-        <v>482</v>
+      <c r="B265" t="s">
+        <v>438</v>
       </c>
       <c r="C265" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -6332,11 +6331,11 @@
       <c r="A266" s="2">
         <v>1</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" t="s">
         <v>211</v>
       </c>
       <c r="C266" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -6348,11 +6347,11 @@
       <c r="A267" s="2">
         <v>3</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" t="s">
         <v>200</v>
       </c>
       <c r="C267" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -6364,11 +6363,11 @@
       <c r="A268" s="2">
         <v>5</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" t="s">
         <v>18</v>
       </c>
       <c r="C268" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -6380,11 +6379,11 @@
       <c r="A269" s="2">
         <v>6</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" t="s">
         <v>392</v>
       </c>
       <c r="C269" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -6396,11 +6395,11 @@
       <c r="A270" s="2">
         <v>7</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" t="s">
         <v>423</v>
       </c>
       <c r="C270" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -6412,11 +6411,11 @@
       <c r="A271" s="2">
         <v>8</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" t="s">
         <v>390</v>
       </c>
       <c r="C271" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -6428,11 +6427,11 @@
       <c r="A272" s="2">
         <v>9</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" t="s">
         <v>214</v>
       </c>
       <c r="C272" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -6444,11 +6443,11 @@
       <c r="A273" s="2">
         <v>10</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" t="s">
         <v>123</v>
       </c>
       <c r="C273" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -6460,11 +6459,11 @@
       <c r="A274" s="2">
         <v>11</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" t="s">
         <v>101</v>
       </c>
       <c r="C274" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -6476,11 +6475,11 @@
       <c r="A275" s="2">
         <v>12</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>483</v>
+      <c r="B275" t="s">
+        <v>507</v>
       </c>
       <c r="C275" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -6492,11 +6491,11 @@
       <c r="A276" s="2">
         <v>18</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" t="s">
         <v>261</v>
       </c>
       <c r="C276" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -6508,11 +6507,11 @@
       <c r="A277" s="2">
         <v>23</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" t="s">
         <v>275</v>
       </c>
       <c r="C277" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -6524,11 +6523,11 @@
       <c r="A278" s="2">
         <v>27</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" t="s">
         <v>92</v>
       </c>
       <c r="C278" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -6540,11 +6539,11 @@
       <c r="A279" s="2">
         <v>32</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" t="s">
         <v>34</v>
       </c>
       <c r="C279" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -6556,11 +6555,11 @@
       <c r="A280" s="2">
         <v>33</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" t="s">
         <v>412</v>
       </c>
       <c r="C280" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -6572,11 +6571,11 @@
       <c r="A281" s="2">
         <v>55</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>484</v>
+      <c r="B281" t="s">
+        <v>508</v>
       </c>
       <c r="C281" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -6586,11 +6585,11 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
-      <c r="B282" s="4" t="s">
-        <v>485</v>
+      <c r="B282" t="s">
+        <v>509</v>
       </c>
       <c r="C282" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -6602,11 +6601,11 @@
       <c r="A283" s="2">
         <v>2</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" t="s">
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -6618,11 +6617,11 @@
       <c r="A284" s="2">
         <v>3</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" t="s">
         <v>114</v>
       </c>
       <c r="C284" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -6634,11 +6633,11 @@
       <c r="A285" s="2">
         <v>5</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" t="s">
         <v>140</v>
       </c>
       <c r="C285" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -6650,11 +6649,11 @@
       <c r="A286" s="2">
         <v>6</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" t="s">
         <v>300</v>
       </c>
       <c r="C286" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -6666,11 +6665,11 @@
       <c r="A287" s="2">
         <v>7</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" t="s">
         <v>44</v>
       </c>
       <c r="C287" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -6682,11 +6681,11 @@
       <c r="A288" s="2">
         <v>8</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" t="s">
         <v>57</v>
       </c>
       <c r="C288" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -6698,11 +6697,11 @@
       <c r="A289" s="2">
         <v>9</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" t="s">
         <v>350</v>
       </c>
       <c r="C289" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -6714,11 +6713,11 @@
       <c r="A290" s="2">
         <v>11</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" t="s">
         <v>156</v>
       </c>
       <c r="C290" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -6730,11 +6729,11 @@
       <c r="A291" s="2">
         <v>12</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>486</v>
+      <c r="B291" t="s">
+        <v>510</v>
       </c>
       <c r="C291" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -6746,11 +6745,11 @@
       <c r="A292" s="2">
         <v>13</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" t="s">
         <v>317</v>
       </c>
       <c r="C292" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -6762,11 +6761,11 @@
       <c r="A293" s="2">
         <v>17</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" t="s">
         <v>416</v>
       </c>
       <c r="C293" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -6778,11 +6777,11 @@
       <c r="A294" s="2">
         <v>18</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>487</v>
+      <c r="B294" t="s">
+        <v>511</v>
       </c>
       <c r="C294" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -6794,11 +6793,11 @@
       <c r="A295" s="2">
         <v>21</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" t="s">
         <v>264</v>
       </c>
       <c r="C295" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -6810,11 +6809,11 @@
       <c r="A296" s="2">
         <v>22</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" t="s">
         <v>213</v>
       </c>
       <c r="C296" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -6826,11 +6825,11 @@
       <c r="A297" s="2">
         <v>23</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" t="s">
         <v>363</v>
       </c>
       <c r="C297" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -6842,11 +6841,11 @@
       <c r="A298" s="2">
         <v>29</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" t="s">
         <v>364</v>
       </c>
       <c r="C298" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -6858,11 +6857,11 @@
       <c r="A299" s="2">
         <v>30</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>488</v>
+      <c r="B299" t="s">
+        <v>512</v>
       </c>
       <c r="C299" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -6874,11 +6873,11 @@
       <c r="A300" s="2">
         <v>34</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" t="s">
         <v>295</v>
       </c>
       <c r="C300" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -6890,11 +6889,11 @@
       <c r="A301" s="2">
         <v>0</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" t="s">
         <v>160</v>
       </c>
       <c r="C301" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -6906,11 +6905,11 @@
       <c r="A302" s="2">
         <v>1</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" t="s">
         <v>43</v>
       </c>
       <c r="C302" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -6922,11 +6921,11 @@
       <c r="A303" s="2">
         <v>3</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" t="s">
         <v>225</v>
       </c>
       <c r="C303" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -6938,11 +6937,11 @@
       <c r="A304" s="2">
         <v>4</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" t="s">
         <v>426</v>
       </c>
       <c r="C304" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -6954,11 +6953,11 @@
       <c r="A305" s="2">
         <v>5</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" t="s">
         <v>144</v>
       </c>
       <c r="C305" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -6970,11 +6969,11 @@
       <c r="A306" s="2">
         <v>6</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" t="s">
         <v>324</v>
       </c>
       <c r="C306" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -6986,11 +6985,11 @@
       <c r="A307" s="2">
         <v>7</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" t="s">
         <v>80</v>
       </c>
       <c r="C307" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -7002,11 +7001,11 @@
       <c r="A308" s="2">
         <v>8</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" t="s">
         <v>208</v>
       </c>
       <c r="C308" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -7018,11 +7017,11 @@
       <c r="A309" s="2">
         <v>9</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" t="s">
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -7034,11 +7033,11 @@
       <c r="A310" s="2">
         <v>11</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>489</v>
+      <c r="B310" t="s">
+        <v>513</v>
       </c>
       <c r="C310" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -7050,11 +7049,11 @@
       <c r="A311" s="2">
         <v>15</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" t="s">
         <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -7066,11 +7065,11 @@
       <c r="A312" s="2">
         <v>21</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>490</v>
+      <c r="B312" t="s">
+        <v>514</v>
       </c>
       <c r="C312" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -7082,11 +7081,11 @@
       <c r="A313" s="2">
         <v>22</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" t="s">
         <v>298</v>
       </c>
       <c r="C313" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -7098,11 +7097,11 @@
       <c r="A314" s="2">
         <v>24</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" t="s">
         <v>371</v>
       </c>
       <c r="C314" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -7114,11 +7113,11 @@
       <c r="A315" s="2">
         <v>27</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" t="s">
         <v>91</v>
       </c>
       <c r="C315" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -7130,11 +7129,11 @@
       <c r="A316" s="2">
         <v>30</v>
       </c>
-      <c r="B316" s="4" t="s">
-        <v>491</v>
+      <c r="B316" t="s">
+        <v>515</v>
       </c>
       <c r="C316" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -7146,11 +7145,11 @@
       <c r="A317" s="2">
         <v>50</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" t="s">
         <v>108</v>
       </c>
       <c r="C317" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -7160,11 +7159,11 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
-      <c r="B318" s="4" t="s">
-        <v>492</v>
+      <c r="B318" t="s">
+        <v>439</v>
       </c>
       <c r="C318" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -7176,11 +7175,11 @@
       <c r="A319" s="2">
         <v>0</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" t="s">
         <v>128</v>
       </c>
       <c r="C319" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -7192,11 +7191,11 @@
       <c r="A320" s="2">
         <v>1</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" t="s">
         <v>69</v>
       </c>
       <c r="C320" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -7208,11 +7207,11 @@
       <c r="A321" s="2">
         <v>2</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" t="s">
         <v>32</v>
       </c>
       <c r="C321" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -7224,11 +7223,11 @@
       <c r="A322" s="2">
         <v>4</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" t="s">
         <v>375</v>
       </c>
       <c r="C322" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -7240,11 +7239,11 @@
       <c r="A323" s="2">
         <v>5</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" t="s">
         <v>291</v>
       </c>
       <c r="C323" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -7256,11 +7255,11 @@
       <c r="A324" s="2">
         <v>7</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" t="s">
         <v>312</v>
       </c>
       <c r="C324" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -7272,11 +7271,11 @@
       <c r="A325" s="2">
         <v>10</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" t="s">
         <v>250</v>
       </c>
       <c r="C325" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -7288,11 +7287,11 @@
       <c r="A326" s="2">
         <v>11</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>493</v>
+      <c r="B326" t="s">
+        <v>516</v>
       </c>
       <c r="C326" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -7304,11 +7303,11 @@
       <c r="A327" s="2">
         <v>12</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" t="s">
         <v>424</v>
       </c>
       <c r="C327" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -7320,11 +7319,11 @@
       <c r="A328" s="2">
         <v>13</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" t="s">
         <v>30</v>
       </c>
       <c r="C328" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -7336,11 +7335,11 @@
       <c r="A329" s="2">
         <v>14</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" t="s">
         <v>245</v>
       </c>
       <c r="C329" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -7352,11 +7351,11 @@
       <c r="A330" s="2">
         <v>17</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B330" t="s">
         <v>391</v>
       </c>
       <c r="C330" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -7368,11 +7367,11 @@
       <c r="A331" s="2">
         <v>21</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" t="s">
         <v>334</v>
       </c>
       <c r="C331" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -7384,11 +7383,11 @@
       <c r="A332" s="2">
         <v>22</v>
       </c>
-      <c r="B332" s="4" t="s">
-        <v>494</v>
+      <c r="B332" t="s">
+        <v>517</v>
       </c>
       <c r="C332" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -7400,11 +7399,11 @@
       <c r="A333" s="2">
         <v>24</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" t="s">
         <v>81</v>
       </c>
       <c r="C333" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -7416,11 +7415,11 @@
       <c r="A334" s="2">
         <v>25</v>
       </c>
-      <c r="B334" s="4" t="s">
-        <v>495</v>
+      <c r="B334" t="s">
+        <v>518</v>
       </c>
       <c r="C334" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -7432,11 +7431,11 @@
       <c r="A335" s="2">
         <v>40</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" t="s">
         <v>111</v>
       </c>
       <c r="C335" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -7448,11 +7447,11 @@
       <c r="A336" s="2">
         <v>44</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" t="s">
         <v>373</v>
       </c>
       <c r="C336" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -7464,11 +7463,11 @@
       <c r="A337" s="2">
         <v>0</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" t="s">
         <v>285</v>
       </c>
       <c r="C337" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -7480,11 +7479,11 @@
       <c r="A338" s="2">
         <v>0</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" t="s">
         <v>79</v>
       </c>
       <c r="C338" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -7496,11 +7495,11 @@
       <c r="A339" s="2">
         <v>3</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" t="s">
         <v>288</v>
       </c>
       <c r="C339" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -7512,11 +7511,11 @@
       <c r="A340" s="2">
         <v>5</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" t="s">
         <v>17</v>
       </c>
       <c r="C340" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -7528,11 +7527,11 @@
       <c r="A341" s="2">
         <v>7</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" t="s">
         <v>269</v>
       </c>
       <c r="C341" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -7544,11 +7543,11 @@
       <c r="A342" s="2">
         <v>9</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" t="s">
         <v>148</v>
       </c>
       <c r="C342" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -7560,11 +7559,11 @@
       <c r="A343" s="2">
         <v>10</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B343" t="s">
         <v>38</v>
       </c>
       <c r="C343" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -7576,11 +7575,11 @@
       <c r="A344" s="2">
         <v>13</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" t="s">
         <v>84</v>
       </c>
       <c r="C344" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -7592,11 +7591,11 @@
       <c r="A345" s="2">
         <v>15</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" t="s">
         <v>304</v>
       </c>
       <c r="C345" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -7608,11 +7607,11 @@
       <c r="A346" s="2">
         <v>17</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" t="s">
         <v>367</v>
       </c>
       <c r="C346" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -7624,11 +7623,11 @@
       <c r="A347" s="2">
         <v>18</v>
       </c>
-      <c r="B347" s="4" t="s">
-        <v>496</v>
+      <c r="B347" t="s">
+        <v>519</v>
       </c>
       <c r="C347" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -7640,11 +7639,11 @@
       <c r="A348" s="2">
         <v>20</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" t="s">
         <v>370</v>
       </c>
       <c r="C348" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -7656,11 +7655,11 @@
       <c r="A349" s="2">
         <v>23</v>
       </c>
-      <c r="B349" s="4" t="s">
-        <v>497</v>
+      <c r="B349" t="s">
+        <v>520</v>
       </c>
       <c r="C349" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -7672,11 +7671,11 @@
       <c r="A350" s="2">
         <v>25</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B350" t="s">
         <v>389</v>
       </c>
       <c r="C350" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -7688,11 +7687,11 @@
       <c r="A351" s="2">
         <v>31</v>
       </c>
-      <c r="B351" s="4" t="s">
-        <v>498</v>
+      <c r="B351" t="s">
+        <v>521</v>
       </c>
       <c r="C351" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -7704,11 +7703,11 @@
       <c r="A352" s="2">
         <v>40</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" t="s">
         <v>133</v>
       </c>
       <c r="C352" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -7720,11 +7719,11 @@
       <c r="A353" s="2">
         <v>41</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" t="s">
         <v>274</v>
       </c>
       <c r="C353" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -7736,11 +7735,11 @@
       <c r="A354" s="2">
         <v>95</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B354" t="s">
         <v>425</v>
       </c>
       <c r="C354" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -7752,11 +7751,11 @@
       <c r="A355" s="2">
         <v>0</v>
       </c>
-      <c r="B355" s="4" t="s">
-        <v>499</v>
+      <c r="B355" t="s">
+        <v>522</v>
       </c>
       <c r="C355" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -7768,11 +7767,11 @@
       <c r="A356" s="2">
         <v>1</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" t="s">
         <v>41</v>
       </c>
       <c r="C356" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -7784,11 +7783,11 @@
       <c r="A357" s="2">
         <v>3</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" t="s">
         <v>90</v>
       </c>
       <c r="C357" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -7800,11 +7799,11 @@
       <c r="A358" s="2">
         <v>5</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" t="s">
         <v>145</v>
       </c>
       <c r="C358" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -7816,11 +7815,11 @@
       <c r="A359" s="2">
         <v>8</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" t="s">
         <v>223</v>
       </c>
       <c r="C359" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -7832,11 +7831,11 @@
       <c r="A360" s="2">
         <v>11</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" t="s">
         <v>221</v>
       </c>
       <c r="C360" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -7848,11 +7847,11 @@
       <c r="A361" s="2">
         <v>13</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" t="s">
         <v>349</v>
       </c>
       <c r="C361" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -7864,11 +7863,11 @@
       <c r="A362" s="2">
         <v>14</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B362" t="s">
         <v>25</v>
       </c>
       <c r="C362" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -7880,11 +7879,11 @@
       <c r="A363" s="2">
         <v>15</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" t="s">
         <v>267</v>
       </c>
       <c r="C363" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -7896,11 +7895,11 @@
       <c r="A364" s="2">
         <v>17</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" t="s">
         <v>67</v>
       </c>
       <c r="C364" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -7912,11 +7911,11 @@
       <c r="A365" s="2">
         <v>22</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" t="s">
         <v>320</v>
       </c>
       <c r="C365" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -7928,11 +7927,11 @@
       <c r="A366" s="2">
         <v>24</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" t="s">
         <v>154</v>
       </c>
       <c r="C366" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -7944,11 +7943,11 @@
       <c r="A367" s="2">
         <v>25</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B367" t="s">
         <v>240</v>
       </c>
       <c r="C367" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -7960,11 +7959,11 @@
       <c r="A368" s="2">
         <v>32</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B368" t="s">
         <v>419</v>
       </c>
       <c r="C368" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -7976,11 +7975,11 @@
       <c r="A369" s="2">
         <v>37</v>
       </c>
-      <c r="B369" s="4" t="s">
-        <v>500</v>
+      <c r="B369" t="s">
+        <v>523</v>
       </c>
       <c r="C369" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -7992,11 +7991,11 @@
       <c r="A370" s="2">
         <v>40</v>
       </c>
-      <c r="B370" s="4" t="s">
+      <c r="B370" t="s">
         <v>344</v>
       </c>
       <c r="C370" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -8008,11 +8007,11 @@
       <c r="A371" s="2">
         <v>50</v>
       </c>
-      <c r="B371" s="4" t="s">
-        <v>501</v>
+      <c r="B371" t="s">
+        <v>524</v>
       </c>
       <c r="C371" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -8024,11 +8023,11 @@
       <c r="A372" s="2">
         <v>0</v>
       </c>
-      <c r="B372" s="4" t="s">
-        <v>502</v>
+      <c r="B372" t="s">
+        <v>525</v>
       </c>
       <c r="C372" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -8040,11 +8039,11 @@
       <c r="A373" s="2">
         <v>0</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B373" t="s">
         <v>168</v>
       </c>
       <c r="C373" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -8056,11 +8055,11 @@
       <c r="A374" s="2">
         <v>1</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="B374" t="s">
         <v>206</v>
       </c>
       <c r="C374" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -8072,11 +8071,11 @@
       <c r="A375" s="2">
         <v>2</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="B375" t="s">
         <v>184</v>
       </c>
       <c r="C375" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -8088,11 +8087,11 @@
       <c r="A376" s="2">
         <v>3</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B376" t="s">
         <v>171</v>
       </c>
       <c r="C376" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -8104,11 +8103,11 @@
       <c r="A377" s="2">
         <v>7</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B377" t="s">
         <v>263</v>
       </c>
       <c r="C377" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -8120,11 +8119,11 @@
       <c r="A378" s="2">
         <v>8</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B378" t="s">
         <v>259</v>
       </c>
       <c r="C378" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -8136,11 +8135,11 @@
       <c r="A379" s="2">
         <v>9</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>503</v>
+      <c r="B379" t="s">
+        <v>526</v>
       </c>
       <c r="C379" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -8152,11 +8151,11 @@
       <c r="A380" s="2">
         <v>10</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="B380" t="s">
         <v>50</v>
       </c>
       <c r="C380" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -8168,11 +8167,11 @@
       <c r="A381" s="2">
         <v>11</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B381" t="s">
         <v>98</v>
       </c>
       <c r="C381" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -8184,11 +8183,11 @@
       <c r="A382" s="2">
         <v>13</v>
       </c>
-      <c r="B382" s="4" t="s">
-        <v>504</v>
+      <c r="B382" t="s">
+        <v>527</v>
       </c>
       <c r="C382" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -8200,11 +8199,11 @@
       <c r="A383" s="2">
         <v>18</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" t="s">
         <v>332</v>
       </c>
       <c r="C383" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -8216,11 +8215,11 @@
       <c r="A384" s="2">
         <v>20</v>
       </c>
-      <c r="B384" s="4" t="s">
+      <c r="B384" t="s">
         <v>336</v>
       </c>
       <c r="C384" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -8232,11 +8231,11 @@
       <c r="A385" s="2">
         <v>30</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" t="s">
         <v>284</v>
       </c>
       <c r="C385" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -8248,11 +8247,11 @@
       <c r="A386" s="2">
         <v>42</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B386" t="s">
         <v>399</v>
       </c>
       <c r="C386" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -8264,11 +8263,11 @@
       <c r="A387" s="2">
         <v>55</v>
       </c>
-      <c r="B387" s="4" t="s">
+      <c r="B387" t="s">
         <v>141</v>
       </c>
       <c r="C387" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -8280,11 +8279,11 @@
       <c r="A388" s="2">
         <v>77</v>
       </c>
-      <c r="B388" s="4" t="s">
+      <c r="B388" t="s">
         <v>1</v>
       </c>
       <c r="C388" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -8296,11 +8295,11 @@
       <c r="A389" s="2">
         <v>88</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B389" t="s">
         <v>365</v>
       </c>
       <c r="C389" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -8312,11 +8311,11 @@
       <c r="A390" s="2">
         <v>0</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B390" t="s">
         <v>242</v>
       </c>
       <c r="C390" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -8328,11 +8327,11 @@
       <c r="A391" s="2">
         <v>1</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B391" t="s">
         <v>37</v>
       </c>
       <c r="C391" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -8344,11 +8343,11 @@
       <c r="A392" s="2">
         <v>2</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B392" t="s">
         <v>251</v>
       </c>
       <c r="C392" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -8360,11 +8359,11 @@
       <c r="A393" s="2">
         <v>3</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B393" t="s">
         <v>271</v>
       </c>
       <c r="C393" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -8376,11 +8375,11 @@
       <c r="A394" s="2">
         <v>4</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B394" t="s">
         <v>277</v>
       </c>
       <c r="C394" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -8392,11 +8391,11 @@
       <c r="A395" s="2">
         <v>8</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B395" t="s">
         <v>124</v>
       </c>
       <c r="C395" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -8408,11 +8407,11 @@
       <c r="A396" s="2">
         <v>11</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B396" t="s">
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>549</v>
+        <v>460</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -8424,11 +8423,11 @@
       <c r="A397" s="2">
         <v>14</v>
       </c>
-      <c r="B397" s="4" t="s">
+      <c r="B397" t="s">
         <v>244</v>
       </c>
       <c r="C397" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -8440,11 +8439,11 @@
       <c r="A398" s="2">
         <v>18</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B398" t="s">
         <v>305</v>
       </c>
       <c r="C398" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -8456,11 +8455,11 @@
       <c r="A399" s="2">
         <v>20</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" t="s">
         <v>106</v>
       </c>
       <c r="C399" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -8472,11 +8471,11 @@
       <c r="A400" s="2">
         <v>21</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B400" t="s">
         <v>287</v>
       </c>
       <c r="C400" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -8488,11 +8487,11 @@
       <c r="A401" s="2">
         <v>23</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" t="s">
         <v>107</v>
       </c>
       <c r="C401" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -8504,11 +8503,11 @@
       <c r="A402" s="2">
         <v>25</v>
       </c>
-      <c r="B402" s="4" t="s">
+      <c r="B402" t="s">
         <v>286</v>
       </c>
       <c r="C402" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -8520,11 +8519,11 @@
       <c r="A403" s="2">
         <v>27</v>
       </c>
-      <c r="B403" s="4" t="s">
-        <v>505</v>
+      <c r="B403" t="s">
+        <v>528</v>
       </c>
       <c r="C403" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -8536,11 +8535,11 @@
       <c r="A404" s="2">
         <v>35</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B404" t="s">
         <v>10</v>
       </c>
       <c r="C404" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -8552,11 +8551,11 @@
       <c r="A405" s="2">
         <v>38</v>
       </c>
-      <c r="B405" s="4" t="s">
-        <v>506</v>
+      <c r="B405" t="s">
+        <v>529</v>
       </c>
       <c r="C405" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -8566,11 +8565,11 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
-      <c r="B406" s="4" t="s">
-        <v>507</v>
+      <c r="B406" t="s">
+        <v>530</v>
       </c>
       <c r="C406" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -8580,11 +8579,11 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
-      <c r="B407" s="4" t="s">
-        <v>508</v>
+      <c r="B407" t="s">
+        <v>440</v>
       </c>
       <c r="C407" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -8596,11 +8595,11 @@
       <c r="A408" s="2">
         <v>0</v>
       </c>
-      <c r="B408" s="4" t="s">
-        <v>509</v>
+      <c r="B408" t="s">
+        <v>531</v>
       </c>
       <c r="C408" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -8612,11 +8611,11 @@
       <c r="A409" s="2">
         <v>0</v>
       </c>
-      <c r="B409" s="4" t="s">
+      <c r="B409" t="s">
         <v>219</v>
       </c>
       <c r="C409" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -8628,11 +8627,11 @@
       <c r="A410" s="2">
         <v>1</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" t="s">
         <v>330</v>
       </c>
       <c r="C410" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -8644,11 +8643,11 @@
       <c r="A411" s="2">
         <v>2</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" t="s">
         <v>356</v>
       </c>
       <c r="C411" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -8660,11 +8659,11 @@
       <c r="A412" s="2">
         <v>4</v>
       </c>
-      <c r="B412" s="4" t="s">
+      <c r="B412" t="s">
         <v>49</v>
       </c>
       <c r="C412" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -8676,11 +8675,11 @@
       <c r="A413" s="2">
         <v>5</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B413" t="s">
         <v>56</v>
       </c>
       <c r="C413" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -8692,11 +8691,11 @@
       <c r="A414" s="2">
         <v>7</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B414" t="s">
         <v>337</v>
       </c>
       <c r="C414" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -8708,11 +8707,11 @@
       <c r="A415" s="2">
         <v>8</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" t="s">
         <v>252</v>
       </c>
       <c r="C415" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -8724,11 +8723,11 @@
       <c r="A416" s="2">
         <v>9</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" t="s">
         <v>113</v>
       </c>
       <c r="C416" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -8740,11 +8739,11 @@
       <c r="A417" s="2">
         <v>10</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" t="s">
         <v>99</v>
       </c>
       <c r="C417" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -8756,11 +8755,11 @@
       <c r="A418" s="2">
         <v>14</v>
       </c>
-      <c r="B418" s="4" t="s">
-        <v>510</v>
+      <c r="B418" t="s">
+        <v>532</v>
       </c>
       <c r="C418" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -8772,11 +8771,11 @@
       <c r="A419" s="2">
         <v>17</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B419" t="s">
         <v>212</v>
       </c>
       <c r="C419" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -8788,11 +8787,11 @@
       <c r="A420" s="2">
         <v>19</v>
       </c>
-      <c r="B420" s="4" t="s">
-        <v>511</v>
+      <c r="B420" t="s">
+        <v>533</v>
       </c>
       <c r="C420" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -8804,11 +8803,11 @@
       <c r="A421" s="2">
         <v>25</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="B421" t="s">
         <v>378</v>
       </c>
       <c r="C421" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -8820,11 +8819,11 @@
       <c r="A422" s="2">
         <v>28</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B422" t="s">
         <v>35</v>
       </c>
       <c r="C422" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -8836,11 +8835,11 @@
       <c r="A423" s="2">
         <v>32</v>
       </c>
-      <c r="B423" s="4" t="s">
+      <c r="B423" t="s">
         <v>227</v>
       </c>
       <c r="C423" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -8852,11 +8851,11 @@
       <c r="A424" s="2">
         <v>51</v>
       </c>
-      <c r="B424" s="4" t="s">
+      <c r="B424" t="s">
         <v>410</v>
       </c>
       <c r="C424" t="s">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -8866,11 +8865,11 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
-      <c r="B425" s="4" t="s">
-        <v>512</v>
+      <c r="B425" t="s">
+        <v>441</v>
       </c>
       <c r="C425" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -8882,11 +8881,11 @@
       <c r="A426" s="2">
         <v>0</v>
       </c>
-      <c r="B426" s="4" t="s">
+      <c r="B426" t="s">
         <v>394</v>
       </c>
       <c r="C426" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -8898,11 +8897,11 @@
       <c r="A427" s="2">
         <v>1</v>
       </c>
-      <c r="B427" s="4" t="s">
+      <c r="B427" t="s">
         <v>70</v>
       </c>
       <c r="C427" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -8914,11 +8913,11 @@
       <c r="A428" s="2">
         <v>2</v>
       </c>
-      <c r="B428" s="4" t="s">
+      <c r="B428" t="s">
         <v>369</v>
       </c>
       <c r="C428" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -8930,11 +8929,11 @@
       <c r="A429" s="2">
         <v>3</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B429" t="s">
         <v>12</v>
       </c>
       <c r="C429" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -8946,11 +8945,11 @@
       <c r="A430" s="2">
         <v>5</v>
       </c>
-      <c r="B430" s="4" t="s">
+      <c r="B430" t="s">
         <v>232</v>
       </c>
       <c r="C430" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -8962,11 +8961,11 @@
       <c r="A431" s="2">
         <v>7</v>
       </c>
-      <c r="B431" s="4" t="s">
+      <c r="B431" t="s">
         <v>380</v>
       </c>
       <c r="C431" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -8978,11 +8977,11 @@
       <c r="A432" s="2">
         <v>10</v>
       </c>
-      <c r="B432" s="4" t="s">
+      <c r="B432" t="s">
         <v>293</v>
       </c>
       <c r="C432" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -8994,11 +8993,11 @@
       <c r="A433" s="2">
         <v>11</v>
       </c>
-      <c r="B433" s="4" t="s">
+      <c r="B433" t="s">
         <v>306</v>
       </c>
       <c r="C433" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -9010,11 +9009,11 @@
       <c r="A434" s="2">
         <v>12</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B434" t="s">
         <v>146</v>
       </c>
       <c r="C434" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -9026,11 +9025,11 @@
       <c r="A435" s="2">
         <v>14</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>513</v>
+      <c r="B435" t="s">
+        <v>534</v>
       </c>
       <c r="C435" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -9042,11 +9041,11 @@
       <c r="A436" s="2">
         <v>15</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B436" t="s">
         <v>59</v>
       </c>
       <c r="C436" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -9058,11 +9057,11 @@
       <c r="A437" s="2">
         <v>17</v>
       </c>
-      <c r="B437" s="4" t="s">
-        <v>514</v>
+      <c r="B437" t="s">
+        <v>535</v>
       </c>
       <c r="C437" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -9074,11 +9073,11 @@
       <c r="A438" s="2">
         <v>21</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" t="s">
         <v>420</v>
       </c>
       <c r="C438" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -9090,11 +9089,11 @@
       <c r="A439" s="2">
         <v>23</v>
       </c>
-      <c r="B439" s="4" t="s">
+      <c r="B439" t="s">
         <v>16</v>
       </c>
       <c r="C439" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -9106,11 +9105,11 @@
       <c r="A440" s="2">
         <v>28</v>
       </c>
-      <c r="B440" s="4" t="s">
+      <c r="B440" t="s">
         <v>162</v>
       </c>
       <c r="C440" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -9122,11 +9121,11 @@
       <c r="A441" s="2">
         <v>35</v>
       </c>
-      <c r="B441" s="4" t="s">
+      <c r="B441" t="s">
         <v>224</v>
       </c>
       <c r="C441" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -9138,11 +9137,11 @@
       <c r="A442" s="2">
         <v>55</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>515</v>
+      <c r="B442" t="s">
+        <v>536</v>
       </c>
       <c r="C442" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -9154,11 +9153,11 @@
       <c r="A443" s="2">
         <v>0</v>
       </c>
-      <c r="B443" s="4" t="s">
+      <c r="B443" t="s">
         <v>309</v>
       </c>
       <c r="C443" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -9170,11 +9169,11 @@
       <c r="A444" s="2">
         <v>0</v>
       </c>
-      <c r="B444" s="4" t="s">
+      <c r="B444" t="s">
         <v>96</v>
       </c>
       <c r="C444" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -9186,11 +9185,11 @@
       <c r="A445" s="2">
         <v>1</v>
       </c>
-      <c r="B445" s="4" t="s">
+      <c r="B445" t="s">
         <v>381</v>
       </c>
       <c r="C445" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -9202,11 +9201,11 @@
       <c r="A446" s="2">
         <v>2</v>
       </c>
-      <c r="B446" s="4" t="s">
+      <c r="B446" t="s">
         <v>190</v>
       </c>
       <c r="C446" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -9218,11 +9217,11 @@
       <c r="A447" s="2">
         <v>3</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="B447" t="s">
         <v>174</v>
       </c>
       <c r="C447" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -9234,11 +9233,11 @@
       <c r="A448" s="2">
         <v>4</v>
       </c>
-      <c r="B448" s="4" t="s">
+      <c r="B448" t="s">
         <v>182</v>
       </c>
       <c r="C448" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -9250,11 +9249,11 @@
       <c r="A449" s="2">
         <v>5</v>
       </c>
-      <c r="B449" s="4" t="s">
+      <c r="B449" t="s">
         <v>243</v>
       </c>
       <c r="C449" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -9266,11 +9265,11 @@
       <c r="A450" s="2">
         <v>11</v>
       </c>
-      <c r="B450" s="4" t="s">
+      <c r="B450" t="s">
         <v>53</v>
       </c>
       <c r="C450" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -9282,11 +9281,11 @@
       <c r="A451" s="2">
         <v>12</v>
       </c>
-      <c r="B451" s="4" t="s">
-        <v>516</v>
+      <c r="B451" t="s">
+        <v>537</v>
       </c>
       <c r="C451" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -9298,11 +9297,11 @@
       <c r="A452" s="2">
         <v>15</v>
       </c>
-      <c r="B452" s="4" t="s">
+      <c r="B452" t="s">
         <v>405</v>
       </c>
       <c r="C452" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -9314,11 +9313,11 @@
       <c r="A453" s="2">
         <v>18</v>
       </c>
-      <c r="B453" s="4" t="s">
-        <v>517</v>
+      <c r="B453" t="s">
+        <v>538</v>
       </c>
       <c r="C453" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -9330,11 +9329,11 @@
       <c r="A454" s="2">
         <v>20</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B454" t="s">
         <v>142</v>
       </c>
       <c r="C454" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -9346,11 +9345,11 @@
       <c r="A455" s="2">
         <v>22</v>
       </c>
-      <c r="B455" s="4" t="s">
+      <c r="B455" t="s">
         <v>126</v>
       </c>
       <c r="C455" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -9362,11 +9361,11 @@
       <c r="A456" s="2">
         <v>23</v>
       </c>
-      <c r="B456" s="4" t="s">
+      <c r="B456" t="s">
         <v>260</v>
       </c>
       <c r="C456" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -9378,11 +9377,11 @@
       <c r="A457" s="2">
         <v>25</v>
       </c>
-      <c r="B457" s="4" t="s">
-        <v>518</v>
+      <c r="B457" t="s">
+        <v>539</v>
       </c>
       <c r="C457" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -9394,11 +9393,11 @@
       <c r="A458" s="2">
         <v>30</v>
       </c>
-      <c r="B458" s="4" t="s">
+      <c r="B458" t="s">
         <v>6</v>
       </c>
       <c r="C458" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -9410,11 +9409,11 @@
       <c r="A459" s="2">
         <v>32</v>
       </c>
-      <c r="B459" s="4" t="s">
+      <c r="B459" t="s">
         <v>276</v>
       </c>
       <c r="C459" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -9426,11 +9425,11 @@
       <c r="A460" s="2">
         <v>0</v>
       </c>
-      <c r="B460" s="4" t="s">
+      <c r="B460" t="s">
         <v>331</v>
       </c>
       <c r="C460" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -9442,11 +9441,11 @@
       <c r="A461" s="2">
         <v>0</v>
       </c>
-      <c r="B461" s="4" t="s">
+      <c r="B461" t="s">
         <v>94</v>
       </c>
       <c r="C461" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -9458,11 +9457,11 @@
       <c r="A462" s="2">
         <v>2</v>
       </c>
-      <c r="B462" s="4" t="s">
+      <c r="B462" t="s">
         <v>54</v>
       </c>
       <c r="C462" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -9474,11 +9473,11 @@
       <c r="A463" s="2">
         <v>3</v>
       </c>
-      <c r="B463" s="4" t="s">
+      <c r="B463" t="s">
         <v>152</v>
       </c>
       <c r="C463" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -9490,11 +9489,11 @@
       <c r="A464" s="2">
         <v>5</v>
       </c>
-      <c r="B464" s="4" t="s">
+      <c r="B464" t="s">
         <v>147</v>
       </c>
       <c r="C464" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -9506,11 +9505,11 @@
       <c r="A465" s="2">
         <v>8</v>
       </c>
-      <c r="B465" s="4" t="s">
+      <c r="B465" t="s">
         <v>430</v>
       </c>
       <c r="C465" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -9522,11 +9521,11 @@
       <c r="A466" s="2">
         <v>11</v>
       </c>
-      <c r="B466" s="4" t="s">
+      <c r="B466" t="s">
         <v>273</v>
       </c>
       <c r="C466" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -9538,11 +9537,11 @@
       <c r="A467" s="2">
         <v>16</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="B467" t="s">
         <v>161</v>
       </c>
       <c r="C467" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -9554,11 +9553,11 @@
       <c r="A468" s="2">
         <v>19</v>
       </c>
-      <c r="B468" s="4" t="s">
+      <c r="B468" t="s">
         <v>343</v>
       </c>
       <c r="C468" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -9570,11 +9569,11 @@
       <c r="A469" s="2">
         <v>20</v>
       </c>
-      <c r="B469" s="4" t="s">
+      <c r="B469" t="s">
         <v>95</v>
       </c>
       <c r="C469" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -9586,11 +9585,11 @@
       <c r="A470" s="2">
         <v>23</v>
       </c>
-      <c r="B470" s="4" t="s">
+      <c r="B470" t="s">
         <v>45</v>
       </c>
       <c r="C470" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -9602,11 +9601,11 @@
       <c r="A471" s="2">
         <v>24</v>
       </c>
-      <c r="B471" s="4" t="s">
+      <c r="B471" t="s">
         <v>198</v>
       </c>
       <c r="C471" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -9618,11 +9617,11 @@
       <c r="A472" s="2">
         <v>25</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>519</v>
+      <c r="B472" t="s">
+        <v>540</v>
       </c>
       <c r="C472" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -9634,11 +9633,11 @@
       <c r="A473" s="2">
         <v>30</v>
       </c>
-      <c r="B473" s="4" t="s">
+      <c r="B473" t="s">
         <v>203</v>
       </c>
       <c r="C473" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -9650,11 +9649,11 @@
       <c r="A474" s="2">
         <v>33</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>520</v>
+      <c r="B474" t="s">
+        <v>541</v>
       </c>
       <c r="C474" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -9666,11 +9665,11 @@
       <c r="A475" s="2">
         <v>41</v>
       </c>
-      <c r="B475" s="4" t="s">
+      <c r="B475" t="s">
         <v>180</v>
       </c>
       <c r="C475" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -9682,11 +9681,11 @@
       <c r="A476" s="2">
         <v>77</v>
       </c>
-      <c r="B476" s="4" t="s">
+      <c r="B476" t="s">
         <v>315</v>
       </c>
       <c r="C476" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -9696,11 +9695,11 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
-      <c r="B477" s="4" t="s">
-        <v>521</v>
+      <c r="B477" t="s">
+        <v>542</v>
       </c>
       <c r="C477" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -9712,11 +9711,11 @@
       <c r="A478" s="2">
         <v>0</v>
       </c>
-      <c r="B478" s="4" t="s">
-        <v>522</v>
+      <c r="B478" t="s">
+        <v>543</v>
       </c>
       <c r="C478" t="s">
-        <v>551</v>
+        <v>462</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -9728,11 +9727,11 @@
       <c r="A479" s="2">
         <v>2</v>
       </c>
-      <c r="B479" s="4" t="s">
+      <c r="B479" t="s">
         <v>290</v>
       </c>
       <c r="C479" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -9744,11 +9743,11 @@
       <c r="A480" s="2">
         <v>3</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="B480" t="s">
         <v>382</v>
       </c>
       <c r="C480" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -9760,11 +9759,11 @@
       <c r="A481" s="2">
         <v>5</v>
       </c>
-      <c r="B481" s="4" t="s">
-        <v>523</v>
+      <c r="B481" t="s">
+        <v>544</v>
       </c>
       <c r="C481" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -9776,11 +9775,11 @@
       <c r="A482" s="2">
         <v>7</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="B482" t="s">
         <v>165</v>
       </c>
       <c r="C482" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -9792,11 +9791,11 @@
       <c r="A483" s="2">
         <v>8</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="B483" t="s">
         <v>209</v>
       </c>
       <c r="C483" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -9808,11 +9807,11 @@
       <c r="A484" s="2">
         <v>10</v>
       </c>
-      <c r="B484" s="4" t="s">
+      <c r="B484" t="s">
         <v>303</v>
       </c>
       <c r="C484" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -9824,11 +9823,11 @@
       <c r="A485" s="2">
         <v>12</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="B485" t="s">
         <v>239</v>
       </c>
       <c r="C485" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -9840,11 +9839,11 @@
       <c r="A486" s="2">
         <v>13</v>
       </c>
-      <c r="B486" s="4" t="s">
+      <c r="B486" t="s">
         <v>31</v>
       </c>
       <c r="C486" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -9856,11 +9855,11 @@
       <c r="A487" s="2">
         <v>18</v>
       </c>
-      <c r="B487" s="4" t="s">
+      <c r="B487" t="s">
         <v>257</v>
       </c>
       <c r="C487" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -9872,11 +9871,11 @@
       <c r="A488" s="2">
         <v>21</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="B488" t="s">
         <v>196</v>
       </c>
       <c r="C488" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -9888,11 +9887,11 @@
       <c r="A489" s="2">
         <v>22</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="B489" t="s">
         <v>15</v>
       </c>
       <c r="C489" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -9904,11 +9903,11 @@
       <c r="A490" s="2">
         <v>23</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B490" t="s">
         <v>265</v>
       </c>
       <c r="C490" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -9920,11 +9919,11 @@
       <c r="A491" s="2">
         <v>36</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="B491" t="s">
         <v>218</v>
       </c>
       <c r="C491" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -9936,11 +9935,11 @@
       <c r="A492" s="2">
         <v>45</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>524</v>
+      <c r="B492" t="s">
+        <v>545</v>
       </c>
       <c r="C492" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -9952,11 +9951,11 @@
       <c r="A493" s="2">
         <v>46</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B493" t="s">
         <v>308</v>
       </c>
       <c r="C493" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -9966,11 +9965,11 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
-      <c r="B494" s="4" t="s">
-        <v>525</v>
+      <c r="B494" t="s">
+        <v>442</v>
       </c>
       <c r="C494" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -9980,11 +9979,11 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
-      <c r="B495" s="4" t="s">
-        <v>526</v>
+      <c r="B495" t="s">
+        <v>443</v>
       </c>
       <c r="C495" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -9996,11 +9995,11 @@
       <c r="A496" s="2">
         <v>0</v>
       </c>
-      <c r="B496" s="4" t="s">
+      <c r="B496" t="s">
         <v>167</v>
       </c>
       <c r="C496" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -10012,11 +10011,11 @@
       <c r="A497" s="2">
         <v>1</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="B497" t="s">
         <v>157</v>
       </c>
       <c r="C497" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -10028,11 +10027,11 @@
       <c r="A498" s="2">
         <v>2</v>
       </c>
-      <c r="B498" s="4" t="s">
+      <c r="B498" t="s">
         <v>149</v>
       </c>
       <c r="C498" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -10044,11 +10043,11 @@
       <c r="A499" s="2">
         <v>4</v>
       </c>
-      <c r="B499" s="4" t="s">
+      <c r="B499" t="s">
         <v>228</v>
       </c>
       <c r="C499" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -10060,11 +10059,11 @@
       <c r="A500" s="2">
         <v>5</v>
       </c>
-      <c r="B500" s="4" t="s">
+      <c r="B500" t="s">
         <v>281</v>
       </c>
       <c r="C500" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -10076,11 +10075,11 @@
       <c r="A501" s="2">
         <v>8</v>
       </c>
-      <c r="B501" s="4" t="s">
+      <c r="B501" t="s">
         <v>347</v>
       </c>
       <c r="C501" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -10092,11 +10091,11 @@
       <c r="A502" s="2">
         <v>9</v>
       </c>
-      <c r="B502" s="4" t="s">
+      <c r="B502" t="s">
         <v>39</v>
       </c>
       <c r="C502" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -10108,11 +10107,11 @@
       <c r="A503" s="2">
         <v>10</v>
       </c>
-      <c r="B503" s="4" t="s">
+      <c r="B503" t="s">
         <v>393</v>
       </c>
       <c r="C503" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -10124,11 +10123,11 @@
       <c r="A504" s="2">
         <v>11</v>
       </c>
-      <c r="B504" s="4" t="s">
+      <c r="B504" t="s">
         <v>100</v>
       </c>
       <c r="C504" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -10140,11 +10139,11 @@
       <c r="A505" s="2">
         <v>17</v>
       </c>
-      <c r="B505" s="4" t="s">
+      <c r="B505" t="s">
         <v>78</v>
       </c>
       <c r="C505" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -10156,11 +10155,11 @@
       <c r="A506" s="2">
         <v>23</v>
       </c>
-      <c r="B506" s="4" t="s">
+      <c r="B506" t="s">
         <v>409</v>
       </c>
       <c r="C506" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -10172,11 +10171,11 @@
       <c r="A507" s="2">
         <v>24</v>
       </c>
-      <c r="B507" s="4" t="s">
-        <v>527</v>
+      <c r="B507" t="s">
+        <v>546</v>
       </c>
       <c r="C507" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -10188,11 +10187,11 @@
       <c r="A508" s="2">
         <v>26</v>
       </c>
-      <c r="B508" s="4" t="s">
-        <v>528</v>
+      <c r="B508" t="s">
+        <v>547</v>
       </c>
       <c r="C508" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -10204,11 +10203,11 @@
       <c r="A509" s="2">
         <v>33</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="B509" t="s">
         <v>210</v>
       </c>
       <c r="C509" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -10220,11 +10219,11 @@
       <c r="A510" s="2">
         <v>34</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="B510" t="s">
         <v>179</v>
       </c>
       <c r="C510" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -10236,11 +10235,11 @@
       <c r="A511" s="2">
         <v>35</v>
       </c>
-      <c r="B511" s="4" t="s">
+      <c r="B511" t="s">
         <v>354</v>
       </c>
       <c r="C511" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -10252,11 +10251,11 @@
       <c r="A512" s="2">
         <v>41</v>
       </c>
-      <c r="B512" s="4" t="s">
-        <v>529</v>
+      <c r="B512" t="s">
+        <v>548</v>
       </c>
       <c r="C512" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -10268,11 +10267,11 @@
       <c r="A513" s="2">
         <v>72</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="B513" t="s">
         <v>417</v>
       </c>
       <c r="C513" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -10284,11 +10283,11 @@
       <c r="A514" s="2">
         <v>1</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="B514" t="s">
         <v>46</v>
       </c>
       <c r="C514" t="s">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -10300,11 +10299,11 @@
       <c r="A515" s="2">
         <v>3</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="B515" t="s">
         <v>47</v>
       </c>
       <c r="C515" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -10316,11 +10315,11 @@
       <c r="A516" s="2">
         <v>4</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="B516" t="s">
         <v>383</v>
       </c>
       <c r="C516" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -10332,11 +10331,11 @@
       <c r="A517" s="2">
         <v>10</v>
       </c>
-      <c r="B517" s="4" t="s">
+      <c r="B517" t="s">
         <v>131</v>
       </c>
       <c r="C517" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -10348,11 +10347,11 @@
       <c r="A518" s="2">
         <v>14</v>
       </c>
-      <c r="B518" s="4" t="s">
+      <c r="B518" t="s">
         <v>377</v>
       </c>
       <c r="C518" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -10364,11 +10363,11 @@
       <c r="A519" s="2">
         <v>16</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="B519" t="s">
         <v>193</v>
       </c>
       <c r="C519" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -10380,11 +10379,11 @@
       <c r="A520" s="2">
         <v>17</v>
       </c>
-      <c r="B520" s="4" t="s">
+      <c r="B520" t="s">
         <v>235</v>
       </c>
       <c r="C520" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -10396,11 +10395,11 @@
       <c r="A521" s="2">
         <v>22</v>
       </c>
-      <c r="B521" s="4" t="s">
+      <c r="B521" t="s">
         <v>159</v>
       </c>
       <c r="C521" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -10412,11 +10411,11 @@
       <c r="A522" s="2">
         <v>23</v>
       </c>
-      <c r="B522" s="4" t="s">
+      <c r="B522" t="s">
         <v>104</v>
       </c>
       <c r="C522" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -10428,11 +10427,11 @@
       <c r="A523" s="2">
         <v>24</v>
       </c>
-      <c r="B523" s="4" t="s">
+      <c r="B523" t="s">
         <v>63</v>
       </c>
       <c r="C523" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -10444,11 +10443,11 @@
       <c r="A524" s="2">
         <v>25</v>
       </c>
-      <c r="B524" s="4" t="s">
+      <c r="B524" t="s">
         <v>415</v>
       </c>
       <c r="C524" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -10460,11 +10459,11 @@
       <c r="A525" s="2">
         <v>26</v>
       </c>
-      <c r="B525" s="4" t="s">
-        <v>530</v>
+      <c r="B525" t="s">
+        <v>549</v>
       </c>
       <c r="C525" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -10476,11 +10475,11 @@
       <c r="A526" s="2">
         <v>28</v>
       </c>
-      <c r="B526" s="4" t="s">
+      <c r="B526" t="s">
         <v>329</v>
       </c>
       <c r="C526" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -10492,11 +10491,11 @@
       <c r="A527" s="2">
         <v>30</v>
       </c>
-      <c r="B527" s="4" t="s">
+      <c r="B527" t="s">
         <v>253</v>
       </c>
       <c r="C527" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -10508,11 +10507,11 @@
       <c r="A528" s="2">
         <v>33</v>
       </c>
-      <c r="B528" s="4" t="s">
+      <c r="B528" t="s">
         <v>202</v>
       </c>
       <c r="C528" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -10524,11 +10523,11 @@
       <c r="A529" s="2">
         <v>54</v>
       </c>
-      <c r="B529" s="4" t="s">
+      <c r="B529" t="s">
         <v>340</v>
       </c>
       <c r="C529" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -10538,11 +10537,11 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
-      <c r="B530" s="4" t="s">
-        <v>531</v>
+      <c r="B530" t="s">
+        <v>550</v>
       </c>
       <c r="C530" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -10552,11 +10551,11 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
-      <c r="B531" s="4" t="s">
-        <v>532</v>
+      <c r="B531" t="s">
+        <v>551</v>
       </c>
       <c r="C531" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -10566,7 +10565,6 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
-      <c r="B532" s="4"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="5"/>
@@ -10574,538 +10572,6 @@
       <c r="H532" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.basketball-reference.com/players/t/tatumja01.html" xr:uid="{16898338-9C4E-034C-8560-45FF2F60D8DF}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.basketball-reference.com/players/h/holidjr01.html" xr:uid="{151D45FD-BE5C-7F49-9D6A-6BC626A87E86}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.basketball-reference.com/players/b/brownja02.html" xr:uid="{D64A37F5-4977-AC47-A596-43A0EDFF0051}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.basketball-reference.com/players/p/porzikr01.html" xr:uid="{2242CF4C-B209-D549-811E-B0DFA33C2288}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://www.basketball-reference.com/players/w/whitede01.html" xr:uid="{E81E6ECB-865D-FF41-943B-7FADBD45C502}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://www.basketball-reference.com/players/p/pritcpa01.html" xr:uid="{F7043312-5F34-6B44-8922-172BC7A7D684}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://www.basketball-reference.com/players/b/brissos01.html" xr:uid="{A2DD08B6-3BEA-8143-BA8A-A93866DE63E9}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://www.basketball-reference.com/players/p/peterdr01.html" xr:uid="{E7EDBE44-8097-4D48-83FA-F076007D33E5}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://www.basketball-reference.com/players/d/davisjd01.html" xr:uid="{1732E109-54AA-F149-801B-E113FAFEFD6A}"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://www.basketball-reference.com/players/h/hausesa01.html" xr:uid="{0D22007A-8A5F-2C45-9CD9-BDEDB0F46310}"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://www.basketball-reference.com/players/k/kornelu01.html" xr:uid="{90C1218D-13B7-754D-8EA8-C58A93EB66A1}"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://www.basketball-reference.com/players/h/horfoal01.html" xr:uid="{D35FAAA8-4353-194A-9A3C-D5DCF22AB44D}"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://www.basketball-reference.com/players/b/bantoda01.html" xr:uid="{654AB894-6F5C-AB44-8B9B-902BECA3425A}"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://www.basketball-reference.com/players/m/mykhasv01.html" xr:uid="{21F5C70D-46CD-6F44-B81A-C6BD05E88E21}"/>
-    <hyperlink ref="B16" r:id="rId15" display="https://www.basketball-reference.com/players/s/stevela01.html" xr:uid="{A31407CF-E129-B841-A650-A9E131593241}"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://www.basketball-reference.com/players/q/quetane01.html" xr:uid="{D332DF3C-CE53-1D4F-AA0A-5B1AACDDA17B}"/>
-    <hyperlink ref="B18" r:id="rId17" display="https://www.basketball-reference.com/players/w/walshjo01.html" xr:uid="{DB6FA0F5-3103-334D-8D33-3813D222862A}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://www.basketball-reference.com/players/l/lillada01.html" xr:uid="{96F7F7A0-D5A8-B34F-BDAC-44E46CBD153F}"/>
-    <hyperlink ref="B20" r:id="rId19" display="https://www.basketball-reference.com/players/b/beaucma01.html" xr:uid="{AFEA38B2-FBF3-A84A-BD9B-8AAB681D9E06}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://www.basketball-reference.com/players/b/beaslma01.html" xr:uid="{ADEC4A10-863D-FD40-80A0-B09AD77E821F}"/>
-    <hyperlink ref="B22" r:id="rId21" display="https://www.basketball-reference.com/players/l/livinch01.html" xr:uid="{BC5276A2-09EF-394D-BCEC-D452C5905738}"/>
-    <hyperlink ref="B23" r:id="rId22" display="https://www.basketball-reference.com/players/p/portibo01.html" xr:uid="{6BB24072-D829-A64A-B815-2C49D0B8E0E2}"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://www.basketball-reference.com/players/l/lopezbr01.html" xr:uid="{6BB03455-A939-4749-AAF2-E27AC7D01DDD}"/>
-    <hyperlink ref="B25" r:id="rId24" display="https://www.basketball-reference.com/players/b/boldema01.html" xr:uid="{DBA610AC-1C81-4C41-86FE-BBE134A368BC}"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://www.basketball-reference.com/players/p/payneca01.html" xr:uid="{8CF9A8C2-4363-DC44-8E46-877D8EB3E1DE}"/>
-    <hyperlink ref="B27" r:id="rId26" display="https://www.basketball-reference.com/players/g/greenaj01.html" xr:uid="{0414D320-9339-8145-995E-32C5517BCEE6}"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://www.basketball-reference.com/players/m/middlkh01.html" xr:uid="{5CD28A4B-41D5-1A4B-9F42-EFE715243DAF}"/>
-    <hyperlink ref="B29" r:id="rId28" display="https://www.basketball-reference.com/players/w/washity02.html" xr:uid="{A8231DAF-4B7C-4C42-BC48-31AC5B8D7B51}"/>
-    <hyperlink ref="B30" r:id="rId29" display="https://www.basketball-reference.com/players/c/connapa01.html" xr:uid="{C5A56AE1-BE49-5448-A6BC-1EDDDFA6348B}"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://www.basketball-reference.com/players/w/wiggili01.html" xr:uid="{BF0D3007-0217-E44E-942F-126AE273D802}"/>
-    <hyperlink ref="B32" r:id="rId31" display="https://www.basketball-reference.com/players/a/antetgi01.html" xr:uid="{C903B6DE-4395-B944-BFAB-D88B46746F95}"/>
-    <hyperlink ref="B33" r:id="rId32" display="https://www.basketball-reference.com/players/l/lopezro01.html" xr:uid="{51D7EF87-3819-D248-90E0-92EE4838249D}"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://www.basketball-reference.com/players/a/antetth01.html" xr:uid="{86023A3A-73BF-2349-A3DB-3C2E9D51800E}"/>
-    <hyperlink ref="B35" r:id="rId34" display="https://www.basketball-reference.com/players/j/jacksan01.html" xr:uid="{7038494A-6E16-D140-B200-7182F40C3AEE}"/>
-    <hyperlink ref="B36" r:id="rId35" display="https://www.basketball-reference.com/players/c/crowdja01.html" xr:uid="{26107E69-FC3A-5346-9474-00F0CBFE3FBB}"/>
-    <hyperlink ref="B37" r:id="rId36" display="https://www.basketball-reference.com/players/m/maxeyty01.html" xr:uid="{06514F87-6D74-CD46-84E0-C2F4717D6007}"/>
-    <hyperlink ref="B38" r:id="rId37" display="https://www.basketball-reference.com/players/m/martike04.html" xr:uid="{3941C7C9-7E23-004F-B7BA-9F057C4187C4}"/>
-    <hyperlink ref="B39" r:id="rId38" display="https://www.basketball-reference.com/players/m/morrima03.html" xr:uid="{55FDA7E9-B48A-2B45-AC7E-1BB7BC9AE1D7}"/>
-    <hyperlink ref="B40" r:id="rId39" display="https://www.basketball-reference.com/players/b/bambamo01.html" xr:uid="{E0642B6F-AA74-AF48-AF65-769CECB4B6A1}"/>
-    <hyperlink ref="B41" r:id="rId40" display="https://www.basketball-reference.com/players/m/meltode01.html" xr:uid="{2A1BB258-7B0F-0843-9B83-D7757B50A32B}"/>
-    <hyperlink ref="B42" r:id="rId41" display="https://www.basketball-reference.com/players/o/oubreke01.html" xr:uid="{682F7E1A-4FC1-294D-B138-24555A6F84A3}"/>
-    <hyperlink ref="B43" r:id="rId42" display="https://www.basketball-reference.com/players/s/sprinja01.html" xr:uid="{56ED02C3-5682-5A4C-84CF-7145582C98EA}"/>
-    <hyperlink ref="B44" r:id="rId43" display="https://www.basketball-reference.com/players/h/harrito02.html" xr:uid="{A10A5009-46B3-DA43-ADBF-FD00F45A2605}"/>
-    <hyperlink ref="B45" r:id="rId44" display="https://www.basketball-reference.com/players/c/councri01.html" xr:uid="{AF9A9EB2-5723-0D4B-852F-FB07C2D142E3}"/>
-    <hyperlink ref="B46" r:id="rId45" display="https://www.basketball-reference.com/players/e/embiijo01.html" xr:uid="{234B460C-AE12-FB49-AC89-5543D3D1E88D}"/>
-    <hyperlink ref="B47" r:id="rId46" display="https://www.basketball-reference.com/players/b/beverpa01.html" xr:uid="{1611F8DD-ECC2-544E-BE5F-2C9E25F6BBEC}"/>
-    <hyperlink ref="B48" r:id="rId47" display="https://www.basketball-reference.com/players/h/houseda01.html" xr:uid="{628D2895-702A-104A-AD5C-5F738956E460}"/>
-    <hyperlink ref="B49" r:id="rId48" display="https://www.basketball-reference.com/players/k/korkmfu01.html" xr:uid="{12A910D6-7A3F-F04F-A1CD-E9525E5A22B0}"/>
-    <hyperlink ref="B50" r:id="rId49" display="https://www.basketball-reference.com/players/c/covinro01.html" xr:uid="{8A0002F4-3827-7748-AD77-3E1D696BEE5C}"/>
-    <hyperlink ref="B51" r:id="rId50" display="https://www.basketball-reference.com/players/l/loftoke01.html" xr:uid="{C5140917-574B-A043-8CE0-3413375752FC}"/>
-    <hyperlink ref="B52" r:id="rId51" display="https://www.basketball-reference.com/players/b/batumni01.html" xr:uid="{9B4BA69E-DF2B-524C-8E34-6ECB14293C4D}"/>
-    <hyperlink ref="B53" r:id="rId52" display="https://www.basketball-reference.com/players/r/reedpa01.html" xr:uid="{167C8949-2696-BC49-8037-65A163345C31}"/>
-    <hyperlink ref="B54" r:id="rId53" display="https://www.basketball-reference.com/players/s/smithte01.html" xr:uid="{6750F4B7-4BA9-2845-AD49-A1A14A30A1B2}"/>
-    <hyperlink ref="B55" r:id="rId54" display="https://www.basketball-reference.com/players/r/richajo01.html" xr:uid="{036FA6A6-CEC8-FA4F-917E-BEA0B2EA6833}"/>
-    <hyperlink ref="B56" r:id="rId55" display="https://www.basketball-reference.com/players/h/hamptrj01.html" xr:uid="{51B37E66-743A-9645-A834-9A4D751E8748}"/>
-    <hyperlink ref="B57" r:id="rId56" display="https://www.basketball-reference.com/players/j/jovicni01.html" xr:uid="{7B5C4EC3-6558-A149-B661-5BA29E34F68E}"/>
-    <hyperlink ref="B58" r:id="rId57" display="https://www.basketball-reference.com/players/l/lowryky01.html" xr:uid="{16E85434-F64C-304B-93FD-8E3EAC04466D}"/>
-    <hyperlink ref="B59" r:id="rId58" display="https://www.basketball-reference.com/players/c/cainja01.html" xr:uid="{9CD28E3E-FFBC-3D45-8770-EA073D20EA5A}"/>
-    <hyperlink ref="B60" r:id="rId59" display="https://www.basketball-reference.com/players/s/smithdr01.html" xr:uid="{58D46867-28CD-FA47-A17C-8D8D76BB7CA1}"/>
-    <hyperlink ref="B61" r:id="rId60" display="https://www.basketball-reference.com/players/j/jaqueja01.html" xr:uid="{5833900C-A105-EC43-B8EF-DC9D68BB0788}"/>
-    <hyperlink ref="B62" r:id="rId61" display="https://www.basketball-reference.com/players/a/adebaba01.html" xr:uid="{AF9959EB-E171-5A4F-9056-23A5A491BF29}"/>
-    <hyperlink ref="B63" r:id="rId62" display="https://www.basketball-reference.com/players/h/herroty01.html" xr:uid="{7276D4C6-F3D4-D04A-933F-4B04D6847A6D}"/>
-    <hyperlink ref="B64" r:id="rId63" display="https://www.basketball-reference.com/players/m/martica02.html" xr:uid="{4642ADAF-9F16-0346-A205-DD7FBFADE97E}"/>
-    <hyperlink ref="B65" r:id="rId64" display="https://www.basketball-reference.com/players/s/swideco01.html" xr:uid="{A6AB39C8-D6C2-D44E-A6E4-A5F0831F2F58}"/>
-    <hyperlink ref="B66" r:id="rId65" display="https://www.basketball-reference.com/players/b/butleji01.html" xr:uid="{5AD50AAD-143F-1545-8230-35BA24E6B1AC}"/>
-    <hyperlink ref="B67" r:id="rId66" display="https://www.basketball-reference.com/players/h/highsha01.html" xr:uid="{A533C979-111A-3C40-9BD7-C27B11F92195}"/>
-    <hyperlink ref="B68" r:id="rId67" display="https://www.basketball-reference.com/players/r/robinor01.html" xr:uid="{3791AF4D-01F0-B547-937D-0BAC2838C27F}"/>
-    <hyperlink ref="B69" r:id="rId68" display="https://www.basketball-reference.com/players/b/bryanth01.html" xr:uid="{4B543F9D-1487-074D-811B-75F1D5FA368F}"/>
-    <hyperlink ref="B70" r:id="rId69" display="https://www.basketball-reference.com/players/l/loveke01.html" xr:uid="{FB9A66C4-753F-554B-8AF0-E2916D140589}"/>
-    <hyperlink ref="B71" r:id="rId70" display="https://www.basketball-reference.com/players/r/robindu01.html" xr:uid="{85FD4282-8289-7A4D-AC60-535D0257EB72}"/>
-    <hyperlink ref="B72" r:id="rId71" display="https://www.basketball-reference.com/players/b/blackan01.html" xr:uid="{85A2F6A9-EFE8-E44B-B900-D52BBD235B20}"/>
-    <hyperlink ref="B73" r:id="rId72" display="https://www.basketball-reference.com/players/i/isaacjo01.html" xr:uid="{7692D984-C7FC-5445-BDAE-D4CD2DFB119D}"/>
-    <hyperlink ref="B74" r:id="rId73" display="https://www.basketball-reference.com/players/h/houstca01.html" xr:uid="{53EC5336-A086-794C-BEEB-E2271DFE1637}"/>
-    <hyperlink ref="B75" r:id="rId74" display="https://www.basketball-reference.com/players/o/okekech01.html" xr:uid="{ABC516AB-275D-EF47-88AA-75D4B1CA55AD}"/>
-    <hyperlink ref="B76" r:id="rId75" display="https://www.basketball-reference.com/players/s/suggsja01.html" xr:uid="{BA7F4EE1-D324-ED42-B4D3-EAF081D431F2}"/>
-    <hyperlink ref="B77" r:id="rId76" display="https://www.basketball-reference.com/players/b/banchpa01.html" xr:uid="{7629BF12-2057-3749-85B5-2BF200A637DE}"/>
-    <hyperlink ref="B78" r:id="rId77" display="https://www.basketball-reference.com/players/i/inglejo01.html" xr:uid="{C091C794-2AC3-C44C-B83A-5690E44EC9CC}"/>
-    <hyperlink ref="B79" r:id="rId78" display="https://www.basketball-reference.com/players/q/queentr01.html" xr:uid="{540A99E9-EC20-C844-A789-538EC977F548}"/>
-    <hyperlink ref="B80" r:id="rId79" display="https://www.basketball-reference.com/players/h/howarje01.html" xr:uid="{D1D86FDA-32D8-7F4B-BD70-F3C1690B8A86}"/>
-    <hyperlink ref="B81" r:id="rId80" display="https://www.basketball-reference.com/players/h/harriga01.html" xr:uid="{1342B65E-8C1B-244A-A7AA-4E0294D6E104}"/>
-    <hyperlink ref="B82" r:id="rId81" display="https://www.basketball-reference.com/players/f/fultzma01.html" xr:uid="{F1DAB158-998E-F549-9443-5C705C5FA6CC}"/>
-    <hyperlink ref="B83" r:id="rId82" display="https://www.basketball-reference.com/players/w/wagnemo01.html" xr:uid="{1FB93060-7C9A-7B41-A442-48FFA9B9B1BC}"/>
-    <hyperlink ref="B84" r:id="rId83" display="https://www.basketball-reference.com/players/w/wagnefr01.html" xr:uid="{4B9A0A90-7DA4-3C47-A0DB-315200D5800A}"/>
-    <hyperlink ref="B85" r:id="rId84" display="https://www.basketball-reference.com/players/s/schofad01.html" xr:uid="{0D1A1DD0-6A09-F446-8330-C713818B0239}"/>
-    <hyperlink ref="B86" r:id="rId85" display="https://www.basketball-reference.com/players/c/cartewe01.html" xr:uid="{80E07D5D-10A7-BC42-AED8-4430EDF377CA}"/>
-    <hyperlink ref="B87" r:id="rId86" display="https://www.basketball-reference.com/players/b/bitadgo01.html" xr:uid="{3065A608-B371-4B48-85EF-B1D195113922}"/>
-    <hyperlink ref="B88" r:id="rId87" display="https://www.basketball-reference.com/players/a/anthoco01.html" xr:uid="{61BE106F-4A09-674E-9964-7189B92C2F4C}"/>
-    <hyperlink ref="B89" r:id="rId88" display="https://www.basketball-reference.com/players/h/harrike01.html" xr:uid="{F724D70B-55DB-7643-B5BF-0D5456DDB8F9}"/>
-    <hyperlink ref="B90" r:id="rId89" display="https://www.basketball-reference.com/players/h/halibty01.html" xr:uid="{B5CBF778-B8D3-6143-9486-301EF91E56F3}"/>
-    <hyperlink ref="B91" r:id="rId90" display="https://www.basketball-reference.com/players/m/mathube01.html" xr:uid="{457545D4-4739-E040-84CF-73872B7FB7A3}"/>
-    <hyperlink ref="B92" r:id="rId91" display="https://www.basketball-reference.com/players/t/toppiob01.html" xr:uid="{4D6010CE-ACF4-BE42-B305-4D9A1A8E3D32}"/>
-    <hyperlink ref="B93" r:id="rId92" display="https://www.basketball-reference.com/players/n/nembhan01.html" xr:uid="{1CD0A68C-BB86-9A47-9B60-0368013AD30D}"/>
-    <hyperlink ref="B94" r:id="rId93" display="https://www.basketball-reference.com/players/w/walkeja02.html" xr:uid="{BBD10D0E-2EE4-A249-8581-FD5B01EEC6A9}"/>
-    <hyperlink ref="B95" r:id="rId94" display="https://www.basketball-reference.com/players/h/hieldbu01.html" xr:uid="{E741565E-1B6F-B146-A53D-92E3783B3BF9}"/>
-    <hyperlink ref="B96" r:id="rId95" display="https://www.basketball-reference.com/players/m/mccontj01.html" xr:uid="{15562C20-E55E-194B-A7BD-4D45C7544596}"/>
-    <hyperlink ref="B97" r:id="rId96" display="https://www.basketball-reference.com/players/b/brownke03.html" xr:uid="{B44826A7-F8F8-D344-B69A-D0A7490B0E40}"/>
-    <hyperlink ref="B98" r:id="rId97" display="https://www.basketball-reference.com/players/b/brownbr01.html" xr:uid="{456683F9-EEE1-1846-99C6-EDF9A95C37AF}"/>
-    <hyperlink ref="B99" r:id="rId98" display="https://www.basketball-reference.com/players/n/nworajo01.html" xr:uid="{643C4313-6434-F742-AB86-FB6EBB1B8D64}"/>
-    <hyperlink ref="B100" r:id="rId99" display="https://www.basketball-reference.com/players/j/johnsja01.html" xr:uid="{4DF0735A-A3EF-1647-8BF4-EA0063D33CAA}"/>
-    <hyperlink ref="B101" r:id="rId100" display="https://www.basketball-reference.com/players/w/wongis01.html" xr:uid="{4FABFC5A-1DFE-2C4F-B497-898888E9D99B}"/>
-    <hyperlink ref="B102" r:id="rId101" display="https://www.basketball-reference.com/players/j/jacksis01.html" xr:uid="{2EDB2B3B-782F-F04B-8E3B-7E18C4D25C16}"/>
-    <hyperlink ref="B103" r:id="rId102" display="https://www.basketball-reference.com/players/n/nesmiaa01.html" xr:uid="{63980ADA-854C-CD40-B7EC-406C485C9582}"/>
-    <hyperlink ref="B104" r:id="rId103" display="https://www.basketball-reference.com/players/s/smithja04.html" xr:uid="{DE52B24A-542D-0147-A7E2-95123058788A}"/>
-    <hyperlink ref="B105" r:id="rId104" display="https://www.basketball-reference.com/players/s/sheppbe01.html" xr:uid="{31E24485-38D8-0B47-B486-6B9D6FCE53E2}"/>
-    <hyperlink ref="B106" r:id="rId105" display="https://www.basketball-reference.com/players/t/turnemy01.html" xr:uid="{46F27283-2CCC-714A-948A-0D5C1843D407}"/>
-    <hyperlink ref="B107" r:id="rId106" display="https://www.basketball-reference.com/players/t/tshieos01.html" xr:uid="{052CF3BE-716C-D64E-BA2C-6F8C509E52B1}"/>
-    <hyperlink ref="B108" r:id="rId107" display="https://www.basketball-reference.com/players/t/toppija01.html" xr:uid="{835120FA-A868-3C40-92DB-6B4E105B4B7D}"/>
-    <hyperlink ref="B109" r:id="rId108" display="https://www.basketball-reference.com/players/d/divindo01.html" xr:uid="{2CB89621-2A8B-6443-B11C-88B6089C1EC3}"/>
-    <hyperlink ref="B110" r:id="rId109" display="https://www.basketball-reference.com/players/m/mcbrimi01.html" xr:uid="{B406E996-126E-B34F-BC5F-A480EBAEDFDA}"/>
-    <hyperlink ref="B111" r:id="rId110" display="https://www.basketball-reference.com/players/h/hartjo01.html" xr:uid="{427E775A-82EA-174B-9DC8-67235503A501}"/>
-    <hyperlink ref="B112" r:id="rId111" display="https://www.basketball-reference.com/players/a/achiupr01.html" xr:uid="{4641C1CE-5C68-8946-BD14-540016921FB8}"/>
-    <hyperlink ref="B113" r:id="rId112" display="https://www.basketball-reference.com/players/g/grimequ01.html" xr:uid="{000E75B9-B838-E84E-960C-C3C313F3053B}"/>
-    <hyperlink ref="B114" r:id="rId113" display="https://www.basketball-reference.com/players/a/anunoog01.html" xr:uid="{349E16AC-62F1-1541-85E6-6AA11F922A38}"/>
-    <hyperlink ref="B115" r:id="rId114" display="https://www.basketball-reference.com/players/b/brunsja01.html" xr:uid="{D28CBBFE-AA92-554B-8E93-0CDC15346D1A}"/>
-    <hyperlink ref="B116" r:id="rId115" display="https://www.basketball-reference.com/players/f/fournev01.html" xr:uid="{7373FF99-7919-1040-A491-DE0AB848B65F}"/>
-    <hyperlink ref="B117" r:id="rId116" display="https://www.basketball-reference.com/players/r/robinmi01.html" xr:uid="{33CB0ED7-7BA8-2643-AD6A-198623D14241}"/>
-    <hyperlink ref="B118" r:id="rId117" display="https://www.basketball-reference.com/players/r/randlju01.html" xr:uid="{DF8BD465-7788-124B-B7FA-EAA16511C202}"/>
-    <hyperlink ref="B119" r:id="rId118" display="https://www.basketball-reference.com/players/b/brownch02.html" xr:uid="{D721177B-4AE3-6146-ACF3-9A034F2D0552}"/>
-    <hyperlink ref="B120" r:id="rId119" display="https://www.basketball-reference.com/players/s/simsje01.html" xr:uid="{76A83AA5-F17F-6546-83A5-FD8CEB35B6E0}"/>
-    <hyperlink ref="B121" r:id="rId120" display="https://www.basketball-reference.com/players/a/arcidry01.html" xr:uid="{C0E49F57-5CBD-F647-BE1D-AA0C9F9D0564}"/>
-    <hyperlink ref="B122" r:id="rId121" display="https://www.basketball-reference.com/players/h/harteis01.html" xr:uid="{D0520F17-0C0F-4A48-ACB8-5D496F44902C}"/>
-    <hyperlink ref="B123" r:id="rId122" display="https://www.basketball-reference.com/players/g/gibsota01.html" xr:uid="{90A3FA46-F9D4-6040-B16E-120510924E7F}"/>
-    <hyperlink ref="B124" r:id="rId123" display="https://www.basketball-reference.com/players/f/flynnma01.html" xr:uid="{07BFA4FB-2C27-EB45-A2DC-2714982D2491}"/>
-    <hyperlink ref="B125" r:id="rId124" display="https://www.basketball-reference.com/players/s/strusma01.html" xr:uid="{51EEC790-12B0-0C45-BAA9-B9365005DF33}"/>
-    <hyperlink ref="B126" r:id="rId125" display="https://www.basketball-reference.com/players/j/jeromty01.html" xr:uid="{880CE047-27B5-5F49-AB5F-E194C94075B7}"/>
-    <hyperlink ref="B127" r:id="rId126" display="https://www.basketball-reference.com/players/l/leverca01.html" xr:uid="{B0C48967-8D3F-C544-B977-F00BC8DC96EE}"/>
-    <hyperlink ref="B128" r:id="rId127" display="https://www.basketball-reference.com/players/m/mobleev01.html" xr:uid="{D0543E42-00C7-4942-AEC1-84193996AF02}"/>
-    <hyperlink ref="B129" r:id="rId128" display="https://www.basketball-reference.com/players/m/merrisa01.html" xr:uid="{95289821-56DC-404C-BB16-FE627AAEEA16}"/>
-    <hyperlink ref="B130" r:id="rId129" display="https://www.basketball-reference.com/players/p/portecr01.html" xr:uid="{C4D8BE91-1A8F-DF42-9608-7175B93747A4}"/>
-    <hyperlink ref="B131" r:id="rId130" display="https://www.basketball-reference.com/players/g/garlada01.html" xr:uid="{FE2386F3-3BE7-CC4D-948D-F44EB3F69ACB}"/>
-    <hyperlink ref="B132" r:id="rId131" display="https://www.basketball-reference.com/players/t/thomptr01.html" xr:uid="{78B9E8A8-2F8C-9347-82B0-CD57C876BB39}"/>
-    <hyperlink ref="B133" r:id="rId132" display="https://www.basketball-reference.com/players/m/mobleis01.html" xr:uid="{13251DCE-7166-F844-B3F6-E76DECF6F14F}"/>
-    <hyperlink ref="B134" r:id="rId133" display="https://www.basketball-reference.com/players/n/niangge01.html" xr:uid="{CBBD2E4B-83C9-3F49-BD8E-D29FABFD2C76}"/>
-    <hyperlink ref="B135" r:id="rId134" display="https://www.basketball-reference.com/players/b/batesem01.html" xr:uid="{DA506095-48E7-9E46-B099-917EBDA61E12}"/>
-    <hyperlink ref="B136" r:id="rId135" display="https://www.basketball-reference.com/players/j/jonesda03.html" xr:uid="{559CC734-4892-E84B-A336-08C858DEA499}"/>
-    <hyperlink ref="B137" r:id="rId136" display="https://www.basketball-reference.com/players/a/allenja01.html" xr:uid="{605A3606-3E1E-DE41-B4D5-D7F6DECBBE44}"/>
-    <hyperlink ref="B138" r:id="rId137" display="https://www.basketball-reference.com/players/w/wadede01.html" xr:uid="{AE552827-4E2E-354D-A241-BA5383DFB2B7}"/>
-    <hyperlink ref="B139" r:id="rId138" display="https://www.basketball-reference.com/players/o/okorois01.html" xr:uid="{47E64F6B-2EF1-6B4F-87F3-B856BC564B05}"/>
-    <hyperlink ref="B140" r:id="rId139" display="https://www.basketball-reference.com/players/m/mitchdo01.html" xr:uid="{2E826A98-43C6-6643-BA6F-BC771E5645A0}"/>
-    <hyperlink ref="B141" r:id="rId140" display="https://www.basketball-reference.com/players/r/rubiori01.html" xr:uid="{2B0CF61F-052E-F34A-A9E5-DD29D29A8FB8}"/>
-    <hyperlink ref="B142" r:id="rId141" display="https://www.basketball-reference.com/players/w/whiteda01.html" xr:uid="{EC70C00E-2327-FC48-83ED-5F3A0126C1B3}"/>
-    <hyperlink ref="B143" r:id="rId142" display="https://www.basketball-reference.com/players/o/onealro01.html" xr:uid="{B961692E-0330-EA44-B92C-78756A3C9D54}"/>
-    <hyperlink ref="B144" r:id="rId143" display="https://www.basketball-reference.com/players/b/bridgmi01.html" xr:uid="{0CC33ABD-7841-4346-A0CB-D543AA0814D4}"/>
-    <hyperlink ref="B145" r:id="rId144" display="https://www.basketball-reference.com/players/j/johnsca02.html" xr:uid="{0977DC8A-CEE5-9948-A291-27ED838F5414}"/>
-    <hyperlink ref="B146" r:id="rId145" display="https://www.basketball-reference.com/players/s/smithde03.html" xr:uid="{646396DD-F278-9C42-B019-25EE17C93C3F}"/>
-    <hyperlink ref="B147" r:id="rId146" display="https://www.basketball-reference.com/players/w/walkelo01.html" xr:uid="{E0C5F2E1-691E-D946-9952-BA1E525CD607}"/>
-    <hyperlink ref="B148" r:id="rId147" display="https://www.basketball-reference.com/players/w/watfotr01.html" xr:uid="{16AAD581-C0CA-5042-ACF2-0B1DAB2D7618}"/>
-    <hyperlink ref="B149" r:id="rId148" display="https://www.basketball-reference.com/players/s/simmobe01.html" xr:uid="{6B3646E4-2020-1348-AF36-BD3149F9B448}"/>
-    <hyperlink ref="B150" r:id="rId149" display="https://www.basketball-reference.com/players/b/brookar01.html" xr:uid="{8F743E02-18F4-D34B-97D5-A15D80DE6CAC}"/>
-    <hyperlink ref="B151" r:id="rId150" display="https://www.basketball-reference.com/players/g/gilesha01.html" xr:uid="{A5CFB775-D3CF-ED44-8401-DEF158F6DF53}"/>
-    <hyperlink ref="B152" r:id="rId151" display="https://www.basketball-reference.com/players/s/sharpda01.html" xr:uid="{96E872C8-D7B9-CD4F-B4C2-FC3F430F8E00}"/>
-    <hyperlink ref="B153" r:id="rId152" display="https://www.basketball-reference.com/players/c/clownno01.html" xr:uid="{242B6EB7-3D8F-E747-969A-F45417C52B19}"/>
-    <hyperlink ref="B154" r:id="rId153" display="https://www.basketball-reference.com/players/w/wilsoja03.html" xr:uid="{26791D39-1DA8-3840-8BB2-0FFCCF988F54}"/>
-    <hyperlink ref="B155" r:id="rId154" display="https://www.basketball-reference.com/players/t/thomaca02.html" xr:uid="{169A4574-6105-0444-B9E3-27BCA6EECD09}"/>
-    <hyperlink ref="B156" r:id="rId155" display="https://www.basketball-reference.com/players/d/dinwisp01.html" xr:uid="{91329B6C-B7AC-7E4C-B98D-47C75C09E59B}"/>
-    <hyperlink ref="B157" r:id="rId156" display="https://www.basketball-reference.com/players/f/finnedo01.html" xr:uid="{AA8B3C5B-6C73-DA44-97C5-73D7A1F3215B}"/>
-    <hyperlink ref="B158" r:id="rId157" display="https://www.basketball-reference.com/players/c/claxtni01.html" xr:uid="{F0385212-422F-5344-A27A-E1B892E67560}"/>
-    <hyperlink ref="B159" r:id="rId158" display="https://www.basketball-reference.com/players/j/johnske07.html" xr:uid="{5324CF18-EF63-EF48-9930-80FB25AECC07}"/>
-    <hyperlink ref="B160" r:id="rId159" display="https://www.basketball-reference.com/players/w/whiteco01.html" xr:uid="{4CB73F44-0318-BB46-BB48-96494DB99859}"/>
-    <hyperlink ref="B161" r:id="rId160" display="https://www.basketball-reference.com/players/d/drumman01.html" xr:uid="{10813EB2-0481-BE45-B3D6-C7876F363381}"/>
-    <hyperlink ref="B162" r:id="rId161" display="https://www.basketball-reference.com/players/c/carteje01.html" xr:uid="{5085927E-F9CA-2649-93AD-36B752F3FBA4}"/>
-    <hyperlink ref="B163" r:id="rId162" display="https://www.basketball-reference.com/players/c/carusal01.html" xr:uid="{38079AA2-8FA8-5D47-A593-0A066545A790}"/>
-    <hyperlink ref="B164" r:id="rId163" display="https://www.basketball-reference.com/players/l/lavinza01.html" xr:uid="{19675819-2460-F044-B18C-21A23C58103E}"/>
-    <hyperlink ref="B165" r:id="rId164" display="https://www.basketball-reference.com/players/v/vucevni01.html" xr:uid="{19384EB6-D2C3-AB44-A67D-BACCDDD9578C}"/>
-    <hyperlink ref="B166" r:id="rId165" display="https://www.basketball-reference.com/players/d/derozde01.html" xr:uid="{EAB9151C-ED94-DF44-905A-B44076277CC7}"/>
-    <hyperlink ref="B167" r:id="rId166" display="https://www.basketball-reference.com/players/d/dosunay01.html" xr:uid="{FA84D6BA-5B45-354E-B54E-7BC2F3832AC1}"/>
-    <hyperlink ref="B168" r:id="rId167" display="https://www.basketball-reference.com/players/c/craigto01.html" xr:uid="{2F243384-8D5C-5946-B61B-970F5B1F5F6F}"/>
-    <hyperlink ref="B169" r:id="rId168" display="https://www.basketball-reference.com/players/p/phillju01.html" xr:uid="{CFE92EC7-E165-754A-829E-73441BA00C3A}"/>
-    <hyperlink ref="B170" r:id="rId169" display="https://www.basketball-reference.com/players/b/bitimon01.html" xr:uid="{543AD4AA-A085-0F4C-8F9B-9AFB6ACAF9A3}"/>
-    <hyperlink ref="B171" r:id="rId170" display="https://www.basketball-reference.com/players/s/sanogad01.html" xr:uid="{68C370E1-BC37-6546-8CEA-850E33B52023}"/>
-    <hyperlink ref="B172" r:id="rId171" display="https://www.basketball-reference.com/players/t/terryda01.html" xr:uid="{C0218671-EA83-924C-8BDA-A4C277F59C2B}"/>
-    <hyperlink ref="B173" r:id="rId172" display="https://www.basketball-reference.com/players/t/taylote01.html" xr:uid="{9E31013B-7544-EF42-B1B5-6D6606F71E1F}"/>
-    <hyperlink ref="B174" r:id="rId173" display="https://www.basketball-reference.com/players/w/willipa01.html" xr:uid="{0DF452EA-5605-7F4B-901B-FCB9EC688A18}"/>
-    <hyperlink ref="B175" r:id="rId174" display="https://www.basketball-reference.com/players/b/balllo01.html" xr:uid="{8E8085FE-3D51-6644-AE18-E2B93CC4A4FC}"/>
-    <hyperlink ref="B176" r:id="rId175" display="https://www.basketball-reference.com/players/d/drellhe01.html" xr:uid="{86B425D8-25E8-EF49-A96E-F7DC452616A1}"/>
-    <hyperlink ref="B177" r:id="rId176" display="https://www.basketball-reference.com/players/j/johnsja05.html" xr:uid="{77F82079-4214-F543-953D-E2CC35AFDF0F}"/>
-    <hyperlink ref="B178" r:id="rId177" display="https://www.basketball-reference.com/players/f/forretr01.html" xr:uid="{FA24A452-7CC1-2A47-BE24-CB5ADA59466B}"/>
-    <hyperlink ref="B179" r:id="rId178" display="https://www.basketball-reference.com/players/l/lundyse01.html" xr:uid="{FABA698E-4F10-574C-BDDD-75A0B533E0A5}"/>
-    <hyperlink ref="B180" r:id="rId179" display="https://www.basketball-reference.com/players/b/bufkiko01.html" xr:uid="{5DE5A7E3-FF47-FC43-835E-772793EDFD3A}"/>
-    <hyperlink ref="B181" r:id="rId180" display="https://www.basketball-reference.com/players/m/murrade01.html" xr:uid="{F0EB3BA8-C532-FA44-9D73-D55E4E209DA5}"/>
-    <hyperlink ref="B182" r:id="rId181" display="https://www.basketball-reference.com/players/m/millspa02.html" xr:uid="{7C74A7E6-0B83-0B4A-BA9C-CEE8176087D7}"/>
-    <hyperlink ref="B183" r:id="rId182" display="https://www.basketball-reference.com/players/y/youngtr01.html" xr:uid="{74DA4530-FAE8-334B-8376-714D8FD0DD7E}"/>
-    <hyperlink ref="B184" r:id="rId183" display="https://www.basketball-reference.com/players/h/huntede01.html" xr:uid="{40DE35CF-0BD9-D44E-AF27-3F4A3549352A}"/>
-    <hyperlink ref="B185" r:id="rId184" display="https://www.basketball-reference.com/players/b/bogdabo01.html" xr:uid="{2681CD73-3683-EF4C-B49D-489121969CC6}"/>
-    <hyperlink ref="B186" r:id="rId185" display="https://www.basketball-reference.com/players/g/griffaj01.html" xr:uid="{4777129C-80BB-E44F-AC72-B5DCC79C3AA7}"/>
-    <hyperlink ref="B187" r:id="rId186" display="https://www.basketball-reference.com/players/c/capelca01.html" xr:uid="{ACDA6036-C52F-204F-AAD9-E5A09CCD118E}"/>
-    <hyperlink ref="B188" r:id="rId187" display="https://www.basketball-reference.com/players/o/okongon01.html" xr:uid="{5B500E46-967A-0246-8F6A-917F72F53E5A}"/>
-    <hyperlink ref="B189" r:id="rId188" display="https://www.basketball-reference.com/players/g/gueyemo02.html" xr:uid="{1ED0091D-6343-8E42-BCB6-94851DA0304D}"/>
-    <hyperlink ref="B190" r:id="rId189" display="https://www.basketball-reference.com/players/f/fernabr01.html" xr:uid="{B669D3C6-A110-C949-BD87-DC810AB86CC3}"/>
-    <hyperlink ref="B191" r:id="rId190" display="https://www.basketball-reference.com/players/m/mathega01.html" xr:uid="{26703963-6AF2-5844-89D1-88700AB3245C}"/>
-    <hyperlink ref="B192" r:id="rId191" display="https://www.basketball-reference.com/players/m/matthwe02.html" xr:uid="{B51B3EBC-D4E1-E14B-A57A-89F4EDCC7EBE}"/>
-    <hyperlink ref="B193" r:id="rId192" display="https://www.basketball-reference.com/players/b/beysa01.html" xr:uid="{E9CFBB59-4D9E-1145-A360-42BFB0E5D14F}"/>
-    <hyperlink ref="B194" r:id="rId193" display="https://www.basketball-reference.com/players/k/krejcvi01.html" xr:uid="{703AFC8C-9381-4A4B-B9B5-4983DB66BD90}"/>
-    <hyperlink ref="B195" r:id="rId194" display="https://www.basketball-reference.com/players/d/dickgr01.html" xr:uid="{3BB32142-3A87-D24D-9299-6C6F75FF27AE}"/>
-    <hyperlink ref="B196" r:id="rId195" display="https://www.basketball-reference.com/players/m/mcdanja01.html" xr:uid="{B8D63CA7-F072-874F-84D1-AED832AAD483}"/>
-    <hyperlink ref="B197" r:id="rId196" display="https://www.basketball-reference.com/players/b/barnesc01.html" xr:uid="{8C64F2AD-F3B5-064E-8533-361E870BB6B8}"/>
-    <hyperlink ref="B198" r:id="rId197" display="https://www.basketball-reference.com/players/q/quickim01.html" xr:uid="{EAC591D3-DF65-2F4C-980A-436FD3F5401F}"/>
-    <hyperlink ref="B199" r:id="rId198" display="https://www.basketball-reference.com/players/b/barrerj01.html" xr:uid="{EC7A865A-8B02-3642-AD88-DF84F73B0A61}"/>
-    <hyperlink ref="B200" r:id="rId199" display="https://www.basketball-reference.com/players/t/templga01.html" xr:uid="{2E703ED9-EF11-C14F-9556-24D0E5978BD6}"/>
-    <hyperlink ref="B201" r:id="rId200" display="https://www.basketball-reference.com/players/s/schrode01.html" xr:uid="{41273752-DC45-0047-8514-1913409D83A2}"/>
-    <hyperlink ref="B202" r:id="rId201" display="https://www.basketball-reference.com/players/p/poeltja01.html" xr:uid="{CB63E846-1119-444C-BAE5-D513636976E1}"/>
-    <hyperlink ref="B203" r:id="rId202" display="https://www.basketball-reference.com/players/y/youngth01.html" xr:uid="{24FBF57A-8982-3E4F-B42D-D1B900393690}"/>
-    <hyperlink ref="B204" r:id="rId203" display="https://www.basketball-reference.com/players/n/nowelma01.html" xr:uid="{82ADED87-75BB-1148-AD46-1F3C30480697}"/>
-    <hyperlink ref="B205" r:id="rId204" display="https://www.basketball-reference.com/players/b/bouchch01.html" xr:uid="{34F02249-72A3-4441-B1BF-3FEA2079DD78}"/>
-    <hyperlink ref="B206" r:id="rId205" display="https://www.basketball-reference.com/players/p/porteot01.html" xr:uid="{2F3FB6C2-9A2D-524B-914A-C4AD8B667F1A}"/>
-    <hyperlink ref="B207" r:id="rId206" display="https://www.basketball-reference.com/players/t/trentga02.html" xr:uid="{37EE0268-A6E3-A54E-9362-533943E26DAD}"/>
-    <hyperlink ref="B208" r:id="rId207" display="https://www.basketball-reference.com/players/s/siakapa01.html" xr:uid="{47F595B7-10E2-B843-8E8D-DC75F14EA205}"/>
-    <hyperlink ref="B209" r:id="rId208" display="https://www.basketball-reference.com/players/p/portejo01.html" xr:uid="{84CE91FB-C3D7-C748-8CDD-F6A634C18297}"/>
-    <hyperlink ref="B210" r:id="rId209" display="https://www.basketball-reference.com/players/k/kolokch01.html" xr:uid="{13963F2E-B021-EA4F-BBF0-D9599D8B9332}"/>
-    <hyperlink ref="B211" r:id="rId210" display="https://www.basketball-reference.com/players/f/freemja01.html" xr:uid="{EEB44A64-8CD8-334A-AB64-4AFEBE533C37}"/>
-    <hyperlink ref="B212" r:id="rId211" display="https://www.basketball-reference.com/players/b/bridgmi02.html" xr:uid="{B30FC523-0101-8145-BF49-F11337776527}"/>
-    <hyperlink ref="B213" r:id="rId212" display="https://www.basketball-reference.com/players/b/ballla01.html" xr:uid="{723787B0-4842-5C42-965E-80750AB9ADDE}"/>
-    <hyperlink ref="B214" r:id="rId213" display="https://www.basketball-reference.com/players/b/bouknja01.html" xr:uid="{555A6EB4-2D7F-6648-A6DB-2DD604985606}"/>
-    <hyperlink ref="B215" r:id="rId214" display="https://www.basketball-reference.com/players/r/roziete01.html" xr:uid="{5823C2A4-EC98-6C4E-8D84-B6EEAA5F339F}"/>
-    <hyperlink ref="B216" r:id="rId215" display="https://www.basketball-reference.com/players/r/richani01.html" xr:uid="{1C770468-8EB1-8B47-8455-671B81394A8C}"/>
-    <hyperlink ref="B217" r:id="rId216" display="https://www.basketball-reference.com/players/w/willima07.html" xr:uid="{4D96837A-80EE-7144-A90A-644E1A9808C0}"/>
-    <hyperlink ref="B218" r:id="rId217" display="https://www.basketball-reference.com/players/m/mcgowbr01.html" xr:uid="{5FF09280-8367-ED46-8550-E9432FFCB747}"/>
-    <hyperlink ref="B219" r:id="rId218" display="https://www.basketball-reference.com/players/s/smithni01.html" xr:uid="{E664080F-9536-0F42-B6BB-86AA845B6A79}"/>
-    <hyperlink ref="B220" r:id="rId219" display="https://www.basketball-reference.com/players/b/baileam01.html" xr:uid="{F8FED50E-CC55-2249-BB27-F45E66CCACF4}"/>
-    <hyperlink ref="B221" r:id="rId220" display="https://www.basketball-reference.com/players/m/martico01.html" xr:uid="{0D0C02CB-ED7F-CE45-8F18-B8C42C4EB3AB}"/>
-    <hyperlink ref="B222" r:id="rId221" display="https://www.basketball-reference.com/players/b/blackle01.html" xr:uid="{8B2E63A5-16B6-744B-A746-C0199ACCBF26}"/>
-    <hyperlink ref="B223" r:id="rId222" display="https://www.basketball-reference.com/players/s/smithis01.html" xr:uid="{8CC7C344-01EB-414D-BC21-5B9E1B01B302}"/>
-    <hyperlink ref="B224" r:id="rId223" display="https://www.basketball-reference.com/players/h/haywago01.html" xr:uid="{4432D543-55C4-D54B-BA24-838396FFCB17}"/>
-    <hyperlink ref="B225" r:id="rId224" display="https://www.basketball-reference.com/players/t/thorjt01.html" xr:uid="{E359B23F-4694-3840-8CA9-0551D639533B}"/>
-    <hyperlink ref="B226" r:id="rId225" display="https://www.basketball-reference.com/players/m/millebr02.html" xr:uid="{2F1C7739-4D79-664E-844C-397358C2A334}"/>
-    <hyperlink ref="B227" r:id="rId226" display="https://www.basketball-reference.com/players/w/washipj01.html" xr:uid="{72F47DDD-C14B-B449-881F-0E32A0EA64FB}"/>
-    <hyperlink ref="B228" r:id="rId227" display="https://www.basketball-reference.com/players/m/mensana01.html" xr:uid="{FFD8E7B4-E33A-4041-918F-4F90EB542FAB}"/>
-    <hyperlink ref="B229" r:id="rId228" display="https://www.basketball-reference.com/players/n/ntilila01.html" xr:uid="{E9F59871-AFDA-FA41-8E0C-0D618AC9489D}"/>
-    <hyperlink ref="B230" r:id="rId229" display="https://www.basketball-reference.com/players/c/coulibi01.html" xr:uid="{B4E19883-1F77-C142-99EB-484459CA77E6}"/>
-    <hyperlink ref="B231" r:id="rId230" display="https://www.basketball-reference.com/players/d/davisjo06.html" xr:uid="{D4D5976E-45DF-A64F-B6A5-58475C198F66}"/>
-    <hyperlink ref="B232" r:id="rId231" display="https://www.basketball-reference.com/players/b/butleja02.html" xr:uid="{F759EC78-093D-B840-93B4-EE4E333A82EA}"/>
-    <hyperlink ref="B233" r:id="rId232" display="https://www.basketball-reference.com/players/j/jonesty01.html" xr:uid="{678C6C3C-276C-D742-9CBB-1FD3ADB026CD}"/>
-    <hyperlink ref="B234" r:id="rId233" display="https://www.basketball-reference.com/players/b/baldwpa01.html" xr:uid="{FDB7D355-E084-794B-BC54-2076A6A22EDD}"/>
-    <hyperlink ref="B235" r:id="rId234" display="https://www.basketball-reference.com/players/a/avdijde01.html" xr:uid="{B4FC8228-C454-6D4D-BCD3-1E94053EAE6D}"/>
-    <hyperlink ref="B236" r:id="rId235" display="https://www.basketball-reference.com/players/r/rolliry01.html" xr:uid="{86550950-BF41-2642-B0E9-3D18B0D765E8}"/>
-    <hyperlink ref="B237" r:id="rId236" display="https://www.basketball-reference.com/players/p/poolejo01.html" xr:uid="{780571E1-63EA-C246-B261-B9E78C299CEB}"/>
-    <hyperlink ref="B238" r:id="rId237" display="https://www.basketball-reference.com/players/b/bernaju01.html" xr:uid="{28F09A01-7978-9C49-831D-82AE0AF3A275}"/>
-    <hyperlink ref="B239" r:id="rId238" display="https://www.basketball-reference.com/players/g/gillan01.html" xr:uid="{9BD755E4-99AC-FB49-8296-BA6B6738919B}"/>
-    <hyperlink ref="B240" r:id="rId239" display="https://www.basketball-reference.com/players/s/shamela01.html" xr:uid="{872FE57A-E63B-FF4A-A473-D4CDC7871DE3}"/>
-    <hyperlink ref="B241" r:id="rId240" display="https://www.basketball-reference.com/players/g/gaffoda01.html" xr:uid="{8003F03E-63A3-EB4B-BEA0-8D7AE397EE0F}"/>
-    <hyperlink ref="B242" r:id="rId241" display="https://www.basketball-reference.com/players/k/kispeco01.html" xr:uid="{09A3FB8F-6580-F74B-9256-719452391508}"/>
-    <hyperlink ref="B243" r:id="rId242" display="https://www.basketball-reference.com/players/k/kuzmaky01.html" xr:uid="{09CA77F7-E3AF-0742-A000-A374B970C04C}"/>
-    <hyperlink ref="B244" r:id="rId243" display="https://www.basketball-reference.com/players/m/muscami01.html" xr:uid="{6D4683ED-5982-D740-9E91-51C0D63A2EF2}"/>
-    <hyperlink ref="B245" r:id="rId244" display="https://www.basketball-reference.com/players/w/wrighde01.html" xr:uid="{15398C98-4D06-004A-B254-B7F4CC557ADA}"/>
-    <hyperlink ref="B246" r:id="rId245" display="https://www.basketball-reference.com/players/g/gallida01.html" xr:uid="{C0F41D3A-597C-8F4D-9043-A07F0D469AFD}"/>
-    <hyperlink ref="B247" r:id="rId246" display="https://www.basketball-reference.com/players/o/omorueu01.html" xr:uid="{B7F7B982-BB30-114D-8FD0-897A038A4169}"/>
-    <hyperlink ref="B248" r:id="rId247" display="https://www.basketball-reference.com/players/d/durenja01.html" xr:uid="{6C14CDC7-EA05-6342-BC4E-93630D1532C6}"/>
-    <hyperlink ref="B249" r:id="rId248" display="https://www.basketball-reference.com/players/c/cunnica01.html" xr:uid="{16096E2E-562B-B94F-9E72-7046AD1379E1}"/>
-    <hyperlink ref="B250" r:id="rId249" display="https://www.basketball-reference.com/players/h/hayeski01.html" xr:uid="{356AE580-F1F9-B145-B5A8-BD4C078DA05F}"/>
-    <hyperlink ref="B251" r:id="rId250" display="https://www.basketball-reference.com/players/r/rhodeja01.html" xr:uid="{F6F6BCAA-35D9-7847-A46F-54A38FD32325}"/>
-    <hyperlink ref="B252" r:id="rId251" display="https://www.basketball-reference.com/players/t/thompau01.html" xr:uid="{D82E0955-A528-374A-991E-CDF2B545552B}"/>
-    <hyperlink ref="B253" r:id="rId252" display="https://www.basketball-reference.com/players/l/liveris01.html" xr:uid="{1424EDF3-3460-6349-BADB-E7AC4B63CB14}"/>
-    <hyperlink ref="B254" r:id="rId253" display="https://www.basketball-reference.com/players/w/wisemja01.html" xr:uid="{EE7154CD-8921-FB4C-BD64-9650FAF2A0B9}"/>
-    <hyperlink ref="B255" r:id="rId254" display="https://www.basketball-reference.com/players/b/burksal01.html" xr:uid="{C3F73127-9378-844E-99C9-B28CE1311287}"/>
-    <hyperlink ref="B256" r:id="rId255" display="https://www.basketball-reference.com/players/u/umudest01.html" xr:uid="{B0600B2C-855F-6145-A1B2-D9C47134B9F2}"/>
-    <hyperlink ref="B257" r:id="rId256" display="https://www.basketball-reference.com/players/c/cazalma01.html" xr:uid="{CF5BB7D0-D66A-6C47-AAE8-27F50E2F18F1}"/>
-    <hyperlink ref="B258" r:id="rId257" display="https://www.basketball-reference.com/players/i/iveyja01.html" xr:uid="{2FA752F5-61DF-474B-9C4C-53620263A3F1}"/>
-    <hyperlink ref="B259" r:id="rId258" display="https://www.basketball-reference.com/players/k/knoxke01.html" xr:uid="{48997A77-8AB7-1E42-B217-699C00B3F362}"/>
-    <hyperlink ref="B260" r:id="rId259" display="https://www.basketball-reference.com/players/s/sassema01.html" xr:uid="{92F82576-0075-0148-882C-02BE530BD936}"/>
-    <hyperlink ref="B261" r:id="rId260" display="https://www.basketball-reference.com/players/s/stewais01.html" xr:uid="{79133429-A69A-7F45-9D79-2C1BFFAE990F}"/>
-    <hyperlink ref="B262" r:id="rId261" display="https://www.basketball-reference.com/players/h/harrijo01.html" xr:uid="{67242126-362D-8045-B106-BB0256430F2D}"/>
-    <hyperlink ref="B263" r:id="rId262" display="https://www.basketball-reference.com/players/b/baglema01.html" xr:uid="{42FBC905-ECAF-F641-B6C8-7D0CA576D786}"/>
-    <hyperlink ref="B264" r:id="rId263" display="https://www.basketball-reference.com/players/b/bogdabo02.html" xr:uid="{679C42C5-76CB-4249-9B76-15B86B89E690}"/>
-    <hyperlink ref="B265" r:id="rId264" display="https://www.basketball-reference.com/players/m/morrimo01.html" xr:uid="{2B2ADF88-3400-594A-BA19-4BB559C34806}"/>
-    <hyperlink ref="B266" r:id="rId265" display="https://www.basketball-reference.com/players/a/anderky01.html" xr:uid="{12DF0939-7461-1D44-8C5D-4DD1F9D4D386}"/>
-    <hyperlink ref="B267" r:id="rId266" display="https://www.basketball-reference.com/players/m/mcdanja02.html" xr:uid="{9761E6DF-8D3E-7249-A879-FB191756AA18}"/>
-    <hyperlink ref="B268" r:id="rId267" display="https://www.basketball-reference.com/players/e/edwaran01.html" xr:uid="{E7457272-CB91-C743-93EE-5CE31419E25A}"/>
-    <hyperlink ref="B269" r:id="rId268" display="https://www.basketball-reference.com/players/m/mclaujo01.html" xr:uid="{FAE9787A-F78E-7344-82C0-12CF70B67A3E}"/>
-    <hyperlink ref="B270" r:id="rId269" display="https://www.basketball-reference.com/players/m/moorewe01.html" xr:uid="{865F92C9-6890-6D40-AA88-31E006DBC1C2}"/>
-    <hyperlink ref="B271" r:id="rId270" display="https://www.basketball-reference.com/players/m/minotjo01.html" xr:uid="{AEE52057-7587-D04D-BD6A-8B1BDA62327F}"/>
-    <hyperlink ref="B272" r:id="rId271" display="https://www.basketball-reference.com/players/a/alexani01.html" xr:uid="{E5160B32-A85C-D746-BCE9-DC479BC0FB71}"/>
-    <hyperlink ref="B273" r:id="rId272" display="https://www.basketball-reference.com/players/c/conlemi01.html" xr:uid="{53BA27FF-0C68-684F-A507-ED67DFFEAAB5}"/>
-    <hyperlink ref="B274" r:id="rId273" display="https://www.basketball-reference.com/players/r/reidna01.html" xr:uid="{7CA5AFF5-F0CF-A648-9BCC-421A45A7E149}"/>
-    <hyperlink ref="B275" r:id="rId274" display="https://www.basketball-reference.com/players/n/nixda01.html" xr:uid="{E8589DEE-DEAA-F546-A42B-5FFBAFE9C4D1}"/>
-    <hyperlink ref="B276" r:id="rId275" display="https://www.basketball-reference.com/players/m/miltosh01.html" xr:uid="{BAB17D68-D22D-2D49-A0A7-31E9BCF7CADA}"/>
-    <hyperlink ref="B277" r:id="rId276" display="https://www.basketball-reference.com/players/b/browntr01.html" xr:uid="{4261AD98-8E81-EF44-88E6-01565C0F9940}"/>
-    <hyperlink ref="B278" r:id="rId277" display="https://www.basketball-reference.com/players/g/goberru01.html" xr:uid="{267DDBE6-5638-114B-9307-649BA35D64BA}"/>
-    <hyperlink ref="B279" r:id="rId278" display="https://www.basketball-reference.com/players/t/townska01.html" xr:uid="{56019986-E34F-F042-8439-1150AA72C7DA}"/>
-    <hyperlink ref="B280" r:id="rId279" display="https://www.basketball-reference.com/players/m/millele01.html" xr:uid="{DC4AD8FE-3FC9-D247-A409-1B0A20CA5C2B}"/>
-    <hyperlink ref="B281" r:id="rId280" display="https://www.basketball-reference.com/players/g/garzalu01.html" xr:uid="{3D7EAADD-6E6A-3C41-94D8-56629C46D5A0}"/>
-    <hyperlink ref="B282" r:id="rId281" display="https://www.basketball-reference.com/players/c/clarkja02.html" xr:uid="{A29D100D-6E8F-1F49-83B8-C97D48152FAB}"/>
-    <hyperlink ref="B283" r:id="rId282" display="https://www.basketball-reference.com/players/g/gilgesh01.html" xr:uid="{46405A8C-9C7B-CA44-8D0C-148E882FCD0C}"/>
-    <hyperlink ref="B284" r:id="rId283" display="https://www.basketball-reference.com/players/g/giddejo01.html" xr:uid="{BC6DC057-B6A9-F440-941A-A6C534E49770}"/>
-    <hyperlink ref="B285" r:id="rId284" display="https://www.basketball-reference.com/players/d/dortlu01.html" xr:uid="{38E23F8E-DC19-EB48-8502-D6D3ACC42CC1}"/>
-    <hyperlink ref="B286" r:id="rId285" display="https://www.basketball-reference.com/players/w/willija07.html" xr:uid="{E3351A2E-A4AF-0D4A-82E3-3B75DAC4B062}"/>
-    <hyperlink ref="B287" r:id="rId286" display="https://www.basketball-reference.com/players/h/holmgch01.html" xr:uid="{C4137D4D-1795-2440-8E13-E3345897AEC1}"/>
-    <hyperlink ref="B288" r:id="rId287" display="https://www.basketball-reference.com/players/w/willija06.html" xr:uid="{58C14AC7-978A-C04B-BEDD-C933C1C0FC79}"/>
-    <hyperlink ref="B289" r:id="rId288" display="https://www.basketball-reference.com/players/b/bertada01.html" xr:uid="{2636A36E-8841-ED46-8FF2-F09227074FE6}"/>
-    <hyperlink ref="B290" r:id="rId289" display="https://www.basketball-reference.com/players/j/joeis01.html" xr:uid="{01D2FB87-7FB9-9E43-8DCE-7EA49871DED0}"/>
-    <hyperlink ref="B291" r:id="rId290" display="https://www.basketball-reference.com/players/w/waterli01.html" xr:uid="{140765CE-32D8-8D41-B41E-5DF8FF0CC81E}"/>
-    <hyperlink ref="B292" r:id="rId291" display="https://www.basketball-reference.com/players/d/diengou01.html" xr:uid="{CA5EAAD4-2577-D343-AD80-AF0E8973D15E}"/>
-    <hyperlink ref="B293" r:id="rId292" display="https://www.basketball-reference.com/players/p/pokusal01.html" xr:uid="{CA93C246-4E4F-4A46-8E8A-149FD07287BA}"/>
-    <hyperlink ref="B294" r:id="rId293" display="https://www.basketball-reference.com/players/j/johnske08.html" xr:uid="{6D4C1601-F7CC-A547-800A-9DA550A44DC8}"/>
-    <hyperlink ref="B295" r:id="rId294" display="https://www.basketball-reference.com/players/w/wiggiaa01.html" xr:uid="{8CDAE1A2-BF07-6E40-B284-653A3406623C}"/>
-    <hyperlink ref="B296" r:id="rId295" display="https://www.basketball-reference.com/players/w/wallaca01.html" xr:uid="{18251AF2-A756-C240-AB4B-83A2A0CD14BC}"/>
-    <hyperlink ref="B297" r:id="rId296" display="https://www.basketball-reference.com/players/m/manntr01.html" xr:uid="{2474BB31-1377-B94A-A9F5-DEA601F4E5AD}"/>
-    <hyperlink ref="B298" r:id="rId297" display="https://www.basketball-reference.com/players/m/micicva01.html" xr:uid="{876EE126-B333-DB4B-9C4C-77D66B117E47}"/>
-    <hyperlink ref="B299" r:id="rId298" display="https://www.basketball-reference.com/players/s/sarrol01.html" xr:uid="{04910341-A28D-194F-A0F9-7EA45A6624C3}"/>
-    <hyperlink ref="B300" r:id="rId299" display="https://www.basketball-reference.com/players/w/willike04.html" xr:uid="{08F7BC69-0226-EB4D-B9DC-C559ECA98F79}"/>
-    <hyperlink ref="B301" r:id="rId300" display="https://www.basketball-reference.com/players/b/braunch01.html" xr:uid="{488CB5EB-443B-2E4B-BF10-D6F4882ED2F2}"/>
-    <hyperlink ref="B302" r:id="rId301" display="https://www.basketball-reference.com/players/p/portemi01.html" xr:uid="{AA87FA9D-230E-8B42-971B-790C1FAE093E}"/>
-    <hyperlink ref="B303" r:id="rId302" display="https://www.basketball-reference.com/players/s/strawju01.html" xr:uid="{CBD39508-B77E-F541-9E1C-A670C920BCB3}"/>
-    <hyperlink ref="B304" r:id="rId303" display="https://www.basketball-reference.com/players/t/tysonhu01.html" xr:uid="{34FAE67D-6A80-1C47-A840-8901498628ED}"/>
-    <hyperlink ref="B305" r:id="rId304" display="https://www.basketball-reference.com/players/c/caldwke01.html" xr:uid="{A3610724-F9B9-2646-B8F3-FEF362923801}"/>
-    <hyperlink ref="B306" r:id="rId305" display="https://www.basketball-reference.com/players/j/jordade01.html" xr:uid="{59E599AA-119E-5F4D-B989-2DDB7CA3C8D6}"/>
-    <hyperlink ref="B307" r:id="rId306" display="https://www.basketball-reference.com/players/j/jacksre01.html" xr:uid="{8BDD85D9-E1E9-2E43-848B-C4E4355205FA}"/>
-    <hyperlink ref="B308" r:id="rId307" display="https://www.basketball-reference.com/players/w/watsope01.html" xr:uid="{D1D97A86-2D4B-944B-9B29-907A90842F50}"/>
-    <hyperlink ref="B309" r:id="rId308" display="https://www.basketball-reference.com/players/h/holidju01.html" xr:uid="{A788735B-5C0B-AE42-A47E-E922E696E9EA}"/>
-    <hyperlink ref="B310" r:id="rId309" display="https://www.basketball-reference.com/players/k/keybr01.html" xr:uid="{B27204D7-3F8F-B14F-93A8-392B773BAB3A}"/>
-    <hyperlink ref="B311" r:id="rId310" display="https://www.basketball-reference.com/players/j/jokicni01.html" xr:uid="{4395F3BD-892E-974A-A8EC-7AF04460502D}"/>
-    <hyperlink ref="B312" r:id="rId311" display="https://www.basketball-reference.com/players/g/gilleco01.html" xr:uid="{B7A583DB-319C-CB43-B22C-D7F9C88C2541}"/>
-    <hyperlink ref="B313" r:id="rId312" display="https://www.basketball-reference.com/players/n/nnajize01.html" xr:uid="{3ED70929-51C2-6142-B462-CCEF1DC6F74F}"/>
-    <hyperlink ref="B314" r:id="rId313" display="https://www.basketball-reference.com/players/p/pickeja02.html" xr:uid="{CF4C9D57-5CF5-9E44-B760-4900EBAFEDB5}"/>
-    <hyperlink ref="B315" r:id="rId314" display="https://www.basketball-reference.com/players/m/murraja01.html" xr:uid="{44706662-02E1-554E-B105-C8E704831EA8}"/>
-    <hyperlink ref="B316" r:id="rId315" display="https://www.basketball-reference.com/players/h/huffja01.html" xr:uid="{73790CB9-D642-FC4E-BF7F-4E5EDFA31581}"/>
-    <hyperlink ref="B317" r:id="rId316" display="https://www.basketball-reference.com/players/g/gordoaa01.html" xr:uid="{88A14E17-814D-D340-87BF-6BCA120978DE}"/>
-    <hyperlink ref="B318" r:id="rId317" display="https://www.basketball-reference.com/players/c/cancavl01.html" xr:uid="{9F3C764F-3EAD-FE45-8314-EC50E1783598}"/>
-    <hyperlink ref="B319" r:id="rId318" display="https://www.basketball-reference.com/players/w/westbru01.html" xr:uid="{3890D7F1-7CD9-E544-8033-56E68938560B}"/>
-    <hyperlink ref="B320" r:id="rId319" display="https://www.basketball-reference.com/players/h/hardeja01.html" xr:uid="{CA3360A8-9B67-DB4B-ACC7-5D783BD5A0FD}"/>
-    <hyperlink ref="B321" r:id="rId320" display="https://www.basketball-reference.com/players/l/leonaka01.html" xr:uid="{40F28843-9016-7149-8156-1DCBE1CD1928}"/>
-    <hyperlink ref="B322" r:id="rId321" display="https://www.basketball-reference.com/players/b/bostobr01.html" xr:uid="{862C329B-BE40-9F4F-BDBD-0964A29F5D99}"/>
-    <hyperlink ref="B323" r:id="rId322" display="https://www.basketball-reference.com/players/h/hylanbo01.html" xr:uid="{FF618294-13AD-F248-9652-A6EAE1043F48}"/>
-    <hyperlink ref="B324" r:id="rId323" display="https://www.basketball-reference.com/players/c/coffeam01.html" xr:uid="{6D37B3E1-D320-9946-A879-1816E73A829C}"/>
-    <hyperlink ref="B325" r:id="rId324" display="https://www.basketball-reference.com/players/t/theisda01.html" xr:uid="{D9FB0A3E-88A9-B146-962F-A0246A123A31}"/>
-    <hyperlink ref="B326" r:id="rId325" display="https://www.basketball-reference.com/players/m/millejo02.html" xr:uid="{CC2283A3-4D99-E04C-A5E2-7D1D14D65B7F}"/>
-    <hyperlink ref="B327" r:id="rId326" display="https://www.basketball-reference.com/players/p/primojo01.html" xr:uid="{5D240DD3-E952-1845-A1B6-E9D465460F28}"/>
-    <hyperlink ref="B328" r:id="rId327" display="https://www.basketball-reference.com/players/g/georgpa01.html" xr:uid="{B11B4B7D-CEFA-D94E-8DB0-9D18EF4EC5A7}"/>
-    <hyperlink ref="B329" r:id="rId328" display="https://www.basketball-reference.com/players/m/mannte01.html" xr:uid="{16467EBE-74AB-FB45-BEE3-CF83D711B8BE}"/>
-    <hyperlink ref="B330" r:id="rId329" display="https://www.basketball-reference.com/players/t/tuckepj01.html" xr:uid="{E8544872-00C3-A545-B2DA-1C738AB911B4}"/>
-    <hyperlink ref="B331" r:id="rId330" display="https://www.basketball-reference.com/players/b/brownko01.html" xr:uid="{D2C4ABE9-7F74-B345-8566-3DDD9C327990}"/>
-    <hyperlink ref="B332" r:id="rId331" display="https://www.basketball-reference.com/players/m/moonxa01.html" xr:uid="{17CE7FF0-23D8-2549-8E70-02E0015BC7F2}"/>
-    <hyperlink ref="B333" r:id="rId332" display="https://www.basketball-reference.com/players/p/powelno01.html" xr:uid="{6150A969-0828-E545-8498-72113CEF63F3}"/>
-    <hyperlink ref="B334" r:id="rId333" display="https://www.basketball-reference.com/players/d/diabamo01.html" xr:uid="{F0717BAE-B5FF-3143-A5AD-656C6D549418}"/>
-    <hyperlink ref="B335" r:id="rId334" display="https://www.basketball-reference.com/players/z/zubaciv01.html" xr:uid="{3D6FD635-956D-C64E-AA55-7579C98B9DC3}"/>
-    <hyperlink ref="B336" r:id="rId335" display="https://www.basketball-reference.com/players/p/plumlma01.html" xr:uid="{5CC29596-24E5-2544-A66D-D53138DB925D}"/>
-    <hyperlink ref="B337" r:id="rId336" display="https://www.basketball-reference.com/players/m/mcgeeja01.html" xr:uid="{6B8BC6D1-3584-6E4F-88AE-FF2978277B18}"/>
-    <hyperlink ref="B338" r:id="rId337" display="https://www.basketball-reference.com/players/m/monkma01.html" xr:uid="{2D2C4C55-2A0C-5A4C-B818-B50897C47973}"/>
-    <hyperlink ref="B339" r:id="rId338" display="https://www.basketball-reference.com/players/d/duartch01.html" xr:uid="{80B7F408-6F16-7443-9F93-2929D4EF3745}"/>
-    <hyperlink ref="B340" r:id="rId339" display="https://www.basketball-reference.com/players/f/foxde01.html" xr:uid="{094735A7-891F-5B48-808E-799A9CF6B67A}"/>
-    <hyperlink ref="B341" r:id="rId340" display="https://www.basketball-reference.com/players/v/vezenal01.html" xr:uid="{9A167FD1-0184-904E-8B75-7B0909A35B10}"/>
-    <hyperlink ref="B342" r:id="rId341" display="https://www.basketball-reference.com/players/h/huertke01.html" xr:uid="{2C895517-EF73-DC4E-B227-DF9ED50AF5B3}"/>
-    <hyperlink ref="B343" r:id="rId342" display="https://www.basketball-reference.com/players/s/sabondo01.html" xr:uid="{C1F35DF8-1B85-1B42-A167-8D9897C0BBC8}"/>
-    <hyperlink ref="B344" r:id="rId343" display="https://www.basketball-reference.com/players/m/murrake02.html" xr:uid="{8281E5C9-DEDB-EF47-8322-2599FF7F04C2}"/>
-    <hyperlink ref="B345" r:id="rId344" display="https://www.basketball-reference.com/players/m/mitchda01.html" xr:uid="{AA1976DF-C7C5-9B41-A5A4-D3BBC38DAC65}"/>
-    <hyperlink ref="B346" r:id="rId345" display="https://www.basketball-reference.com/players/e/edwarke02.html" xr:uid="{4730524D-F97A-4949-863E-05EC41ABAB26}"/>
-    <hyperlink ref="B347" r:id="rId346" display="https://www.basketball-reference.com/players/s/slawsja01.html" xr:uid="{C5D3B865-6414-EF49-918B-FC9BD07947A0}"/>
-    <hyperlink ref="B348" r:id="rId347" display="https://www.basketball-reference.com/players/j/jonesco02.html" xr:uid="{1A723483-FCF2-344D-B35E-1BFFD604A2C4}"/>
-    <hyperlink ref="B349" r:id="rId348" display="https://www.basketball-reference.com/players/e/elliske01.html" xr:uid="{1258995E-0FDB-CB42-95F3-A70BF4B124FB}"/>
-    <hyperlink ref="B350" r:id="rId349" display="https://www.basketball-reference.com/players/l/lenal01.html" xr:uid="{44B40F23-680F-914A-BB12-EF2078AEF700}"/>
-    <hyperlink ref="B351" r:id="rId350" display="https://www.basketball-reference.com/players/f/fordjo01.html" xr:uid="{967ABF04-2DA2-B24E-A5D1-D4ECCB583DD4}"/>
-    <hyperlink ref="B352" r:id="rId351" display="https://www.basketball-reference.com/players/b/barneha02.html" xr:uid="{0C596878-8B95-DF4C-ADD4-CE7382269FDB}"/>
-    <hyperlink ref="B353" r:id="rId352" display="https://www.basketball-reference.com/players/l/lylestr01.html" xr:uid="{8C8C9433-EE3C-DF4F-B77B-581470B4ED81}"/>
-    <hyperlink ref="B354" r:id="rId353" display="https://www.basketball-reference.com/players/t/toscaju01.html" xr:uid="{32DFD41B-0199-AD4B-94EA-D72643BB23FD}"/>
-    <hyperlink ref="B355" r:id="rId354" display="https://www.basketball-reference.com/players/s/seabrde01.html" xr:uid="{7981D987-3FA4-214B-A23E-07B588DD9FF7}"/>
-    <hyperlink ref="B356" r:id="rId355" display="https://www.basketball-reference.com/players/w/willizi01.html" xr:uid="{282960E5-8F82-0C47-825F-A3DB951F6221}"/>
-    <hyperlink ref="B357" r:id="rId356" display="https://www.basketball-reference.com/players/m/mccolcj01.html" xr:uid="{3FDF9994-9CD4-034D-AF71-91118B447F5E}"/>
-    <hyperlink ref="B358" r:id="rId357" display="https://www.basketball-reference.com/players/j/joneshe01.html" xr:uid="{2DC7BC12-0221-D34A-9D32-D2984DD4343E}"/>
-    <hyperlink ref="B359" r:id="rId358" display="https://www.basketball-reference.com/players/m/marshna01.html" xr:uid="{3FC6B842-6B32-BE45-84DA-8366BEC52420}"/>
-    <hyperlink ref="B360" r:id="rId359" display="https://www.basketball-reference.com/players/d/daniedy01.html" xr:uid="{81CF5F3A-5E27-6049-B86C-52F31529A681}"/>
-    <hyperlink ref="B361" r:id="rId360" display="https://www.basketball-reference.com/players/l/lewiski01.html" xr:uid="{838484B3-8807-0140-9937-D96C1649AE07}"/>
-    <hyperlink ref="B362" r:id="rId361" display="https://www.basketball-reference.com/players/i/ingrabr01.html" xr:uid="{D6AA76DC-9A3C-E44B-AD58-28ED55DBF86F}"/>
-    <hyperlink ref="B363" r:id="rId362" display="https://www.basketball-reference.com/players/a/alvarjo01.html" xr:uid="{801914E4-9B59-B14F-9289-4DFB43AEBCB2}"/>
-    <hyperlink ref="B364" r:id="rId363" display="https://www.basketball-reference.com/players/v/valanjo01.html" xr:uid="{0BD7D011-8952-8847-9C4A-30756F61EF3E}"/>
-    <hyperlink ref="B365" r:id="rId364" display="https://www.basketball-reference.com/players/n/nancela02.html" xr:uid="{D2E7A64A-A1CE-6F45-B4A4-4FF747542021}"/>
-    <hyperlink ref="B366" r:id="rId365" display="https://www.basketball-reference.com/players/h/hawkijo01.html" xr:uid="{C7FE26BD-4C87-5042-87B9-F7334D3C05FD}"/>
-    <hyperlink ref="B367" r:id="rId366" display="https://www.basketball-reference.com/players/m/murphtr02.html" xr:uid="{74CA6492-AE30-DF47-80CE-520D21C15084}"/>
-    <hyperlink ref="B368" r:id="rId367" display="https://www.basketball-reference.com/players/l/liddeej01.html" xr:uid="{6A86E9C3-D98F-9846-BCB7-893CF43BA110}"/>
-    <hyperlink ref="B369" r:id="rId368" display="https://www.basketball-reference.com/players/r/ryanma01.html" xr:uid="{E027E0F0-00F9-DF4E-A5D2-C535ED0E977E}"/>
-    <hyperlink ref="B370" r:id="rId369" display="https://www.basketball-reference.com/players/z/zelleco01.html" xr:uid="{9FBC33D9-110B-9E48-ACBD-1C998F0782DE}"/>
-    <hyperlink ref="B371" r:id="rId370" display="https://www.basketball-reference.com/players/r/robinje02.html" xr:uid="{291C2FC8-2F21-1342-823F-5529787EA2EB}"/>
-    <hyperlink ref="B372" r:id="rId371" display="https://www.basketball-reference.com/players/w/willibr03.html" xr:uid="{06996C43-863D-8641-AD75-CCD5E70C2FCC}"/>
-    <hyperlink ref="B373" r:id="rId372" display="https://www.basketball-reference.com/players/e/exumda01.html" xr:uid="{2BF1EBFA-E763-FD49-A9BD-960B7F39380F}"/>
-    <hyperlink ref="B374" r:id="rId373" display="https://www.basketball-reference.com/players/h/hardyja02.html" xr:uid="{B6E014BA-3A6A-6146-80CA-FE6E4672BD5E}"/>
-    <hyperlink ref="B375" r:id="rId374" display="https://www.basketball-reference.com/players/l/livelde01.html" xr:uid="{E2B82659-CE59-0840-9AD9-C17984E8BE0E}"/>
-    <hyperlink ref="B376" r:id="rId375" display="https://www.basketball-reference.com/players/w/willigr01.html" xr:uid="{CC97EF13-7B32-E24E-9444-237574788562}"/>
-    <hyperlink ref="B377" r:id="rId376" display="https://www.basketball-reference.com/players/p/poweldw01.html" xr:uid="{486AE8F2-2795-964E-BE09-735B0C7D816F}"/>
-    <hyperlink ref="B378" r:id="rId377" display="https://www.basketball-reference.com/players/g/greenjo02.html" xr:uid="{798F581A-ED93-214F-906B-B0987D6814D5}"/>
-    <hyperlink ref="B379" r:id="rId378" display="https://www.basketball-reference.com/players/l/lawsoaj01.html" xr:uid="{20499C2E-25B4-D046-BB40-B3DE8CE737E3}"/>
-    <hyperlink ref="B380" r:id="rId379" display="https://www.basketball-reference.com/players/h/hardati02.html" xr:uid="{B7188D51-8CA0-C149-B82B-F359EDA9EA46}"/>
-    <hyperlink ref="B381" r:id="rId380" display="https://www.basketball-reference.com/players/i/irvinky01.html" xr:uid="{4EFA122B-F806-6342-BBAD-B513AD6853EF}"/>
-    <hyperlink ref="B382" r:id="rId381" display="https://www.basketball-reference.com/players/b/browngr01.html" xr:uid="{99E4FC95-9B80-534E-8382-4B73A30D64A8}"/>
-    <hyperlink ref="B383" r:id="rId382" display="https://www.basketball-reference.com/players/p/prospol01.html" xr:uid="{D918D6F3-4010-AB43-AF09-EEDE5758A82C}"/>
-    <hyperlink ref="B384" r:id="rId383" display="https://www.basketball-reference.com/players/h/holmeri01.html" xr:uid="{326DE9D2-9828-EF42-AD30-0C0F459D7D9E}"/>
-    <hyperlink ref="B385" r:id="rId384" display="https://www.basketball-reference.com/players/c/curryse01.html" xr:uid="{45E90B4B-E202-9B42-A9BA-97B09ADFA48F}"/>
-    <hyperlink ref="B386" r:id="rId385" display="https://www.basketball-reference.com/players/k/klebima01.html" xr:uid="{5667FD66-B4EF-CF41-8D56-FE25E3104A38}"/>
-    <hyperlink ref="B387" r:id="rId386" display="https://www.basketball-reference.com/players/j/jonesde02.html" xr:uid="{203AE359-0763-8743-9F99-D6B544311D11}"/>
-    <hyperlink ref="B388" r:id="rId387" display="https://www.basketball-reference.com/players/d/doncilu01.html" xr:uid="{FF6C7619-BCD9-5348-B489-59A2F2A78CB3}"/>
-    <hyperlink ref="B389" r:id="rId388" display="https://www.basketball-reference.com/players/m/morrima02.html" xr:uid="{2443612A-2BEC-DE40-8189-04DC4951CB0D}"/>
-    <hyperlink ref="B390" r:id="rId389" display="https://www.basketball-reference.com/players/g/goodwjo01.html" xr:uid="{B102E378-55EE-6448-B388-89C765D19D22}"/>
-    <hyperlink ref="B391" r:id="rId390" display="https://www.basketball-reference.com/players/b/bookede01.html" xr:uid="{05369651-3D48-4644-87EC-F8A89D3025FD}"/>
-    <hyperlink ref="B392" r:id="rId391" display="https://www.basketball-reference.com/players/o/okogijo01.html" xr:uid="{E3E5820C-3102-014A-97BF-412E0D33F895}"/>
-    <hyperlink ref="B393" r:id="rId392" display="https://www.basketball-reference.com/players/b/bealbr01.html" xr:uid="{0D65A286-B4E4-524E-A132-AE6C7CB12188}"/>
-    <hyperlink ref="B394" r:id="rId393" display="https://www.basketball-reference.com/players/m/metuch01.html" xr:uid="{85B08D2C-31AF-2E42-9EBD-7D6473821C74}"/>
-    <hyperlink ref="B395" r:id="rId394" display="https://www.basketball-reference.com/players/a/allengr01.html" xr:uid="{EBCE378D-3F82-014B-AB94-2AB6A04D923F}"/>
-    <hyperlink ref="B396" r:id="rId395" display="https://www.basketball-reference.com/players/b/bolbo01.html" xr:uid="{8F9F4CB8-6954-2442-B9CF-66100213389D}"/>
-    <hyperlink ref="B397" r:id="rId396" display="https://www.basketball-reference.com/players/e/eubandr01.html" xr:uid="{3AA4C8BF-9FF2-7644-8D27-CDD7320328FF}"/>
-    <hyperlink ref="B398" r:id="rId397" display="https://www.basketball-reference.com/players/w/watanyu01.html" xr:uid="{A9FAF010-DC9F-6C4C-B607-C6BAA3B9B439}"/>
-    <hyperlink ref="B399" r:id="rId398" display="https://www.basketball-reference.com/players/n/nurkiju01.html" xr:uid="{61752D65-DFF8-3045-808B-902FF7413890}"/>
-    <hyperlink ref="B400" r:id="rId399" display="https://www.basketball-reference.com/players/b/bateske01.html" xr:uid="{289AE404-892F-C943-847E-26F1D50F2D4E}"/>
-    <hyperlink ref="B401" r:id="rId400" display="https://www.basketball-reference.com/players/g/gordoer01.html" xr:uid="{0D7B5711-BAFA-A343-883F-E9D6673E48A6}"/>
-    <hyperlink ref="B402" r:id="rId401" display="https://www.basketball-reference.com/players/l/littlna01.html" xr:uid="{C95C5874-5D94-4549-9BEE-602CA80A2C8E}"/>
-    <hyperlink ref="B403" r:id="rId402" display="https://www.basketball-reference.com/players/a/azubuud01.html" xr:uid="{5F7A42C9-8C5E-974D-A807-D3AB0F99A31C}"/>
-    <hyperlink ref="B404" r:id="rId403" display="https://www.basketball-reference.com/players/d/duranke01.html" xr:uid="{0FA9B64E-F105-2A4B-AC19-93EEA131C365}"/>
-    <hyperlink ref="B405" r:id="rId404" display="https://www.basketball-reference.com/players/l/leesa01.html" xr:uid="{80C058B8-BEFE-7348-A9AE-EEAC33684EEF}"/>
-    <hyperlink ref="B406" r:id="rId405" display="https://www.basketball-reference.com/players/m/maledth01.html" xr:uid="{AD0BC07F-1BA9-7C4D-98C1-96820274F5DF}"/>
-    <hyperlink ref="B407" r:id="rId406" display="https://www.basketball-reference.com/players/l/leeda03.html" xr:uid="{896B570F-15A2-0542-B5CC-5D14CD08B3D2}"/>
-    <hyperlink ref="B408" r:id="rId407" display="https://www.basketball-reference.com/players/s/samueje01.html" xr:uid="{D963BE53-AA42-4146-BB16-237C6BE651FF}"/>
-    <hyperlink ref="B409" r:id="rId408" display="https://www.basketball-reference.com/players/h/holidaa01.html" xr:uid="{6E21C09B-65BA-574A-A4D4-BEC1C82BF8D0}"/>
-    <hyperlink ref="B410" r:id="rId409" display="https://www.basketball-reference.com/players/t/thompam01.html" xr:uid="{2E5BC22A-7BCD-9843-94F4-9DDB94BA2219}"/>
-    <hyperlink ref="B411" r:id="rId410" display="https://www.basketball-reference.com/players/l/landajo01.html" xr:uid="{28032FC1-5521-E846-BF7C-887A8C2FC144}"/>
-    <hyperlink ref="B412" r:id="rId411" display="https://www.basketball-reference.com/players/g/greenja05.html" xr:uid="{D749298C-70D5-064E-9DA9-58AD1334B982}"/>
-    <hyperlink ref="B413" r:id="rId412" display="https://www.basketball-reference.com/players/v/vanvlfr01.html" xr:uid="{3B2FB805-43B2-5C45-8E62-075CDF534585}"/>
-    <hyperlink ref="B414" r:id="rId413" display="https://www.basketball-reference.com/players/w/whitmca01.html" xr:uid="{03884445-95D7-B247-80F9-308C0D8ADD18}"/>
-    <hyperlink ref="B415" r:id="rId414" display="https://www.basketball-reference.com/players/t/tateja01.html" xr:uid="{9DE533DF-18EA-0949-BBA9-75A3ECF6DD4E}"/>
-    <hyperlink ref="B416" r:id="rId415" display="https://www.basketball-reference.com/players/b/brookdi01.html" xr:uid="{D87C5E6B-5572-F043-9585-50721B47A6A9}"/>
-    <hyperlink ref="B417" r:id="rId416" display="https://www.basketball-reference.com/players/s/smithja05.html" xr:uid="{557FD02A-E675-1E41-BC36-C2B3247C0722}"/>
-    <hyperlink ref="B418" r:id="rId417" display="https://www.basketball-reference.com/players/h/hintona01.html" xr:uid="{4DFCC5CB-A668-FC4D-9D9C-2C2D9310C09B}"/>
-    <hyperlink ref="B419" r:id="rId418" display="https://www.basketball-reference.com/players/e/easonta01.html" xr:uid="{CC465E5D-5C73-564C-8C21-91F5C040CE70}"/>
-    <hyperlink ref="B420" r:id="rId419" display="https://www.basketball-reference.com/players/w/willije02.html" xr:uid="{2306D86E-DA54-D442-8DBF-1A6D90772B7C}"/>
-    <hyperlink ref="B421" r:id="rId420" display="https://www.basketball-reference.com/players/b/bullore01.html" xr:uid="{A0B4B15F-58D7-C34C-8D33-85BC1EDBA3C8}"/>
-    <hyperlink ref="B422" r:id="rId421" display="https://www.basketball-reference.com/players/s/sengual01.html" xr:uid="{C420E07E-CFA6-134E-AE22-B754097C0E55}"/>
-    <hyperlink ref="B423" r:id="rId422" display="https://www.basketball-reference.com/players/g/greenje02.html" xr:uid="{3CFFAE17-6F25-BA45-864E-0E40AB7AB204}"/>
-    <hyperlink ref="B424" r:id="rId423" display="https://www.basketball-reference.com/players/m/marjabo01.html" xr:uid="{4B84D878-5464-414F-93F4-6832319A947E}"/>
-    <hyperlink ref="B425" r:id="rId424" display="https://www.basketball-reference.com/players/o/oladivi01.html" xr:uid="{23F6F90C-AF14-114A-B97B-0123FF928B3B}"/>
-    <hyperlink ref="B426" r:id="rId425" display="https://www.basketball-reference.com/players/h/hoodsja01.html" xr:uid="{E3A9049A-B848-8342-948A-58A42EB10C89}"/>
-    <hyperlink ref="B427" r:id="rId426" display="https://www.basketball-reference.com/players/r/russeda01.html" xr:uid="{F4237E13-E298-F74F-B4C0-786CF871FD59}"/>
-    <hyperlink ref="B428" r:id="rId427" display="https://www.basketball-reference.com/players/v/vandeja01.html" xr:uid="{F24F4EDE-7A91-014E-B851-5E82336EE94F}"/>
-    <hyperlink ref="B429" r:id="rId428" display="https://www.basketball-reference.com/players/d/davisan02.html" xr:uid="{76083081-F658-3648-B76D-4F958E6D4B63}"/>
-    <hyperlink ref="B430" r:id="rId429" display="https://www.basketball-reference.com/players/r/reddica01.html" xr:uid="{6C7A194F-2AAA-2E44-B3E2-A3FDC16400B2}"/>
-    <hyperlink ref="B431" r:id="rId430" display="https://www.basketball-reference.com/players/v/vincega01.html" xr:uid="{BB05C10F-EE23-C24E-B8A1-53DBCF9C57C5}"/>
-    <hyperlink ref="B432" r:id="rId431" display="https://www.basketball-reference.com/players/c/chrisma02.html" xr:uid="{73A788CB-41B1-1246-9168-1AE26B10F6CE}"/>
-    <hyperlink ref="B433" r:id="rId432" display="https://www.basketball-reference.com/players/h/hayesja02.html" xr:uid="{526F6311-1752-684B-A89B-E54F1E40CB78}"/>
-    <hyperlink ref="B434" r:id="rId433" display="https://www.basketball-reference.com/players/p/princta02.html" xr:uid="{FA494F89-AF23-0643-B731-A639464921D0}"/>
-    <hyperlink ref="B435" r:id="rId434" display="https://www.basketball-reference.com/players/c/castlco01.html" xr:uid="{B5569558-BA56-0946-83BD-815C5B8871FB}"/>
-    <hyperlink ref="B436" r:id="rId435" display="https://www.basketball-reference.com/players/r/reaveau01.html" xr:uid="{C62F6C7B-65A1-F044-8843-B6D19540D9FB}"/>
-    <hyperlink ref="B437" r:id="rId436" display="https://www.basketball-reference.com/players/f/fudgeal01.html" xr:uid="{67330754-4B63-824F-B7BA-873DBF067E3E}"/>
-    <hyperlink ref="B438" r:id="rId437" display="https://www.basketball-reference.com/players/l/lewisma05.html" xr:uid="{E78705F3-0D02-A946-882C-94668697475D}"/>
-    <hyperlink ref="B439" r:id="rId438" display="https://www.basketball-reference.com/players/j/jamesle01.html" xr:uid="{8263EE6E-0E3C-3045-9082-7E6FD7B9DB42}"/>
-    <hyperlink ref="B440" r:id="rId439" display="https://www.basketball-reference.com/players/h/hachiru01.html" xr:uid="{12FDAD36-4877-A941-996D-6479407FD6FB}"/>
-    <hyperlink ref="B441" r:id="rId440" display="https://www.basketball-reference.com/players/w/woodch01.html" xr:uid="{BD2CB659-04F7-7945-81BA-D133B7E1EE57}"/>
-    <hyperlink ref="B442" r:id="rId441" display="https://www.basketball-reference.com/players/h/hodgedm01.html" xr:uid="{994AE860-F85E-7440-9C50-C5F3C05FF9BD}"/>
-    <hyperlink ref="B443" r:id="rId442" display="https://www.basketball-reference.com/players/p/paytoga02.html" xr:uid="{BD36A6C7-E5F4-F144-9C9B-CF1390845A0B}"/>
-    <hyperlink ref="B444" r:id="rId443" display="https://www.basketball-reference.com/players/k/kuminjo01.html" xr:uid="{F5340F17-EDFD-8848-91A1-C638494780EC}"/>
-    <hyperlink ref="B445" r:id="rId444" display="https://www.basketball-reference.com/players/j/josepco01.html" xr:uid="{91AF02BC-ADAB-B04F-AE2C-AC6BB3512251}"/>
-    <hyperlink ref="B446" r:id="rId445" display="https://www.basketball-reference.com/players/p/podzibr01.html" xr:uid="{25B51007-2F9C-F74E-B511-7EB87291278D}"/>
-    <hyperlink ref="B447" r:id="rId446" display="https://www.basketball-reference.com/players/p/paulch01.html" xr:uid="{1738A034-1B42-0246-AD6E-97214D8F31C5}"/>
-    <hyperlink ref="B448" r:id="rId447" display="https://www.basketball-reference.com/players/m/moodymo01.html" xr:uid="{4EB08058-35FA-9C47-9BAE-7386447CB17D}"/>
-    <hyperlink ref="B449" r:id="rId448" display="https://www.basketball-reference.com/players/l/looneke01.html" xr:uid="{469DE37E-E18A-8744-B853-C72D577E9E01}"/>
-    <hyperlink ref="B450" r:id="rId449" display="https://www.basketball-reference.com/players/t/thompkl01.html" xr:uid="{D25B739A-156C-0447-A983-C29866E6BFA9}"/>
-    <hyperlink ref="B451" r:id="rId450" display="https://www.basketball-reference.com/players/g/garubus01.html" xr:uid="{20AF9876-B565-C14E-9D68-C5961CA1CF02}"/>
-    <hyperlink ref="B452" r:id="rId451" display="https://www.basketball-reference.com/players/s/santogu01.html" xr:uid="{DFD00BC2-0079-1847-803C-6ACE5B22EC0C}"/>
-    <hyperlink ref="B453" r:id="rId452" display="https://www.basketball-reference.com/players/r/robinje01.html" xr:uid="{4C9EDDD3-7B7A-EB42-A4E2-2C0E38BF3890}"/>
-    <hyperlink ref="B454" r:id="rId453" display="https://www.basketball-reference.com/players/s/saricda01.html" xr:uid="{975AF01A-0641-0B49-B3F5-FA37B5108170}"/>
-    <hyperlink ref="B455" r:id="rId454" display="https://www.basketball-reference.com/players/w/wiggian01.html" xr:uid="{97F8E8E3-D892-A048-9AF6-B0D4B1C42522}"/>
-    <hyperlink ref="B456" r:id="rId455" display="https://www.basketball-reference.com/players/g/greendr01.html" xr:uid="{093E59F0-D2D2-764A-ACC4-A28DC3DC986A}"/>
-    <hyperlink ref="B457" r:id="rId456" display="https://www.basketball-reference.com/players/q/quinole01.html" xr:uid="{F447F873-66DF-E842-9A33-FFB93595C7DF}"/>
-    <hyperlink ref="B458" r:id="rId457" display="https://www.basketball-reference.com/players/c/curryst01.html" xr:uid="{24A69F79-E56B-F044-BACF-EB175855F7E6}"/>
-    <hyperlink ref="B459" r:id="rId458" display="https://www.basketball-reference.com/players/j/jackstr02.html" xr:uid="{62318746-9A5B-EE4F-BC32-80D9B481BF6C}"/>
-    <hyperlink ref="B460" r:id="rId459" display="https://www.basketball-reference.com/players/h/hendrita01.html" xr:uid="{EA8A0BA0-F691-4A4F-8CDF-C842627F3C7B}"/>
-    <hyperlink ref="B461" r:id="rId460" display="https://www.basketball-reference.com/players/c/clarkjo01.html" xr:uid="{B8762A68-F3AB-2A4A-ACA3-7DB74DD044AB}"/>
-    <hyperlink ref="B462" r:id="rId461" display="https://www.basketball-reference.com/players/s/sextoco01.html" xr:uid="{E1304A9E-0017-F142-B72A-6C89C67C5862}"/>
-    <hyperlink ref="B463" r:id="rId462" display="https://www.basketball-reference.com/players/g/georgke01.html" xr:uid="{C9AD1A13-A2A3-5F4A-A329-59F90CA1C3A0}"/>
-    <hyperlink ref="B464" r:id="rId463" display="https://www.basketball-reference.com/players/h/hortota01.html" xr:uid="{B0107521-65FB-BA4E-92C2-A35F9FEEBFA2}"/>
-    <hyperlink ref="B465" r:id="rId464" display="https://www.basketball-reference.com/players/s/sensabr01.html" xr:uid="{7A4CB9DF-C973-C446-9F4E-9B89BF6B8F40}"/>
-    <hyperlink ref="B466" r:id="rId465" display="https://www.basketball-reference.com/players/d/dunnkr01.html" xr:uid="{6A316096-6586-DC49-81C1-9A00B269615A}"/>
-    <hyperlink ref="B467" r:id="rId466" display="https://www.basketball-reference.com/players/f/fontesi01.html" xr:uid="{DA3B3534-4E23-0D45-A450-785462FDB832}"/>
-    <hyperlink ref="B468" r:id="rId467" display="https://www.basketball-reference.com/players/s/samanlu01.html" xr:uid="{78271F68-EB66-FF49-81FA-02286FCB9253}"/>
-    <hyperlink ref="B469" r:id="rId468" display="https://www.basketball-reference.com/players/c/collijo01.html" xr:uid="{856ECF8C-371C-7944-8F68-2731D263FA20}"/>
-    <hyperlink ref="B470" r:id="rId469" display="https://www.basketball-reference.com/players/m/markkla01.html" xr:uid="{E1B35DA3-9F90-2A4B-96A2-EFCC78964029}"/>
-    <hyperlink ref="B471" r:id="rId470" display="https://www.basketball-reference.com/players/k/kesslwa01.html" xr:uid="{CC06344D-7734-5842-A667-BE1D445BE7CB}"/>
-    <hyperlink ref="B472" r:id="rId471" display="https://www.basketball-reference.com/players/p/pottemi01.html" xr:uid="{375FCF15-E533-3F48-AB6D-4CC36689846F}"/>
-    <hyperlink ref="B473" r:id="rId472" display="https://www.basketball-reference.com/players/a/agbajoc01.html" xr:uid="{85380FDF-B6EC-F346-B41A-5C8CD2DE2B21}"/>
-    <hyperlink ref="B474" r:id="rId473" display="https://www.basketball-reference.com/players/j/juzanjo01.html" xr:uid="{9D58FAE2-9E3B-A147-9A6C-FB8AC01E04CC}"/>
-    <hyperlink ref="B475" r:id="rId474" display="https://www.basketball-reference.com/players/o/olynyke01.html" xr:uid="{0FBE4119-F2E0-5D45-8D70-28E9E4B1BB2F}"/>
-    <hyperlink ref="B476" r:id="rId475" display="https://www.basketball-reference.com/players/y/yurtsom01.html" xr:uid="{1EFE384F-E205-1343-A4F8-5FAB47987DB6}"/>
-    <hyperlink ref="B477" r:id="rId476" display="https://www.basketball-reference.com/players/c/chrisjo01.html" xr:uid="{C202A134-FBEB-9A4B-B0DB-D7D1529B296F}"/>
-    <hyperlink ref="B478" r:id="rId477" display="https://www.basketball-reference.com/players/g/gilyaja01.html" xr:uid="{7DAEA47C-3E0C-BA4F-9A83-CAC8E91C037E}"/>
-    <hyperlink ref="B479" r:id="rId478" display="https://www.basketball-reference.com/players/t/tillmxa01.html" xr:uid="{A013A145-2751-6142-836A-CB1312F7D82E}"/>
-    <hyperlink ref="B480" r:id="rId479" display="https://www.basketball-reference.com/players/l/laravja01.html" xr:uid="{BD7635A6-CA0F-424B-A4D4-7EC77D98B16D}"/>
-    <hyperlink ref="B481" r:id="rId480" display="https://www.basketball-reference.com/players/w/willivi01.html" xr:uid="{A708B53A-0566-4E4C-A9EA-433C0D0CBAB3}"/>
-    <hyperlink ref="B482" r:id="rId481" display="https://www.basketball-reference.com/players/a/aldamsa01.html" xr:uid="{19FD10DE-885E-3A49-AAF0-323E2957B60A}"/>
-    <hyperlink ref="B483" r:id="rId482" display="https://www.basketball-reference.com/players/w/willizi02.html" xr:uid="{AE5833F6-ABDC-164D-A2ED-15FCD180A859}"/>
-    <hyperlink ref="B484" r:id="rId483" display="https://www.basketball-reference.com/players/k/kennalu01.html" xr:uid="{4022F6B2-E26E-5147-8BFD-56E49C1F47D8}"/>
-    <hyperlink ref="B485" r:id="rId484" display="https://www.basketball-reference.com/players/m/moranja01.html" xr:uid="{7EAF25F8-F5AF-BE4F-AD63-7AD8DE52727A}"/>
-    <hyperlink ref="B486" r:id="rId485" display="https://www.basketball-reference.com/players/j/jacksja02.html" xr:uid="{70C390EA-BA18-EE44-95F6-43C5F71922BC}"/>
-    <hyperlink ref="B487" r:id="rId486" display="https://www.basketball-reference.com/players/b/biyombi01.html" xr:uid="{6C9C407D-90CE-F642-AEC2-4D99FF421F8C}"/>
-    <hyperlink ref="B488" r:id="rId487" display="https://www.basketball-reference.com/players/r/roddyda01.html" xr:uid="{56273A7B-7478-274F-94B0-5465637ADA46}"/>
-    <hyperlink ref="B489" r:id="rId488" display="https://www.basketball-reference.com/players/b/banede01.html" xr:uid="{55ABE00B-2B1D-2E45-A878-B336EDFA5CA5}"/>
-    <hyperlink ref="B490" r:id="rId489" display="https://www.basketball-reference.com/players/r/rosede01.html" xr:uid="{2CCCD126-1950-394D-8053-7A39DF4C98D2}"/>
-    <hyperlink ref="B491" r:id="rId490" display="https://www.basketball-reference.com/players/s/smartma01.html" xr:uid="{23484CFE-E4E9-4E4A-B630-E5ED6750D11D}"/>
-    <hyperlink ref="B492" r:id="rId491" display="https://www.basketball-reference.com/players/j/jacksgg01.html" xr:uid="{8D3A48B5-019F-8246-AAB9-C4CEE27B6D01}"/>
-    <hyperlink ref="B493" r:id="rId492" display="https://www.basketball-reference.com/players/k/konchjo01.html" xr:uid="{B108195E-DC56-A54C-94CC-14D804277391}"/>
-    <hyperlink ref="B494" r:id="rId493" display="https://www.basketball-reference.com/players/c/clarkbr01.html" xr:uid="{97A673DF-F6DE-F94D-A5C7-C2B74918D410}"/>
-    <hyperlink ref="B495" r:id="rId494" display="https://www.basketball-reference.com/players/a/adamsst01.html" xr:uid="{D99D84F0-39C9-A14E-BA82-4161D5F5B5FC}"/>
-    <hyperlink ref="B496" r:id="rId495" display="https://www.basketball-reference.com/players/h/hendesc01.html" xr:uid="{C23481D7-4CB1-3F45-B967-6212F0F491B0}"/>
-    <hyperlink ref="B497" r:id="rId496" display="https://www.basketball-reference.com/players/s/simonan01.html" xr:uid="{7B64274A-0D90-1941-91FA-9588EF893197}"/>
-    <hyperlink ref="B498" r:id="rId497" display="https://www.basketball-reference.com/players/a/aytonde01.html" xr:uid="{188A125E-CF38-4D4B-9877-83C5571F35E8}"/>
-    <hyperlink ref="B499" r:id="rId498" display="https://www.basketball-reference.com/players/t/thybuma01.html" xr:uid="{6B2EBB2D-C83A-FD41-AF12-78474BCA23B6}"/>
-    <hyperlink ref="B500" r:id="rId499" display="https://www.basketball-reference.com/players/m/mayssk01.html" xr:uid="{99A6A772-5D15-3849-B90B-B0DB5314AEAC}"/>
-    <hyperlink ref="B501" r:id="rId500" display="https://www.basketball-reference.com/players/m/murrakr01.html" xr:uid="{A2D519B9-4684-0947-831F-EE1D2ED6DC9F}"/>
-    <hyperlink ref="B502" r:id="rId501" display="https://www.basketball-reference.com/players/g/grantje01.html" xr:uid="{1A5080D1-5EF4-4C47-8F9D-554C3D2C7990}"/>
-    <hyperlink ref="B503" r:id="rId502" display="https://www.basketball-reference.com/players/b/brownmo01.html" xr:uid="{CD378EF7-B1D9-4D4A-99C7-46B5650AA37C}"/>
-    <hyperlink ref="B504" r:id="rId503" display="https://www.basketball-reference.com/players/b/brogdma01.html" xr:uid="{C540EED3-A93F-6048-A86F-3EC742AF771E}"/>
-    <hyperlink ref="B505" r:id="rId504" display="https://www.basketball-reference.com/players/s/sharpsh01.html" xr:uid="{6D11263A-574F-784D-8418-771EB93F92A9}"/>
-    <hyperlink ref="B506" r:id="rId505" display="https://www.basketball-reference.com/players/w/wainris01.html" xr:uid="{95170D3C-40E1-284A-99B4-FD9F6FD434D7}"/>
-    <hyperlink ref="B507" r:id="rId506" display="https://www.basketball-reference.com/players/m/minayju01.html" xr:uid="{98BFDF16-D81B-4646-8CA9-4C4C7E49ABFF}"/>
-    <hyperlink ref="B508" r:id="rId507" display="https://www.basketball-reference.com/players/r/reathdu01.html" xr:uid="{4DBC1E6C-EF25-B14E-915C-0EE0E1D72A45}"/>
-    <hyperlink ref="B509" r:id="rId508" display="https://www.basketball-reference.com/players/c/camarto01.html" xr:uid="{582B8911-4011-0741-88EC-68BAE6AB8DB2}"/>
-    <hyperlink ref="B510" r:id="rId509" display="https://www.basketball-reference.com/players/w/walkeja01.html" xr:uid="{5898C87E-9DEA-5348-B998-E5B55B3EE654}"/>
-    <hyperlink ref="B511" r:id="rId510" display="https://www.basketball-reference.com/players/w/williro04.html" xr:uid="{8EE431CD-3853-FC4E-8E84-A4D2D05491A3}"/>
-    <hyperlink ref="B512" r:id="rId511" display="https://www.basketball-reference.com/players/b/badjiib01.html" xr:uid="{B5C4C6E7-46AB-2B40-A42E-2B80D9D0A360}"/>
-    <hyperlink ref="B513" r:id="rId512" display="https://www.basketball-reference.com/players/r/ruperra01.html" xr:uid="{01CC9265-441D-F24C-9C73-21C4B8622B91}"/>
-    <hyperlink ref="B514" r:id="rId513" display="https://www.basketball-reference.com/players/w/wembavi01.html" xr:uid="{B04F4C76-10E0-2440-812D-1E5D9EA013D3}"/>
-    <hyperlink ref="B515" r:id="rId514" display="https://www.basketball-reference.com/players/j/johnske04.html" xr:uid="{F609783C-9C36-524B-B37B-CC2C0263E09B}"/>
-    <hyperlink ref="B516" r:id="rId515" display="https://www.basketball-reference.com/players/g/grahade01.html" xr:uid="{80ADE228-C1DC-2246-A152-3BC0CB424233}"/>
-    <hyperlink ref="B517" r:id="rId516" display="https://www.basketball-reference.com/players/s/sochaje01.html" xr:uid="{108F0C40-65E7-814D-B511-41161B2824D2}"/>
-    <hyperlink ref="B518" r:id="rId517" display="https://www.basketball-reference.com/players/w/weslebl01.html" xr:uid="{3256EBCE-A0A8-EA42-825A-6EFA64B0138E}"/>
-    <hyperlink ref="B519" r:id="rId518" display="https://www.basketball-reference.com/players/o/osmande01.html" xr:uid="{19A61C9A-CDE3-DC4D-96C8-B799353EA7F7}"/>
-    <hyperlink ref="B520" r:id="rId519" display="https://www.basketball-reference.com/players/m/mcderdo01.html" xr:uid="{F77FC707-FEC0-6C45-B2BD-EC22C868920E}"/>
-    <hyperlink ref="B521" r:id="rId520" display="https://www.basketball-reference.com/players/b/branhma01.html" xr:uid="{66C522BC-F9AE-C640-8F01-2C98C796EE20}"/>
-    <hyperlink ref="B522" r:id="rId521" display="https://www.basketball-reference.com/players/c/colliza01.html" xr:uid="{0E527147-0693-D849-81DA-E7E5A492A968}"/>
-    <hyperlink ref="B523" r:id="rId522" display="https://www.basketball-reference.com/players/v/vassede01.html" xr:uid="{B73D7EC1-8DCE-7341-A3F9-C01F59EFEB1B}"/>
-    <hyperlink ref="B524" r:id="rId523" display="https://www.basketball-reference.com/players/c/cissosi01.html" xr:uid="{2CD8C3BF-8FE0-A644-8B08-BFF3CFD6A5C0}"/>
-    <hyperlink ref="B525" r:id="rId524" display="https://www.basketball-reference.com/players/b/barlodo01.html" xr:uid="{D281EB3F-188B-9D44-A9C0-DC51F54D9C95}"/>
-    <hyperlink ref="B526" r:id="rId525" display="https://www.basketball-reference.com/players/b/bassech01.html" xr:uid="{7BC95C52-F304-114E-8F9C-D29FBD5F8650}"/>
-    <hyperlink ref="B527" r:id="rId526" display="https://www.basketball-reference.com/players/c/champju02.html" xr:uid="{EA19F584-1CBE-B34B-A8EC-84E9EA8386E9}"/>
-    <hyperlink ref="B528" r:id="rId527" display="https://www.basketball-reference.com/players/j/jonestr01.html" xr:uid="{275DD1CA-4CE9-BA42-A259-AE053A5A8429}"/>
-    <hyperlink ref="B529" r:id="rId528" display="https://www.basketball-reference.com/players/m/mamuksa01.html" xr:uid="{6F4DA605-17B0-8D42-B912-41674BA76915}"/>
-    <hyperlink ref="B530" r:id="rId529" display="https://www.basketball-reference.com/players/d/diakima01.html" xr:uid="{E1156A23-8051-B54F-8C8D-8A137A5A353B}"/>
-    <hyperlink ref="B531" r:id="rId530" display="https://www.basketball-reference.com/players/d/dukeda01.html" xr:uid="{72D446ED-8EAC-024B-9513-26C1A6244136}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>